--- a/BackTest/2020-01-15 BackTest ABT.xlsx
+++ b/BackTest/2020-01-15 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>148</v>
+        <v>145.3</v>
       </c>
       <c r="C2" t="n">
-        <v>148</v>
+        <v>145.3</v>
       </c>
       <c r="D2" t="n">
-        <v>148</v>
+        <v>145.3</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>145.3</v>
       </c>
       <c r="F2" t="n">
-        <v>5653.69</v>
+        <v>4012.5367</v>
       </c>
       <c r="G2" t="n">
-        <v>140.5733333333334</v>
+        <v>140.4383333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>148.5</v>
+        <v>148</v>
       </c>
       <c r="C3" t="n">
-        <v>145.5</v>
+        <v>148</v>
       </c>
       <c r="D3" t="n">
-        <v>149.4</v>
+        <v>148</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5</v>
+        <v>148</v>
       </c>
       <c r="F3" t="n">
-        <v>4191.282457306397</v>
+        <v>5653.69</v>
       </c>
       <c r="G3" t="n">
-        <v>140.6700000000001</v>
+        <v>140.5733333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>148.9</v>
+        <v>148.5</v>
       </c>
       <c r="C4" t="n">
-        <v>148.9</v>
+        <v>145.5</v>
       </c>
       <c r="D4" t="n">
-        <v>148.9</v>
+        <v>149.4</v>
       </c>
       <c r="E4" t="n">
-        <v>148.9</v>
+        <v>145.5</v>
       </c>
       <c r="F4" t="n">
-        <v>3.36</v>
+        <v>4191.282457306397</v>
       </c>
       <c r="G4" t="n">
-        <v>140.8183333333334</v>
+        <v>140.6700000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>148.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3092.3398</v>
+        <v>3.36</v>
       </c>
       <c r="G5" t="n">
-        <v>140.9733333333334</v>
+        <v>140.8183333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>148.9</v>
       </c>
       <c r="C6" t="n">
-        <v>150</v>
+        <v>148.9</v>
       </c>
       <c r="D6" t="n">
-        <v>150</v>
+        <v>148.9</v>
       </c>
       <c r="E6" t="n">
-        <v>144.2</v>
+        <v>148.9</v>
       </c>
       <c r="F6" t="n">
-        <v>37057.56028980945</v>
+        <v>3092.3398</v>
       </c>
       <c r="G6" t="n">
-        <v>141.1733333333334</v>
+        <v>140.9733333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C7" t="n">
         <v>150</v>
       </c>
-      <c r="C7" t="n">
-        <v>148.7</v>
-      </c>
       <c r="D7" t="n">
-        <v>158.2</v>
+        <v>150</v>
       </c>
       <c r="E7" t="n">
-        <v>148.2</v>
+        <v>144.2</v>
       </c>
       <c r="F7" t="n">
-        <v>13194.06929975201</v>
+        <v>37057.56028980945</v>
       </c>
       <c r="G7" t="n">
-        <v>141.2516666666667</v>
+        <v>141.1733333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
-        <v>150.1</v>
+        <v>148.7</v>
       </c>
       <c r="D8" t="n">
-        <v>154</v>
+        <v>158.2</v>
       </c>
       <c r="E8" t="n">
-        <v>148.5</v>
+        <v>148.2</v>
       </c>
       <c r="F8" t="n">
-        <v>15829.8469</v>
+        <v>13194.06929975201</v>
       </c>
       <c r="G8" t="n">
-        <v>141.4516666666667</v>
+        <v>141.2516666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>152.9</v>
+        <v>149</v>
       </c>
       <c r="C9" t="n">
-        <v>148.4</v>
+        <v>150.1</v>
       </c>
       <c r="D9" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E9" t="n">
-        <v>148</v>
+        <v>148.5</v>
       </c>
       <c r="F9" t="n">
-        <v>6200.567589757412</v>
+        <v>15829.8469</v>
       </c>
       <c r="G9" t="n">
-        <v>141.5416666666667</v>
+        <v>141.4516666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147.2</v>
+        <v>152.9</v>
       </c>
       <c r="C10" t="n">
-        <v>147.7</v>
+        <v>148.4</v>
       </c>
       <c r="D10" t="n">
+        <v>153</v>
+      </c>
+      <c r="E10" t="n">
         <v>148</v>
       </c>
-      <c r="E10" t="n">
-        <v>143</v>
-      </c>
       <c r="F10" t="n">
-        <v>31299.4957</v>
+        <v>6200.567589757412</v>
       </c>
       <c r="G10" t="n">
-        <v>141.6866666666668</v>
+        <v>141.5416666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="C11" t="n">
         <v>147.7</v>
       </c>
-      <c r="C11" t="n">
-        <v>147</v>
-      </c>
       <c r="D11" t="n">
-        <v>147.7</v>
+        <v>148</v>
       </c>
       <c r="E11" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F11" t="n">
-        <v>7547.2263</v>
+        <v>31299.4957</v>
       </c>
       <c r="G11" t="n">
-        <v>141.8350000000001</v>
+        <v>141.6866666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147.6</v>
+        <v>147.7</v>
       </c>
       <c r="C12" t="n">
-        <v>147.6</v>
+        <v>147</v>
       </c>
       <c r="D12" t="n">
-        <v>147.6</v>
+        <v>147.7</v>
       </c>
       <c r="E12" t="n">
-        <v>147.6</v>
+        <v>147</v>
       </c>
       <c r="F12" t="n">
-        <v>475.8837</v>
+        <v>7547.2263</v>
       </c>
       <c r="G12" t="n">
-        <v>142.0100000000001</v>
+        <v>141.8350000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>148.9</v>
+        <v>147.6</v>
       </c>
       <c r="C13" t="n">
-        <v>148.9</v>
+        <v>147.6</v>
       </c>
       <c r="D13" t="n">
-        <v>148.9</v>
+        <v>147.6</v>
       </c>
       <c r="E13" t="n">
-        <v>148.9</v>
+        <v>147.6</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>475.8837</v>
       </c>
       <c r="G13" t="n">
-        <v>142.1916666666667</v>
+        <v>142.0100000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>148.9</v>
       </c>
       <c r="C14" t="n">
-        <v>147</v>
+        <v>148.9</v>
       </c>
       <c r="D14" t="n">
         <v>148.9</v>
       </c>
       <c r="E14" t="n">
-        <v>147</v>
+        <v>148.9</v>
       </c>
       <c r="F14" t="n">
-        <v>7768.9011</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>142.3216666666667</v>
+        <v>142.1916666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148.3</v>
+        <v>148.9</v>
       </c>
       <c r="C15" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D15" t="n">
-        <v>156</v>
+        <v>148.9</v>
       </c>
       <c r="E15" t="n">
-        <v>148.3</v>
+        <v>147</v>
       </c>
       <c r="F15" t="n">
-        <v>3241.1655</v>
+        <v>7768.9011</v>
       </c>
       <c r="G15" t="n">
-        <v>142.5683333333334</v>
+        <v>142.3216666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="C16" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D16" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E16" t="n">
-        <v>149</v>
+        <v>148.3</v>
       </c>
       <c r="F16" t="n">
-        <v>426.93</v>
+        <v>3241.1655</v>
       </c>
       <c r="G16" t="n">
-        <v>142.7516666666667</v>
+        <v>142.5683333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C17" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D17" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E17" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F17" t="n">
-        <v>464.3525</v>
+        <v>426.93</v>
       </c>
       <c r="G17" t="n">
-        <v>142.9016666666667</v>
+        <v>142.7516666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>153.7</v>
+        <v>147</v>
       </c>
       <c r="C18" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" t="n">
-        <v>153.7</v>
+        <v>147</v>
       </c>
       <c r="E18" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" t="n">
-        <v>426.6953</v>
+        <v>464.3525</v>
       </c>
       <c r="G18" t="n">
-        <v>143.0683333333334</v>
+        <v>142.9016666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>151.5</v>
+        <v>153.7</v>
       </c>
       <c r="C19" t="n">
         <v>148</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5</v>
+        <v>153.7</v>
       </c>
       <c r="E19" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="F19" t="n">
-        <v>3036.196214075821</v>
+        <v>426.6953</v>
       </c>
       <c r="G19" t="n">
-        <v>143.235</v>
+        <v>143.0683333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="C20" t="n">
         <v>148</v>
       </c>
-      <c r="C20" t="n">
-        <v>149</v>
-      </c>
       <c r="D20" t="n">
-        <v>149</v>
+        <v>151.5</v>
       </c>
       <c r="E20" t="n">
-        <v>148</v>
+        <v>147.9</v>
       </c>
       <c r="F20" t="n">
-        <v>1504</v>
+        <v>3036.196214075821</v>
       </c>
       <c r="G20" t="n">
-        <v>143.435</v>
+        <v>143.235</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" t="n">
         <v>149</v>
@@ -1107,13 +1107,13 @@
         <v>149</v>
       </c>
       <c r="E21" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>1504</v>
       </c>
       <c r="G21" t="n">
-        <v>143.6016666666667</v>
+        <v>143.435</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>155.9</v>
+        <v>149</v>
       </c>
       <c r="C22" t="n">
-        <v>155.9</v>
+        <v>149</v>
       </c>
       <c r="D22" t="n">
-        <v>155.9</v>
+        <v>149</v>
       </c>
       <c r="E22" t="n">
-        <v>155.9</v>
+        <v>149</v>
       </c>
       <c r="F22" t="n">
-        <v>2932.7446</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>143.8666666666667</v>
+        <v>143.6016666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>155.9</v>
       </c>
       <c r="C23" t="n">
-        <v>156</v>
+        <v>155.9</v>
       </c>
       <c r="D23" t="n">
-        <v>156</v>
+        <v>155.9</v>
       </c>
       <c r="E23" t="n">
-        <v>148.2</v>
+        <v>155.9</v>
       </c>
       <c r="F23" t="n">
-        <v>3520.6846</v>
+        <v>2932.7446</v>
       </c>
       <c r="G23" t="n">
-        <v>144.15</v>
+        <v>143.8666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>150</v>
+        <v>155.9</v>
       </c>
       <c r="C24" t="n">
-        <v>154.9</v>
+        <v>156</v>
       </c>
       <c r="D24" t="n">
-        <v>154.9</v>
+        <v>156</v>
       </c>
       <c r="E24" t="n">
-        <v>150</v>
+        <v>148.2</v>
       </c>
       <c r="F24" t="n">
-        <v>9184.8922</v>
+        <v>3520.6846</v>
       </c>
       <c r="G24" t="n">
-        <v>144.3683333333334</v>
+        <v>144.15</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>150</v>
       </c>
       <c r="C25" t="n">
-        <v>150</v>
+        <v>154.9</v>
       </c>
       <c r="D25" t="n">
-        <v>150</v>
+        <v>154.9</v>
       </c>
       <c r="E25" t="n">
         <v>150</v>
       </c>
       <c r="F25" t="n">
-        <v>2573.8709</v>
+        <v>9184.8922</v>
       </c>
       <c r="G25" t="n">
-        <v>144.4866666666667</v>
+        <v>144.3683333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>152.9</v>
+        <v>150</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9</v>
+        <v>150</v>
       </c>
       <c r="D26" t="n">
-        <v>152.9</v>
+        <v>150</v>
       </c>
       <c r="E26" t="n">
-        <v>152.9</v>
+        <v>150</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>2573.8709</v>
       </c>
       <c r="G26" t="n">
-        <v>144.6533333333334</v>
+        <v>144.4866666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>150.5</v>
+        <v>152.9</v>
       </c>
       <c r="C27" t="n">
-        <v>150.4</v>
+        <v>152.9</v>
       </c>
       <c r="D27" t="n">
-        <v>151</v>
+        <v>152.9</v>
       </c>
       <c r="E27" t="n">
-        <v>150.4</v>
+        <v>152.9</v>
       </c>
       <c r="F27" t="n">
-        <v>3735.9945</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>144.8433333333334</v>
+        <v>144.6533333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C28" t="n">
         <v>150.4</v>
       </c>
-      <c r="C28" t="n">
-        <v>147.1</v>
-      </c>
       <c r="D28" t="n">
+        <v>151</v>
+      </c>
+      <c r="E28" t="n">
         <v>150.4</v>
       </c>
-      <c r="E28" t="n">
-        <v>147.1</v>
-      </c>
       <c r="F28" t="n">
-        <v>13733.5135</v>
+        <v>3735.9945</v>
       </c>
       <c r="G28" t="n">
-        <v>144.9616666666667</v>
+        <v>144.8433333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>150.4</v>
       </c>
       <c r="C29" t="n">
-        <v>150.4</v>
+        <v>147.1</v>
       </c>
       <c r="D29" t="n">
         <v>150.4</v>
       </c>
       <c r="E29" t="n">
-        <v>150.4</v>
+        <v>147.1</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>13733.5135</v>
       </c>
       <c r="G29" t="n">
-        <v>145.1566666666667</v>
+        <v>144.9616666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>152.7</v>
+        <v>150.4</v>
       </c>
       <c r="C30" t="n">
-        <v>152.7</v>
+        <v>150.4</v>
       </c>
       <c r="D30" t="n">
-        <v>152.7</v>
+        <v>150.4</v>
       </c>
       <c r="E30" t="n">
-        <v>152.7</v>
+        <v>150.4</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>145.3733333333334</v>
+        <v>145.1566666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>147.8</v>
+        <v>152.7</v>
       </c>
       <c r="C31" t="n">
-        <v>152.9</v>
+        <v>152.7</v>
       </c>
       <c r="D31" t="n">
-        <v>152.9</v>
+        <v>152.7</v>
       </c>
       <c r="E31" t="n">
-        <v>147.2</v>
+        <v>152.7</v>
       </c>
       <c r="F31" t="n">
-        <v>3786.8946</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>145.6283333333334</v>
+        <v>145.3733333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>150.9</v>
+        <v>147.8</v>
       </c>
       <c r="C32" t="n">
-        <v>150.9</v>
+        <v>152.9</v>
       </c>
       <c r="D32" t="n">
-        <v>150.9</v>
+        <v>152.9</v>
       </c>
       <c r="E32" t="n">
-        <v>150.9</v>
+        <v>147.2</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>3786.8946</v>
       </c>
       <c r="G32" t="n">
-        <v>145.85</v>
+        <v>145.6283333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>147.4</v>
+        <v>150.9</v>
       </c>
       <c r="C33" t="n">
-        <v>147.4</v>
+        <v>150.9</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4</v>
+        <v>150.9</v>
       </c>
       <c r="E33" t="n">
-        <v>147.4</v>
+        <v>150.9</v>
       </c>
       <c r="F33" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>145.9966666666666</v>
+        <v>145.85</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>150.9</v>
+        <v>147.4</v>
       </c>
       <c r="C34" t="n">
-        <v>150.9</v>
+        <v>147.4</v>
       </c>
       <c r="D34" t="n">
-        <v>150.9</v>
+        <v>147.4</v>
       </c>
       <c r="E34" t="n">
-        <v>150.9</v>
+        <v>147.4</v>
       </c>
       <c r="F34" t="n">
-        <v>1075.8305</v>
+        <v>444</v>
       </c>
       <c r="G34" t="n">
-        <v>146.165</v>
+        <v>145.9966666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>151</v>
+        <v>150.9</v>
       </c>
       <c r="C35" t="n">
-        <v>151</v>
+        <v>150.9</v>
       </c>
       <c r="D35" t="n">
-        <v>151</v>
+        <v>150.9</v>
       </c>
       <c r="E35" t="n">
-        <v>151</v>
+        <v>150.9</v>
       </c>
       <c r="F35" t="n">
-        <v>2900.6612</v>
+        <v>1075.8305</v>
       </c>
       <c r="G35" t="n">
-        <v>146.38</v>
+        <v>146.165</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>148.3</v>
+        <v>151</v>
       </c>
       <c r="C36" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D36" t="n">
-        <v>148.3</v>
+        <v>151</v>
       </c>
       <c r="E36" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F36" t="n">
-        <v>18008.9516</v>
+        <v>2900.6612</v>
       </c>
       <c r="G36" t="n">
-        <v>146.53</v>
+        <v>146.38</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>148.5</v>
+        <v>148.3</v>
       </c>
       <c r="C37" t="n">
-        <v>152.1</v>
+        <v>147</v>
       </c>
       <c r="D37" t="n">
-        <v>152.1</v>
+        <v>148.3</v>
       </c>
       <c r="E37" t="n">
-        <v>145.1</v>
+        <v>147</v>
       </c>
       <c r="F37" t="n">
-        <v>11978.7412</v>
+        <v>18008.9516</v>
       </c>
       <c r="G37" t="n">
-        <v>146.765</v>
+        <v>146.53</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,32 +1693,38 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>149.9</v>
+        <v>148.5</v>
       </c>
       <c r="C38" t="n">
-        <v>152.3</v>
+        <v>152.1</v>
       </c>
       <c r="D38" t="n">
-        <v>152.3</v>
+        <v>152.1</v>
       </c>
       <c r="E38" t="n">
-        <v>149.9</v>
+        <v>145.1</v>
       </c>
       <c r="F38" t="n">
-        <v>4261.0833</v>
+        <v>11978.7412</v>
       </c>
       <c r="G38" t="n">
-        <v>147.0383333333333</v>
+        <v>146.765</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>147</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1734,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>152.7</v>
+        <v>149.9</v>
       </c>
       <c r="C39" t="n">
-        <v>152.9</v>
+        <v>152.3</v>
       </c>
       <c r="D39" t="n">
-        <v>152.9</v>
+        <v>152.3</v>
       </c>
       <c r="E39" t="n">
-        <v>152.7</v>
+        <v>149.9</v>
       </c>
       <c r="F39" t="n">
-        <v>1669</v>
+        <v>4261.0833</v>
       </c>
       <c r="G39" t="n">
-        <v>147.2716666666666</v>
+        <v>147.0383333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1759,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1769,16 +1779,16 @@
         <v>152.9</v>
       </c>
       <c r="D40" t="n">
-        <v>153</v>
+        <v>152.9</v>
       </c>
       <c r="E40" t="n">
         <v>152.7</v>
       </c>
       <c r="F40" t="n">
-        <v>607.9769</v>
+        <v>1669</v>
       </c>
       <c r="G40" t="n">
-        <v>147.57</v>
+        <v>147.2716666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1798,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1812,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="C41" t="n">
         <v>152.9</v>
       </c>
-      <c r="C41" t="n">
-        <v>155</v>
-      </c>
       <c r="D41" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E41" t="n">
-        <v>152.9</v>
+        <v>152.7</v>
       </c>
       <c r="F41" t="n">
-        <v>4873.6525</v>
+        <v>607.9769</v>
       </c>
       <c r="G41" t="n">
-        <v>147.8533333333333</v>
+        <v>147.57</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1837,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1836,19 +1854,19 @@
         <v>152.9</v>
       </c>
       <c r="C42" t="n">
-        <v>156.2</v>
+        <v>155</v>
       </c>
       <c r="D42" t="n">
-        <v>156.2</v>
+        <v>155</v>
       </c>
       <c r="E42" t="n">
         <v>152.9</v>
       </c>
       <c r="F42" t="n">
-        <v>6024.161</v>
+        <v>4873.6525</v>
       </c>
       <c r="G42" t="n">
-        <v>148.1416666666667</v>
+        <v>147.8533333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1876,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1890,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="C43" t="n">
         <v>156.2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>153.8</v>
       </c>
       <c r="D43" t="n">
         <v>156.2</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8</v>
+        <v>152.9</v>
       </c>
       <c r="F43" t="n">
-        <v>5364.38</v>
+        <v>6024.161</v>
       </c>
       <c r="G43" t="n">
-        <v>148.3883333333333</v>
+        <v>148.1416666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1915,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1929,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>156.1</v>
+        <v>156.2</v>
       </c>
       <c r="C44" t="n">
-        <v>156.1</v>
+        <v>153.8</v>
       </c>
       <c r="D44" t="n">
-        <v>156.1</v>
+        <v>156.2</v>
       </c>
       <c r="E44" t="n">
-        <v>156.1</v>
+        <v>153.8</v>
       </c>
       <c r="F44" t="n">
-        <v>198.604</v>
+        <v>5364.38</v>
       </c>
       <c r="G44" t="n">
-        <v>148.6733333333333</v>
+        <v>148.3883333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +1954,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1941,19 +1971,19 @@
         <v>156.1</v>
       </c>
       <c r="C45" t="n">
-        <v>156.2</v>
+        <v>156.1</v>
       </c>
       <c r="D45" t="n">
-        <v>156.2</v>
+        <v>156.1</v>
       </c>
       <c r="E45" t="n">
         <v>156.1</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>198.604</v>
       </c>
       <c r="G45" t="n">
-        <v>148.945</v>
+        <v>148.6733333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +1993,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2007,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="C46" t="n">
         <v>156.2</v>
       </c>
-      <c r="C46" t="n">
-        <v>157</v>
-      </c>
       <c r="D46" t="n">
-        <v>157</v>
+        <v>156.2</v>
       </c>
       <c r="E46" t="n">
-        <v>156.2</v>
+        <v>156.1</v>
       </c>
       <c r="F46" t="n">
-        <v>2431.5791</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>149.1816666666667</v>
+        <v>148.945</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2032,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2046,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>156.9</v>
+        <v>156.2</v>
       </c>
       <c r="C47" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="D47" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="E47" t="n">
-        <v>156.9</v>
+        <v>156.2</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>2431.5791</v>
       </c>
       <c r="G47" t="n">
-        <v>149.4166666666667</v>
+        <v>149.1816666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2071,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2085,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>156.8</v>
+        <v>156.9</v>
       </c>
       <c r="C48" t="n">
-        <v>155.1</v>
+        <v>156.9</v>
       </c>
       <c r="D48" t="n">
         <v>156.9</v>
       </c>
       <c r="E48" t="n">
-        <v>155.1</v>
+        <v>156.9</v>
       </c>
       <c r="F48" t="n">
-        <v>670.4681</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>149.6183333333334</v>
+        <v>149.4166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2110,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2124,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>156.9</v>
+        <v>156.8</v>
       </c>
       <c r="C49" t="n">
-        <v>156.9</v>
+        <v>155.1</v>
       </c>
       <c r="D49" t="n">
         <v>156.9</v>
       </c>
       <c r="E49" t="n">
-        <v>156.9</v>
+        <v>155.1</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>670.4681</v>
       </c>
       <c r="G49" t="n">
-        <v>149.8983333333334</v>
+        <v>149.6183333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2149,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,7 +2163,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>154.7</v>
+        <v>156.9</v>
       </c>
       <c r="C50" t="n">
         <v>156.9</v>
@@ -2122,13 +2172,13 @@
         <v>156.9</v>
       </c>
       <c r="E50" t="n">
-        <v>153.9</v>
+        <v>156.9</v>
       </c>
       <c r="F50" t="n">
-        <v>12469.8144</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>150.1783333333333</v>
+        <v>149.8983333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2188,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,7 +2202,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>156.9</v>
+        <v>154.7</v>
       </c>
       <c r="C51" t="n">
         <v>156.9</v>
@@ -2157,13 +2211,13 @@
         <v>156.9</v>
       </c>
       <c r="E51" t="n">
-        <v>156.9</v>
+        <v>153.9</v>
       </c>
       <c r="F51" t="n">
-        <v>201.3415</v>
+        <v>12469.8144</v>
       </c>
       <c r="G51" t="n">
-        <v>150.3766666666667</v>
+        <v>150.1783333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2227,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2186,19 +2244,19 @@
         <v>156.9</v>
       </c>
       <c r="C52" t="n">
-        <v>158.1</v>
+        <v>156.9</v>
       </c>
       <c r="D52" t="n">
-        <v>158.1</v>
+        <v>156.9</v>
       </c>
       <c r="E52" t="n">
         <v>156.9</v>
       </c>
       <c r="F52" t="n">
-        <v>1750</v>
+        <v>201.3415</v>
       </c>
       <c r="G52" t="n">
-        <v>150.595</v>
+        <v>150.3766666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2266,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,7 +2280,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>158.1</v>
+        <v>156.9</v>
       </c>
       <c r="C53" t="n">
         <v>158.1</v>
@@ -2227,13 +2289,13 @@
         <v>158.1</v>
       </c>
       <c r="E53" t="n">
-        <v>158.1</v>
+        <v>156.9</v>
       </c>
       <c r="F53" t="n">
-        <v>785.9844000000001</v>
+        <v>1750</v>
       </c>
       <c r="G53" t="n">
-        <v>150.7833333333334</v>
+        <v>150.595</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2305,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2319,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>158.3</v>
+        <v>158.1</v>
       </c>
       <c r="C54" t="n">
-        <v>160.9</v>
+        <v>158.1</v>
       </c>
       <c r="D54" t="n">
-        <v>160.9</v>
+        <v>158.1</v>
       </c>
       <c r="E54" t="n">
-        <v>153.8</v>
+        <v>158.1</v>
       </c>
       <c r="F54" t="n">
-        <v>13293.3186</v>
+        <v>785.9844000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>150.99</v>
+        <v>150.7833333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2344,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2358,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>160.6</v>
+        <v>158.3</v>
       </c>
       <c r="C55" t="n">
-        <v>160.6</v>
+        <v>160.9</v>
       </c>
       <c r="D55" t="n">
-        <v>160.6</v>
+        <v>160.9</v>
       </c>
       <c r="E55" t="n">
-        <v>160.6</v>
+        <v>153.8</v>
       </c>
       <c r="F55" t="n">
-        <v>1746.3854</v>
+        <v>13293.3186</v>
       </c>
       <c r="G55" t="n">
-        <v>151.2983333333333</v>
+        <v>150.99</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2383,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2397,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>159.9</v>
+        <v>160.6</v>
       </c>
       <c r="C56" t="n">
-        <v>159.9</v>
+        <v>160.6</v>
       </c>
       <c r="D56" t="n">
-        <v>159.9</v>
+        <v>160.6</v>
       </c>
       <c r="E56" t="n">
-        <v>159.9</v>
+        <v>160.6</v>
       </c>
       <c r="F56" t="n">
-        <v>634.8257</v>
+        <v>1746.3854</v>
       </c>
       <c r="G56" t="n">
-        <v>151.5416666666667</v>
+        <v>151.2983333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2422,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2436,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>159.8</v>
+        <v>159.9</v>
       </c>
       <c r="C57" t="n">
-        <v>158</v>
+        <v>159.9</v>
       </c>
       <c r="D57" t="n">
-        <v>159.8</v>
+        <v>159.9</v>
       </c>
       <c r="E57" t="n">
-        <v>158</v>
+        <v>159.9</v>
       </c>
       <c r="F57" t="n">
-        <v>2606.3074</v>
+        <v>634.8257</v>
       </c>
       <c r="G57" t="n">
-        <v>151.73</v>
+        <v>151.5416666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2461,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2475,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>158</v>
+        <v>159.8</v>
       </c>
       <c r="C58" t="n">
         <v>158</v>
       </c>
       <c r="D58" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="E58" t="n">
         <v>158</v>
       </c>
-      <c r="E58" t="n">
-        <v>156.1</v>
-      </c>
       <c r="F58" t="n">
-        <v>7606.3014</v>
+        <v>2606.3074</v>
       </c>
       <c r="G58" t="n">
-        <v>151.995</v>
+        <v>151.73</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2500,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2514,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>157.7</v>
+        <v>158</v>
       </c>
       <c r="C59" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D59" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E59" t="n">
-        <v>157.7</v>
+        <v>156.1</v>
       </c>
       <c r="F59" t="n">
-        <v>204</v>
+        <v>7606.3014</v>
       </c>
       <c r="G59" t="n">
-        <v>152.2416666666667</v>
+        <v>151.995</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2539,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,7 +2553,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>160</v>
+        <v>157.7</v>
       </c>
       <c r="C60" t="n">
         <v>160</v>
@@ -2472,13 +2562,13 @@
         <v>160</v>
       </c>
       <c r="E60" t="n">
-        <v>160</v>
+        <v>157.7</v>
       </c>
       <c r="F60" t="n">
-        <v>236.9378</v>
+        <v>204</v>
       </c>
       <c r="G60" t="n">
-        <v>152.4866666666667</v>
+        <v>152.2416666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2578,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2592,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>155.1</v>
+        <v>160</v>
       </c>
       <c r="C61" t="n">
-        <v>159.6</v>
+        <v>160</v>
       </c>
       <c r="D61" t="n">
-        <v>159.6</v>
+        <v>160</v>
       </c>
       <c r="E61" t="n">
-        <v>155.1</v>
+        <v>160</v>
       </c>
       <c r="F61" t="n">
-        <v>30</v>
+        <v>236.9378</v>
       </c>
       <c r="G61" t="n">
-        <v>152.725</v>
+        <v>152.4866666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2617,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2631,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>156.6</v>
+        <v>155.1</v>
       </c>
       <c r="C62" t="n">
-        <v>157.9</v>
+        <v>159.6</v>
       </c>
       <c r="D62" t="n">
-        <v>157.9</v>
+        <v>159.6</v>
       </c>
       <c r="E62" t="n">
-        <v>155</v>
+        <v>155.1</v>
       </c>
       <c r="F62" t="n">
-        <v>22772.0003</v>
+        <v>30</v>
       </c>
       <c r="G62" t="n">
-        <v>152.89</v>
+        <v>152.725</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2656,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2670,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>153.9</v>
+        <v>156.6</v>
       </c>
       <c r="C63" t="n">
-        <v>153.1</v>
+        <v>157.9</v>
       </c>
       <c r="D63" t="n">
-        <v>153.9</v>
+        <v>157.9</v>
       </c>
       <c r="E63" t="n">
-        <v>153.1</v>
+        <v>155</v>
       </c>
       <c r="F63" t="n">
-        <v>4541.0863</v>
+        <v>22772.0003</v>
       </c>
       <c r="G63" t="n">
-        <v>153.0166666666667</v>
+        <v>152.89</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2695,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2709,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>157.4</v>
+        <v>153.9</v>
       </c>
       <c r="C64" t="n">
-        <v>157.4</v>
+        <v>153.1</v>
       </c>
       <c r="D64" t="n">
-        <v>157.4</v>
+        <v>153.9</v>
       </c>
       <c r="E64" t="n">
-        <v>157.4</v>
+        <v>153.1</v>
       </c>
       <c r="F64" t="n">
-        <v>343.646</v>
+        <v>4541.0863</v>
       </c>
       <c r="G64" t="n">
-        <v>153.1583333333334</v>
+        <v>153.0166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2734,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2748,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>156</v>
+        <v>157.4</v>
       </c>
       <c r="C65" t="n">
-        <v>157.3</v>
+        <v>157.4</v>
       </c>
       <c r="D65" t="n">
         <v>157.4</v>
       </c>
       <c r="E65" t="n">
-        <v>156</v>
+        <v>157.4</v>
       </c>
       <c r="F65" t="n">
-        <v>2426.7205</v>
+        <v>343.646</v>
       </c>
       <c r="G65" t="n">
-        <v>153.2983333333333</v>
+        <v>153.1583333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2773,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2787,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" t="n">
-        <v>157</v>
+        <v>157.3</v>
       </c>
       <c r="D66" t="n">
-        <v>157</v>
+        <v>157.4</v>
       </c>
       <c r="E66" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F66" t="n">
-        <v>69</v>
+        <v>2426.7205</v>
       </c>
       <c r="G66" t="n">
-        <v>153.415</v>
+        <v>153.2983333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2812,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2826,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="C67" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D67" t="n">
-        <v>156.9</v>
+        <v>157</v>
       </c>
       <c r="E67" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F67" t="n">
-        <v>3798.504</v>
+        <v>69</v>
       </c>
       <c r="G67" t="n">
-        <v>153.5366666666667</v>
+        <v>153.415</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2851,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2865,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>156</v>
+        <v>156.9</v>
       </c>
       <c r="C68" t="n">
         <v>156</v>
       </c>
       <c r="D68" t="n">
-        <v>156</v>
+        <v>156.9</v>
       </c>
       <c r="E68" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F68" t="n">
-        <v>56</v>
+        <v>3798.504</v>
       </c>
       <c r="G68" t="n">
-        <v>153.635</v>
+        <v>153.5366666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2890,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2904,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>155.6</v>
+        <v>156</v>
       </c>
       <c r="C69" t="n">
-        <v>156.8</v>
+        <v>156</v>
       </c>
       <c r="D69" t="n">
-        <v>156.8</v>
+        <v>156</v>
       </c>
       <c r="E69" t="n">
-        <v>155.6</v>
+        <v>156</v>
       </c>
       <c r="F69" t="n">
-        <v>1238</v>
+        <v>56</v>
       </c>
       <c r="G69" t="n">
-        <v>153.775</v>
+        <v>153.635</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2929,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,7 +2943,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>156.8</v>
+        <v>155.6</v>
       </c>
       <c r="C70" t="n">
         <v>156.8</v>
@@ -2822,13 +2952,13 @@
         <v>156.8</v>
       </c>
       <c r="E70" t="n">
-        <v>156.8</v>
+        <v>155.6</v>
       </c>
       <c r="F70" t="n">
-        <v>431.5776</v>
+        <v>1238</v>
       </c>
       <c r="G70" t="n">
-        <v>153.9266666666666</v>
+        <v>153.775</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2968,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2982,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>156.9</v>
+        <v>156.8</v>
       </c>
       <c r="C71" t="n">
-        <v>156.9</v>
+        <v>156.8</v>
       </c>
       <c r="D71" t="n">
-        <v>156.9</v>
+        <v>156.8</v>
       </c>
       <c r="E71" t="n">
-        <v>156.9</v>
+        <v>156.8</v>
       </c>
       <c r="F71" t="n">
-        <v>177.0925</v>
+        <v>431.5776</v>
       </c>
       <c r="G71" t="n">
-        <v>154.0916666666666</v>
+        <v>153.9266666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3007,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3021,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>156.5</v>
+        <v>156.9</v>
       </c>
       <c r="C72" t="n">
-        <v>156.5</v>
+        <v>156.9</v>
       </c>
       <c r="D72" t="n">
-        <v>156.5</v>
+        <v>156.9</v>
       </c>
       <c r="E72" t="n">
-        <v>156.5</v>
+        <v>156.9</v>
       </c>
       <c r="F72" t="n">
-        <v>1853.035189456869</v>
+        <v>177.0925</v>
       </c>
       <c r="G72" t="n">
-        <v>154.24</v>
+        <v>154.0916666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3046,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3060,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>156</v>
+        <v>156.5</v>
       </c>
       <c r="C73" t="n">
-        <v>156</v>
+        <v>156.5</v>
       </c>
       <c r="D73" t="n">
-        <v>156</v>
+        <v>156.5</v>
       </c>
       <c r="E73" t="n">
-        <v>156</v>
+        <v>156.5</v>
       </c>
       <c r="F73" t="n">
-        <v>256.4103</v>
+        <v>1853.035189456869</v>
       </c>
       <c r="G73" t="n">
-        <v>154.3583333333333</v>
+        <v>154.24</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3085,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2965,10 +3111,10 @@
         <v>156</v>
       </c>
       <c r="F74" t="n">
-        <v>128.2052</v>
+        <v>256.4103</v>
       </c>
       <c r="G74" t="n">
-        <v>154.5083333333333</v>
+        <v>154.3583333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3124,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3138,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>155.5</v>
+        <v>156</v>
       </c>
       <c r="C75" t="n">
-        <v>155.5</v>
+        <v>156</v>
       </c>
       <c r="D75" t="n">
-        <v>155.5</v>
+        <v>156</v>
       </c>
       <c r="E75" t="n">
-        <v>155.5</v>
+        <v>156</v>
       </c>
       <c r="F75" t="n">
-        <v>248.8027</v>
+        <v>128.2052</v>
       </c>
       <c r="G75" t="n">
-        <v>154.5</v>
+        <v>154.5083333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3163,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3026,19 +3180,19 @@
         <v>155.5</v>
       </c>
       <c r="C76" t="n">
-        <v>155</v>
+        <v>155.5</v>
       </c>
       <c r="D76" t="n">
         <v>155.5</v>
       </c>
       <c r="E76" t="n">
-        <v>155</v>
+        <v>155.5</v>
       </c>
       <c r="F76" t="n">
-        <v>263.5623</v>
+        <v>248.8027</v>
       </c>
       <c r="G76" t="n">
-        <v>154.6</v>
+        <v>154.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3202,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3216,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>156</v>
+        <v>155.5</v>
       </c>
       <c r="C77" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D77" t="n">
-        <v>156</v>
+        <v>155.5</v>
       </c>
       <c r="E77" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>263.5623</v>
       </c>
       <c r="G77" t="n">
-        <v>154.75</v>
+        <v>154.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3241,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3255,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C78" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D78" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E78" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F78" t="n">
-        <v>703.3149</v>
+        <v>4</v>
       </c>
       <c r="G78" t="n">
-        <v>154.8333333333333</v>
+        <v>154.75</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3280,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3294,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>155</v>
+      </c>
+      <c r="C79" t="n">
         <v>153</v>
       </c>
-      <c r="C79" t="n">
-        <v>152.4</v>
-      </c>
       <c r="D79" t="n">
+        <v>155</v>
+      </c>
+      <c r="E79" t="n">
         <v>153</v>
       </c>
-      <c r="E79" t="n">
-        <v>152.4</v>
-      </c>
       <c r="F79" t="n">
-        <v>3783.7768</v>
+        <v>703.3149</v>
       </c>
       <c r="G79" t="n">
-        <v>154.9066666666666</v>
+        <v>154.8333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3319,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3333,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>148.1</v>
+        <v>153</v>
       </c>
       <c r="C80" t="n">
-        <v>154.7</v>
+        <v>152.4</v>
       </c>
       <c r="D80" t="n">
-        <v>154.7</v>
+        <v>153</v>
       </c>
       <c r="E80" t="n">
-        <v>147.1</v>
+        <v>152.4</v>
       </c>
       <c r="F80" t="n">
-        <v>4035.3489</v>
+        <v>3783.7768</v>
       </c>
       <c r="G80" t="n">
-        <v>155.0016666666666</v>
+        <v>154.9066666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3358,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3372,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>150.7</v>
+        <v>148.1</v>
       </c>
       <c r="C81" t="n">
-        <v>152.9</v>
+        <v>154.7</v>
       </c>
       <c r="D81" t="n">
-        <v>152.9</v>
+        <v>154.7</v>
       </c>
       <c r="E81" t="n">
-        <v>150.7</v>
+        <v>147.1</v>
       </c>
       <c r="F81" t="n">
-        <v>3029.2557</v>
+        <v>4035.3489</v>
       </c>
       <c r="G81" t="n">
-        <v>155.0666666666666</v>
+        <v>155.0016666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3397,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3411,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>153</v>
+        <v>150.7</v>
       </c>
       <c r="C82" t="n">
         <v>152.9</v>
       </c>
       <c r="D82" t="n">
-        <v>153</v>
+        <v>152.9</v>
       </c>
       <c r="E82" t="n">
-        <v>152.9</v>
+        <v>150.7</v>
       </c>
       <c r="F82" t="n">
-        <v>175.3139</v>
+        <v>3029.2557</v>
       </c>
       <c r="G82" t="n">
-        <v>155.0166666666666</v>
+        <v>155.0666666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3436,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3450,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>152.9</v>
+        <v>153</v>
       </c>
       <c r="C83" t="n">
         <v>152.9</v>
       </c>
       <c r="D83" t="n">
-        <v>152.9</v>
+        <v>153</v>
       </c>
       <c r="E83" t="n">
         <v>152.9</v>
       </c>
       <c r="F83" t="n">
-        <v>239.8812</v>
+        <v>175.3139</v>
       </c>
       <c r="G83" t="n">
-        <v>154.965</v>
+        <v>155.0166666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3475,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3489,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>151</v>
+        <v>152.9</v>
       </c>
       <c r="C84" t="n">
-        <v>147.5</v>
+        <v>152.9</v>
       </c>
       <c r="D84" t="n">
-        <v>151</v>
+        <v>152.9</v>
       </c>
       <c r="E84" t="n">
-        <v>147.5</v>
+        <v>152.9</v>
       </c>
       <c r="F84" t="n">
-        <v>74.47150000000001</v>
+        <v>239.8812</v>
       </c>
       <c r="G84" t="n">
-        <v>154.8416666666666</v>
+        <v>154.965</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3514,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3528,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>151</v>
+      </c>
+      <c r="C85" t="n">
         <v>147.5</v>
       </c>
-      <c r="C85" t="n">
-        <v>152.1</v>
-      </c>
       <c r="D85" t="n">
-        <v>152.1</v>
+        <v>151</v>
       </c>
       <c r="E85" t="n">
-        <v>147.3</v>
+        <v>147.5</v>
       </c>
       <c r="F85" t="n">
-        <v>13288.6124</v>
+        <v>74.47150000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>154.8766666666666</v>
+        <v>154.8416666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3553,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3567,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>151.6</v>
+        <v>147.5</v>
       </c>
       <c r="C86" t="n">
-        <v>151.6</v>
+        <v>152.1</v>
       </c>
       <c r="D86" t="n">
-        <v>151.6</v>
+        <v>152.1</v>
       </c>
       <c r="E86" t="n">
-        <v>151.6</v>
+        <v>147.3</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>13288.6124</v>
       </c>
       <c r="G86" t="n">
-        <v>154.855</v>
+        <v>154.8766666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3592,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3606,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>148.1</v>
+        <v>151.6</v>
       </c>
       <c r="C87" t="n">
-        <v>148</v>
+        <v>151.6</v>
       </c>
       <c r="D87" t="n">
-        <v>148.1</v>
+        <v>151.6</v>
       </c>
       <c r="E87" t="n">
-        <v>148</v>
+        <v>151.6</v>
       </c>
       <c r="F87" t="n">
-        <v>681.5791</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>154.815</v>
+        <v>154.855</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3631,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3645,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>149.4</v>
+        <v>148.1</v>
       </c>
       <c r="C88" t="n">
-        <v>149.4</v>
+        <v>148</v>
       </c>
       <c r="D88" t="n">
-        <v>149.4</v>
+        <v>148.1</v>
       </c>
       <c r="E88" t="n">
-        <v>149.4</v>
+        <v>148</v>
       </c>
       <c r="F88" t="n">
-        <v>1028.951</v>
+        <v>681.5791</v>
       </c>
       <c r="G88" t="n">
-        <v>154.8533333333333</v>
+        <v>154.815</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3670,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3684,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>148</v>
+        <v>149.4</v>
       </c>
       <c r="C89" t="n">
-        <v>148</v>
+        <v>149.4</v>
       </c>
       <c r="D89" t="n">
-        <v>148</v>
+        <v>149.4</v>
       </c>
       <c r="E89" t="n">
-        <v>148</v>
+        <v>149.4</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>1028.951</v>
       </c>
       <c r="G89" t="n">
-        <v>154.8133333333333</v>
+        <v>154.8533333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3709,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3723,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C90" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D90" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E90" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F90" t="n">
         <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>154.7183333333333</v>
+        <v>154.8133333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3748,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3551,19 +3765,19 @@
         <v>147</v>
       </c>
       <c r="C91" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D91" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E91" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F91" t="n">
-        <v>1415.8611</v>
+        <v>5</v>
       </c>
       <c r="G91" t="n">
-        <v>154.6366666666667</v>
+        <v>154.7183333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3787,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3801,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>147</v>
+      </c>
+      <c r="C92" t="n">
+        <v>148</v>
+      </c>
+      <c r="D92" t="n">
+        <v>148</v>
+      </c>
+      <c r="E92" t="n">
         <v>146</v>
       </c>
-      <c r="C92" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="D92" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="E92" t="n">
-        <v>144.2</v>
-      </c>
       <c r="F92" t="n">
-        <v>7051.4153</v>
+        <v>1415.8611</v>
       </c>
       <c r="G92" t="n">
-        <v>154.5866666666666</v>
+        <v>154.6366666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3826,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,7 +3840,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>146.9</v>
+        <v>146</v>
       </c>
       <c r="C93" t="n">
         <v>147.9</v>
@@ -3627,13 +3849,13 @@
         <v>147.9</v>
       </c>
       <c r="E93" t="n">
-        <v>146.9</v>
+        <v>144.2</v>
       </c>
       <c r="F93" t="n">
-        <v>1449.687344827586</v>
+        <v>7051.4153</v>
       </c>
       <c r="G93" t="n">
-        <v>154.595</v>
+        <v>154.5866666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3865,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3879,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="C94" t="n">
         <v>147.9</v>
-      </c>
-      <c r="C94" t="n">
-        <v>145.1</v>
       </c>
       <c r="D94" t="n">
         <v>147.9</v>
       </c>
       <c r="E94" t="n">
-        <v>145.1</v>
+        <v>146.9</v>
       </c>
       <c r="F94" t="n">
-        <v>14662.0202</v>
+        <v>1449.687344827586</v>
       </c>
       <c r="G94" t="n">
-        <v>154.4983333333333</v>
+        <v>154.595</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3904,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3918,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="C95" t="n">
         <v>145.1</v>
       </c>
-      <c r="C95" t="n">
-        <v>152</v>
-      </c>
       <c r="D95" t="n">
-        <v>152</v>
+        <v>147.9</v>
       </c>
       <c r="E95" t="n">
-        <v>145</v>
+        <v>145.1</v>
       </c>
       <c r="F95" t="n">
-        <v>33077.8482</v>
+        <v>14662.0202</v>
       </c>
       <c r="G95" t="n">
-        <v>154.515</v>
+        <v>154.4983333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3943,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3957,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>148</v>
+        <v>145.1</v>
       </c>
       <c r="C96" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D96" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E96" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F96" t="n">
-        <v>401.7665</v>
+        <v>33077.8482</v>
       </c>
       <c r="G96" t="n">
-        <v>154.5316666666667</v>
+        <v>154.515</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3982,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3996,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>144.8</v>
+        <v>148</v>
       </c>
       <c r="C97" t="n">
-        <v>144.8</v>
+        <v>148</v>
       </c>
       <c r="D97" t="n">
-        <v>144.8</v>
+        <v>148</v>
       </c>
       <c r="E97" t="n">
-        <v>144.8</v>
+        <v>148</v>
       </c>
       <c r="F97" t="n">
-        <v>669.7247</v>
+        <v>401.7665</v>
       </c>
       <c r="G97" t="n">
-        <v>154.41</v>
+        <v>154.5316666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +4021,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4035,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>147</v>
+        <v>144.8</v>
       </c>
       <c r="C98" t="n">
-        <v>147</v>
+        <v>144.8</v>
       </c>
       <c r="D98" t="n">
-        <v>147</v>
+        <v>144.8</v>
       </c>
       <c r="E98" t="n">
-        <v>147</v>
+        <v>144.8</v>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>669.7247</v>
       </c>
       <c r="G98" t="n">
-        <v>154.3216666666667</v>
+        <v>154.41</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4060,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4074,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>145.4</v>
+        <v>147</v>
       </c>
       <c r="C99" t="n">
-        <v>145.4</v>
+        <v>147</v>
       </c>
       <c r="D99" t="n">
-        <v>145.4</v>
+        <v>147</v>
       </c>
       <c r="E99" t="n">
-        <v>145.4</v>
+        <v>147</v>
       </c>
       <c r="F99" t="n">
-        <v>634.8257</v>
+        <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>154.1966666666667</v>
+        <v>154.3216666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4099,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4113,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>145.5</v>
+        <v>145.4</v>
       </c>
       <c r="C100" t="n">
-        <v>146.8</v>
+        <v>145.4</v>
       </c>
       <c r="D100" t="n">
-        <v>146.8</v>
+        <v>145.4</v>
       </c>
       <c r="E100" t="n">
-        <v>145</v>
+        <v>145.4</v>
       </c>
       <c r="F100" t="n">
-        <v>4954.045689100817</v>
+        <v>634.8257</v>
       </c>
       <c r="G100" t="n">
-        <v>154.095</v>
+        <v>154.1966666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4138,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4152,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>146</v>
+        <v>145.5</v>
       </c>
       <c r="C101" t="n">
-        <v>146</v>
+        <v>146.8</v>
       </c>
       <c r="D101" t="n">
-        <v>146</v>
+        <v>146.8</v>
       </c>
       <c r="E101" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F101" t="n">
-        <v>401.7665</v>
+        <v>4954.045689100817</v>
       </c>
       <c r="G101" t="n">
-        <v>153.945</v>
+        <v>154.095</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4177,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4191,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>150.8</v>
+        <v>146</v>
       </c>
       <c r="C102" t="n">
-        <v>150.8</v>
+        <v>146</v>
       </c>
       <c r="D102" t="n">
-        <v>150.8</v>
+        <v>146</v>
       </c>
       <c r="E102" t="n">
-        <v>150.8</v>
+        <v>146</v>
       </c>
       <c r="F102" t="n">
-        <v>8.1181</v>
+        <v>401.7665</v>
       </c>
       <c r="G102" t="n">
-        <v>153.855</v>
+        <v>153.945</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4216,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4230,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>146.7</v>
+        <v>150.8</v>
       </c>
       <c r="C103" t="n">
-        <v>145</v>
+        <v>150.8</v>
       </c>
       <c r="D103" t="n">
-        <v>146.7</v>
+        <v>150.8</v>
       </c>
       <c r="E103" t="n">
-        <v>145</v>
+        <v>150.8</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>8.1181</v>
       </c>
       <c r="G103" t="n">
-        <v>153.7083333333333</v>
+        <v>153.855</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4255,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4269,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="C104" t="n">
         <v>145</v>
       </c>
-      <c r="C104" t="n">
-        <v>144.5</v>
-      </c>
       <c r="D104" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="E104" t="n">
         <v>145</v>
       </c>
-      <c r="E104" t="n">
-        <v>144.5</v>
-      </c>
       <c r="F104" t="n">
-        <v>4947.2337</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>153.515</v>
+        <v>153.7083333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4294,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4308,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>145.1</v>
+        <v>145</v>
       </c>
       <c r="C105" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="D105" t="n">
         <v>145</v>
       </c>
-      <c r="D105" t="n">
-        <v>146.8</v>
-      </c>
       <c r="E105" t="n">
-        <v>145</v>
+        <v>144.5</v>
       </c>
       <c r="F105" t="n">
-        <v>3639.1803</v>
+        <v>4947.2337</v>
       </c>
       <c r="G105" t="n">
-        <v>153.3283333333333</v>
+        <v>153.515</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,7 +4333,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4347,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>150.8</v>
+        <v>145.1</v>
       </c>
       <c r="C106" t="n">
-        <v>144.4</v>
+        <v>145</v>
       </c>
       <c r="D106" t="n">
-        <v>150.9</v>
+        <v>146.8</v>
       </c>
       <c r="E106" t="n">
-        <v>144.4</v>
+        <v>145</v>
       </c>
       <c r="F106" t="n">
-        <v>9791.219499999999</v>
+        <v>3639.1803</v>
       </c>
       <c r="G106" t="n">
-        <v>153.1183333333333</v>
+        <v>153.3283333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4372,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4386,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>144.4</v>
+        <v>150.8</v>
       </c>
       <c r="C107" t="n">
         <v>144.4</v>
       </c>
       <c r="D107" t="n">
-        <v>144.4</v>
+        <v>150.9</v>
       </c>
       <c r="E107" t="n">
         <v>144.4</v>
       </c>
       <c r="F107" t="n">
-        <v>831.961</v>
+        <v>9791.219499999999</v>
       </c>
       <c r="G107" t="n">
-        <v>152.9099999999999</v>
+        <v>153.1183333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4411,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4425,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>145.1</v>
+        <v>144.4</v>
       </c>
       <c r="C108" t="n">
-        <v>145.1</v>
+        <v>144.4</v>
       </c>
       <c r="D108" t="n">
-        <v>145.1</v>
+        <v>144.4</v>
       </c>
       <c r="E108" t="n">
-        <v>145.1</v>
+        <v>144.4</v>
       </c>
       <c r="F108" t="n">
-        <v>1500</v>
+        <v>831.961</v>
       </c>
       <c r="G108" t="n">
-        <v>152.7433333333333</v>
+        <v>152.9099999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4450,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4184,16 +4470,16 @@
         <v>145.1</v>
       </c>
       <c r="D109" t="n">
-        <v>149</v>
+        <v>145.1</v>
       </c>
       <c r="E109" t="n">
         <v>145.1</v>
       </c>
       <c r="F109" t="n">
-        <v>15811.8827</v>
+        <v>1500</v>
       </c>
       <c r="G109" t="n">
-        <v>152.5466666666666</v>
+        <v>152.7433333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4489,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4503,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>145</v>
+        <v>145.1</v>
       </c>
       <c r="C110" t="n">
-        <v>144.4</v>
+        <v>145.1</v>
       </c>
       <c r="D110" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E110" t="n">
-        <v>144.4</v>
+        <v>145.1</v>
       </c>
       <c r="F110" t="n">
-        <v>1702.9066</v>
+        <v>15811.8827</v>
       </c>
       <c r="G110" t="n">
-        <v>152.3383333333333</v>
+        <v>152.5466666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4528,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4542,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>145</v>
+      </c>
+      <c r="C111" t="n">
         <v>144.4</v>
       </c>
-      <c r="C111" t="n">
-        <v>146.3</v>
-      </c>
       <c r="D111" t="n">
-        <v>149.9</v>
+        <v>145</v>
       </c>
       <c r="E111" t="n">
         <v>144.4</v>
       </c>
       <c r="F111" t="n">
-        <v>11099.6646</v>
+        <v>1702.9066</v>
       </c>
       <c r="G111" t="n">
-        <v>152.1616666666666</v>
+        <v>152.3383333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,7 +4567,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4581,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>145</v>
+        <v>144.4</v>
       </c>
       <c r="C112" t="n">
-        <v>149.9</v>
+        <v>146.3</v>
       </c>
       <c r="D112" t="n">
         <v>149.9</v>
       </c>
       <c r="E112" t="n">
-        <v>145</v>
+        <v>144.4</v>
       </c>
       <c r="F112" t="n">
-        <v>5579.806</v>
+        <v>11099.6646</v>
       </c>
       <c r="G112" t="n">
-        <v>152.0249999999999</v>
+        <v>152.1616666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4606,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4620,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>141.1</v>
+        <v>145</v>
       </c>
       <c r="C113" t="n">
-        <v>141.1</v>
+        <v>149.9</v>
       </c>
       <c r="D113" t="n">
-        <v>141.1</v>
+        <v>149.9</v>
       </c>
       <c r="E113" t="n">
-        <v>141.1</v>
+        <v>145</v>
       </c>
       <c r="F113" t="n">
-        <v>67</v>
+        <v>5579.806</v>
       </c>
       <c r="G113" t="n">
-        <v>151.7416666666666</v>
+        <v>152.0249999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,7 +4645,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4659,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>145</v>
+        <v>141.1</v>
       </c>
       <c r="C114" t="n">
-        <v>145</v>
+        <v>141.1</v>
       </c>
       <c r="D114" t="n">
-        <v>145</v>
+        <v>141.1</v>
       </c>
       <c r="E114" t="n">
-        <v>145</v>
+        <v>141.1</v>
       </c>
       <c r="F114" t="n">
-        <v>584.6505</v>
+        <v>67</v>
       </c>
       <c r="G114" t="n">
-        <v>151.4766666666666</v>
+        <v>151.7416666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4684,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4698,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>145.1</v>
+        <v>145</v>
       </c>
       <c r="C115" t="n">
-        <v>141.9</v>
+        <v>145</v>
       </c>
       <c r="D115" t="n">
-        <v>145.1</v>
+        <v>145</v>
       </c>
       <c r="E115" t="n">
-        <v>141.9</v>
+        <v>145</v>
       </c>
       <c r="F115" t="n">
-        <v>2251.25</v>
+        <v>584.6505</v>
       </c>
       <c r="G115" t="n">
-        <v>151.1649999999999</v>
+        <v>151.4766666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,7 +4723,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,22 +4737,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>139</v>
+        <v>145.1</v>
       </c>
       <c r="C116" t="n">
-        <v>139</v>
+        <v>141.9</v>
       </c>
       <c r="D116" t="n">
-        <v>139</v>
+        <v>145.1</v>
       </c>
       <c r="E116" t="n">
-        <v>139</v>
+        <v>141.9</v>
       </c>
       <c r="F116" t="n">
-        <v>14.8506</v>
+        <v>2251.25</v>
       </c>
       <c r="G116" t="n">
-        <v>150.8166666666666</v>
+        <v>151.1649999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4762,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4776,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>138.4</v>
+        <v>139</v>
       </c>
       <c r="C117" t="n">
-        <v>138.4</v>
+        <v>139</v>
       </c>
       <c r="D117" t="n">
-        <v>138.4</v>
+        <v>139</v>
       </c>
       <c r="E117" t="n">
-        <v>138.4</v>
+        <v>139</v>
       </c>
       <c r="F117" t="n">
-        <v>436.9378</v>
+        <v>14.8506</v>
       </c>
       <c r="G117" t="n">
-        <v>150.4899999999999</v>
+        <v>150.8166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4801,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4815,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>140.1</v>
+        <v>138.4</v>
       </c>
       <c r="C118" t="n">
-        <v>144</v>
+        <v>138.4</v>
       </c>
       <c r="D118" t="n">
-        <v>144.9</v>
+        <v>138.4</v>
       </c>
       <c r="E118" t="n">
-        <v>139.1</v>
+        <v>138.4</v>
       </c>
       <c r="F118" t="n">
-        <v>11180.5205</v>
+        <v>436.9378</v>
       </c>
       <c r="G118" t="n">
-        <v>150.2566666666666</v>
+        <v>150.4899999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,7 +4840,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,36 +4854,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>143</v>
+        <v>140.1</v>
       </c>
       <c r="C119" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D119" t="n">
-        <v>143</v>
+        <v>144.9</v>
       </c>
       <c r="E119" t="n">
-        <v>143</v>
+        <v>139.1</v>
       </c>
       <c r="F119" t="n">
-        <v>87.77200000000001</v>
+        <v>11180.5205</v>
       </c>
       <c r="G119" t="n">
-        <v>149.9733333333333</v>
+        <v>150.2566666666666</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>144</v>
-      </c>
-      <c r="K119" t="n">
-        <v>144</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4567,38 +4893,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>143.7</v>
+        <v>143</v>
       </c>
       <c r="C120" t="n">
-        <v>142.1</v>
+        <v>143</v>
       </c>
       <c r="D120" t="n">
-        <v>143.7</v>
+        <v>143</v>
       </c>
       <c r="E120" t="n">
-        <v>142.1</v>
+        <v>143</v>
       </c>
       <c r="F120" t="n">
-        <v>4901.4437</v>
+        <v>87.77200000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>149.6749999999999</v>
+        <v>149.9733333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>143</v>
-      </c>
-      <c r="K120" t="n">
-        <v>144</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -4610,35 +4932,31 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>141.1</v>
+        <v>143.7</v>
       </c>
       <c r="C121" t="n">
-        <v>143.1</v>
+        <v>142.1</v>
       </c>
       <c r="D121" t="n">
-        <v>143.1</v>
+        <v>143.7</v>
       </c>
       <c r="E121" t="n">
-        <v>141.1</v>
+        <v>142.1</v>
       </c>
       <c r="F121" t="n">
-        <v>1553.13</v>
+        <v>4901.4437</v>
       </c>
       <c r="G121" t="n">
-        <v>149.3999999999999</v>
+        <v>149.6749999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="K121" t="n">
-        <v>144</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4653,35 +4971,31 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C122" t="n">
         <v>143.1</v>
-      </c>
-      <c r="C122" t="n">
-        <v>143</v>
       </c>
       <c r="D122" t="n">
         <v>143.1</v>
       </c>
       <c r="E122" t="n">
-        <v>143</v>
+        <v>141.1</v>
       </c>
       <c r="F122" t="n">
-        <v>1500</v>
+        <v>1553.13</v>
       </c>
       <c r="G122" t="n">
-        <v>149.1516666666666</v>
+        <v>149.3999999999999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="K122" t="n">
-        <v>144</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,22 +5010,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>143.6</v>
+        <v>143.1</v>
       </c>
       <c r="C123" t="n">
-        <v>143.7</v>
+        <v>143</v>
       </c>
       <c r="D123" t="n">
-        <v>143.7</v>
+        <v>143.1</v>
       </c>
       <c r="E123" t="n">
-        <v>143.6</v>
+        <v>143</v>
       </c>
       <c r="F123" t="n">
         <v>1500</v>
       </c>
       <c r="G123" t="n">
-        <v>148.9949999999999</v>
+        <v>149.1516666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4720,9 +5034,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>144</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4737,22 +5049,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>141.9</v>
+        <v>143.6</v>
       </c>
       <c r="C124" t="n">
-        <v>141.9</v>
+        <v>143.7</v>
       </c>
       <c r="D124" t="n">
-        <v>141.9</v>
+        <v>143.7</v>
       </c>
       <c r="E124" t="n">
-        <v>141.9</v>
+        <v>143.6</v>
       </c>
       <c r="F124" t="n">
-        <v>821.2246</v>
+        <v>1500</v>
       </c>
       <c r="G124" t="n">
-        <v>148.7366666666666</v>
+        <v>148.9949999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4761,9 +5073,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>144</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4778,22 +5088,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>141.8</v>
+        <v>141.9</v>
       </c>
       <c r="C125" t="n">
-        <v>141.8</v>
+        <v>141.9</v>
       </c>
       <c r="D125" t="n">
-        <v>141.8</v>
+        <v>141.9</v>
       </c>
       <c r="E125" t="n">
-        <v>141.8</v>
+        <v>141.9</v>
       </c>
       <c r="F125" t="n">
-        <v>42.4803</v>
+        <v>821.2246</v>
       </c>
       <c r="G125" t="n">
-        <v>148.4783333333333</v>
+        <v>148.7366666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4802,9 +5112,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>144</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4819,22 +5127,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>143</v>
+        <v>141.8</v>
       </c>
       <c r="C126" t="n">
-        <v>143</v>
+        <v>141.8</v>
       </c>
       <c r="D126" t="n">
-        <v>143</v>
+        <v>141.8</v>
       </c>
       <c r="E126" t="n">
-        <v>143</v>
+        <v>141.8</v>
       </c>
       <c r="F126" t="n">
-        <v>827.2856</v>
+        <v>42.4803</v>
       </c>
       <c r="G126" t="n">
-        <v>148.2449999999999</v>
+        <v>148.4783333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4843,9 +5151,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>144</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,22 +5166,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>141.8</v>
+        <v>143</v>
       </c>
       <c r="C127" t="n">
-        <v>141.8</v>
+        <v>143</v>
       </c>
       <c r="D127" t="n">
-        <v>141.8</v>
+        <v>143</v>
       </c>
       <c r="E127" t="n">
-        <v>141.8</v>
+        <v>143</v>
       </c>
       <c r="F127" t="n">
-        <v>1454.5593</v>
+        <v>827.2856</v>
       </c>
       <c r="G127" t="n">
-        <v>148.0083333333333</v>
+        <v>148.2449999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4884,9 +5190,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>144</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,22 +5205,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>146</v>
+        <v>141.8</v>
       </c>
       <c r="C128" t="n">
-        <v>146</v>
+        <v>141.8</v>
       </c>
       <c r="D128" t="n">
-        <v>146</v>
+        <v>141.8</v>
       </c>
       <c r="E128" t="n">
-        <v>146</v>
+        <v>141.8</v>
       </c>
       <c r="F128" t="n">
-        <v>68.4932</v>
+        <v>1454.5593</v>
       </c>
       <c r="G128" t="n">
-        <v>147.8416666666666</v>
+        <v>148.0083333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4925,9 +5229,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>144</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4945,19 +5247,19 @@
         <v>146</v>
       </c>
       <c r="C129" t="n">
-        <v>141.8</v>
+        <v>146</v>
       </c>
       <c r="D129" t="n">
         <v>146</v>
       </c>
       <c r="E129" t="n">
-        <v>141.8</v>
+        <v>146</v>
       </c>
       <c r="F129" t="n">
-        <v>1186.6192</v>
+        <v>68.4932</v>
       </c>
       <c r="G129" t="n">
-        <v>147.5916666666666</v>
+        <v>147.8416666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4966,9 +5268,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>144</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4983,22 +5283,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>143.1</v>
+        <v>146</v>
       </c>
       <c r="C130" t="n">
-        <v>143.1</v>
+        <v>141.8</v>
       </c>
       <c r="D130" t="n">
-        <v>143.1</v>
+        <v>146</v>
       </c>
       <c r="E130" t="n">
-        <v>143.1</v>
+        <v>141.8</v>
       </c>
       <c r="F130" t="n">
-        <v>1292.4924</v>
+        <v>1186.6192</v>
       </c>
       <c r="G130" t="n">
-        <v>147.3633333333333</v>
+        <v>147.5916666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5007,9 +5307,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>144</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5024,22 +5322,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>144.8</v>
+        <v>143.1</v>
       </c>
       <c r="C131" t="n">
-        <v>144.8</v>
+        <v>143.1</v>
       </c>
       <c r="D131" t="n">
-        <v>144.8</v>
+        <v>143.1</v>
       </c>
       <c r="E131" t="n">
-        <v>144.8</v>
+        <v>143.1</v>
       </c>
       <c r="F131" t="n">
-        <v>510.8949</v>
+        <v>1292.4924</v>
       </c>
       <c r="G131" t="n">
-        <v>147.1616666666666</v>
+        <v>147.3633333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5048,9 +5346,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>144</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5065,22 +5361,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>142.8</v>
+        <v>144.8</v>
       </c>
       <c r="C132" t="n">
-        <v>142.8</v>
+        <v>144.8</v>
       </c>
       <c r="D132" t="n">
-        <v>142.8</v>
+        <v>144.8</v>
       </c>
       <c r="E132" t="n">
-        <v>142.8</v>
+        <v>144.8</v>
       </c>
       <c r="F132" t="n">
-        <v>4.3508</v>
+        <v>510.8949</v>
       </c>
       <c r="G132" t="n">
-        <v>146.9333333333333</v>
+        <v>147.1616666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5089,9 +5385,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>144</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5106,22 +5400,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>145.8</v>
+        <v>142.8</v>
       </c>
       <c r="C133" t="n">
-        <v>145.8</v>
+        <v>142.8</v>
       </c>
       <c r="D133" t="n">
-        <v>145.8</v>
+        <v>142.8</v>
       </c>
       <c r="E133" t="n">
-        <v>145.8</v>
+        <v>142.8</v>
       </c>
       <c r="F133" t="n">
-        <v>499.394</v>
+        <v>4.3508</v>
       </c>
       <c r="G133" t="n">
-        <v>146.7633333333333</v>
+        <v>146.9333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5130,9 +5424,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>144</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5159,10 +5451,10 @@
         <v>145.8</v>
       </c>
       <c r="F134" t="n">
-        <v>897.1128</v>
+        <v>499.394</v>
       </c>
       <c r="G134" t="n">
-        <v>146.5933333333332</v>
+        <v>146.7633333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5171,9 +5463,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>144</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5200,10 +5490,10 @@
         <v>145.8</v>
       </c>
       <c r="F135" t="n">
-        <v>3180.9546</v>
+        <v>897.1128</v>
       </c>
       <c r="G135" t="n">
-        <v>146.4316666666666</v>
+        <v>146.5933333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5212,9 +5502,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>144</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5229,22 +5517,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>146</v>
+        <v>145.8</v>
       </c>
       <c r="C136" t="n">
-        <v>146</v>
+        <v>145.8</v>
       </c>
       <c r="D136" t="n">
-        <v>146</v>
+        <v>145.8</v>
       </c>
       <c r="E136" t="n">
-        <v>146</v>
+        <v>145.8</v>
       </c>
       <c r="F136" t="n">
-        <v>90.41095890410959</v>
+        <v>3180.9546</v>
       </c>
       <c r="G136" t="n">
-        <v>146.2816666666666</v>
+        <v>146.4316666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5253,9 +5541,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>144</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5270,22 +5556,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>145.8</v>
+        <v>146</v>
       </c>
       <c r="C137" t="n">
-        <v>145.8</v>
+        <v>146</v>
       </c>
       <c r="D137" t="n">
-        <v>145.8</v>
+        <v>146</v>
       </c>
       <c r="E137" t="n">
-        <v>145.8</v>
+        <v>146</v>
       </c>
       <c r="F137" t="n">
-        <v>108.0172</v>
+        <v>90.41095890410959</v>
       </c>
       <c r="G137" t="n">
-        <v>146.1116666666666</v>
+        <v>146.2816666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5294,9 +5580,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>144</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5311,22 +5595,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>146</v>
+        <v>145.8</v>
       </c>
       <c r="C138" t="n">
-        <v>146</v>
+        <v>145.8</v>
       </c>
       <c r="D138" t="n">
-        <v>146</v>
+        <v>145.8</v>
       </c>
       <c r="E138" t="n">
-        <v>146</v>
+        <v>145.8</v>
       </c>
       <c r="F138" t="n">
-        <v>1349.88824109589</v>
+        <v>108.0172</v>
       </c>
       <c r="G138" t="n">
-        <v>145.9949999999999</v>
+        <v>146.1116666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5335,9 +5619,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>144</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5352,22 +5634,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>146.9</v>
+        <v>146</v>
       </c>
       <c r="C139" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D139" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E139" t="n">
-        <v>146.9</v>
+        <v>146</v>
       </c>
       <c r="F139" t="n">
-        <v>3838.7893</v>
+        <v>1349.88824109589</v>
       </c>
       <c r="G139" t="n">
-        <v>145.9049999999999</v>
+        <v>145.9949999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5376,9 +5658,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>144</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5393,22 +5673,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="C140" t="n">
         <v>147</v>
-      </c>
-      <c r="C140" t="n">
-        <v>144.5</v>
       </c>
       <c r="D140" t="n">
         <v>147</v>
       </c>
       <c r="E140" t="n">
-        <v>144.5</v>
+        <v>146.9</v>
       </c>
       <c r="F140" t="n">
-        <v>5837.1728</v>
+        <v>3838.7893</v>
       </c>
       <c r="G140" t="n">
-        <v>145.7349999999999</v>
+        <v>145.9049999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5417,9 +5697,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>144</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5434,22 +5712,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>147</v>
+      </c>
+      <c r="C141" t="n">
         <v>144.5</v>
       </c>
-      <c r="C141" t="n">
-        <v>142.1</v>
-      </c>
       <c r="D141" t="n">
+        <v>147</v>
+      </c>
+      <c r="E141" t="n">
         <v>144.5</v>
       </c>
-      <c r="E141" t="n">
-        <v>142.1</v>
-      </c>
       <c r="F141" t="n">
-        <v>4685.4786</v>
+        <v>5837.1728</v>
       </c>
       <c r="G141" t="n">
-        <v>145.5549999999999</v>
+        <v>145.7349999999999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5458,9 +5736,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>144</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5475,22 +5751,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>143.1</v>
+        <v>144.5</v>
       </c>
       <c r="C142" t="n">
-        <v>148</v>
+        <v>142.1</v>
       </c>
       <c r="D142" t="n">
-        <v>148</v>
+        <v>144.5</v>
       </c>
       <c r="E142" t="n">
-        <v>143.1</v>
+        <v>142.1</v>
       </c>
       <c r="F142" t="n">
-        <v>4514.5091</v>
+        <v>4685.4786</v>
       </c>
       <c r="G142" t="n">
-        <v>145.4733333333332</v>
+        <v>145.5549999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5499,9 +5775,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>144</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5516,22 +5790,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>147.9</v>
+        <v>143.1</v>
       </c>
       <c r="C143" t="n">
-        <v>145.5</v>
+        <v>148</v>
       </c>
       <c r="D143" t="n">
-        <v>147.9</v>
+        <v>148</v>
       </c>
       <c r="E143" t="n">
-        <v>145.5</v>
+        <v>143.1</v>
       </c>
       <c r="F143" t="n">
-        <v>2570.5019</v>
+        <v>4514.5091</v>
       </c>
       <c r="G143" t="n">
-        <v>145.3499999999999</v>
+        <v>145.4733333333332</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5540,9 +5814,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>144</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5560,19 +5832,19 @@
         <v>147.9</v>
       </c>
       <c r="C144" t="n">
-        <v>147.9</v>
+        <v>145.5</v>
       </c>
       <c r="D144" t="n">
         <v>147.9</v>
       </c>
       <c r="E144" t="n">
-        <v>147.9</v>
+        <v>145.5</v>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>2570.5019</v>
       </c>
       <c r="G144" t="n">
-        <v>145.3566666666666</v>
+        <v>145.3499999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5581,9 +5853,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>144</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,22 +5868,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="C145" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="D145" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="E145" t="n">
-        <v>146.1</v>
+        <v>147.9</v>
       </c>
       <c r="F145" t="n">
-        <v>339.2857</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>145.2566666666666</v>
+        <v>145.3566666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,9 +5892,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>144</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5639,22 +5907,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>145.2</v>
+        <v>146.1</v>
       </c>
       <c r="C146" t="n">
-        <v>145.2</v>
+        <v>146.1</v>
       </c>
       <c r="D146" t="n">
-        <v>145.2</v>
+        <v>146.1</v>
       </c>
       <c r="E146" t="n">
-        <v>145.2</v>
+        <v>146.1</v>
       </c>
       <c r="F146" t="n">
-        <v>250</v>
+        <v>339.2857</v>
       </c>
       <c r="G146" t="n">
-        <v>145.1499999999999</v>
+        <v>145.2566666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5663,9 +5931,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>144</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5680,22 +5946,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>143.1</v>
+        <v>145.2</v>
       </c>
       <c r="C147" t="n">
-        <v>142.7</v>
+        <v>145.2</v>
       </c>
       <c r="D147" t="n">
-        <v>143.1</v>
+        <v>145.2</v>
       </c>
       <c r="E147" t="n">
-        <v>142.7</v>
+        <v>145.2</v>
       </c>
       <c r="F147" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="G147" t="n">
-        <v>145.0616666666666</v>
+        <v>145.1499999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5704,9 +5970,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>144</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5721,22 +5985,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>144</v>
+        <v>143.1</v>
       </c>
       <c r="C148" t="n">
-        <v>144</v>
+        <v>142.7</v>
       </c>
       <c r="D148" t="n">
-        <v>144</v>
+        <v>143.1</v>
       </c>
       <c r="E148" t="n">
-        <v>144</v>
+        <v>142.7</v>
       </c>
       <c r="F148" t="n">
-        <v>3100.372</v>
+        <v>14500</v>
       </c>
       <c r="G148" t="n">
-        <v>144.9716666666666</v>
+        <v>145.0616666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5745,9 +6009,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>144</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5762,22 +6024,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="C149" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="D149" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="E149" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="F149" t="n">
-        <v>50</v>
+        <v>3100.372</v>
       </c>
       <c r="G149" t="n">
-        <v>144.9033333333333</v>
+        <v>144.9716666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5786,9 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>144</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5803,22 +6063,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>142.5</v>
+        <v>143.9</v>
       </c>
       <c r="C150" t="n">
-        <v>142.4</v>
+        <v>143.9</v>
       </c>
       <c r="D150" t="n">
-        <v>142.5</v>
+        <v>143.9</v>
       </c>
       <c r="E150" t="n">
-        <v>142.4</v>
+        <v>143.9</v>
       </c>
       <c r="F150" t="n">
-        <v>5066.7259</v>
+        <v>50</v>
       </c>
       <c r="G150" t="n">
-        <v>144.8266666666666</v>
+        <v>144.9033333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5827,9 +6087,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>144</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5844,22 +6102,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>144.2</v>
+        <v>142.5</v>
       </c>
       <c r="C151" t="n">
-        <v>144.2</v>
+        <v>142.4</v>
       </c>
       <c r="D151" t="n">
-        <v>144.2</v>
+        <v>142.5</v>
       </c>
       <c r="E151" t="n">
-        <v>144.2</v>
+        <v>142.4</v>
       </c>
       <c r="F151" t="n">
-        <v>154.139</v>
+        <v>5066.7259</v>
       </c>
       <c r="G151" t="n">
-        <v>144.7633333333333</v>
+        <v>144.8266666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5868,9 +6126,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>144</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5885,22 +6141,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>146.8</v>
+        <v>144.2</v>
       </c>
       <c r="C152" t="n">
-        <v>146.8</v>
+        <v>144.2</v>
       </c>
       <c r="D152" t="n">
-        <v>146.8</v>
+        <v>144.2</v>
       </c>
       <c r="E152" t="n">
-        <v>146.8</v>
+        <v>144.2</v>
       </c>
       <c r="F152" t="n">
-        <v>7.5807</v>
+        <v>154.139</v>
       </c>
       <c r="G152" t="n">
-        <v>144.7449999999999</v>
+        <v>144.7633333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5909,9 +6165,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>144</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5926,22 +6180,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>144</v>
+        <v>146.8</v>
       </c>
       <c r="C153" t="n">
-        <v>144</v>
+        <v>146.8</v>
       </c>
       <c r="D153" t="n">
-        <v>144</v>
+        <v>146.8</v>
       </c>
       <c r="E153" t="n">
-        <v>144</v>
+        <v>146.8</v>
       </c>
       <c r="F153" t="n">
-        <v>1843.8506</v>
+        <v>7.5807</v>
       </c>
       <c r="G153" t="n">
-        <v>144.6799999999999</v>
+        <v>144.7449999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5950,9 +6204,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>144</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5967,22 +6219,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>142.4</v>
+        <v>144</v>
       </c>
       <c r="C154" t="n">
-        <v>143.7</v>
+        <v>144</v>
       </c>
       <c r="D154" t="n">
-        <v>143.7</v>
+        <v>144</v>
       </c>
       <c r="E154" t="n">
-        <v>142.4</v>
+        <v>144</v>
       </c>
       <c r="F154" t="n">
-        <v>2376.4459</v>
+        <v>1843.8506</v>
       </c>
       <c r="G154" t="n">
-        <v>144.6566666666666</v>
+        <v>144.6799999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5991,9 +6243,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>144</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6008,22 +6258,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>143.9</v>
+        <v>142.4</v>
       </c>
       <c r="C155" t="n">
-        <v>143.8</v>
+        <v>143.7</v>
       </c>
       <c r="D155" t="n">
-        <v>143.9</v>
+        <v>143.7</v>
       </c>
       <c r="E155" t="n">
-        <v>143.8</v>
+        <v>142.4</v>
       </c>
       <c r="F155" t="n">
-        <v>620.3995</v>
+        <v>2376.4459</v>
       </c>
       <c r="G155" t="n">
-        <v>144.5199999999999</v>
+        <v>144.6566666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6032,9 +6282,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>144</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6049,22 +6297,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>142.2</v>
+        <v>143.9</v>
       </c>
       <c r="C156" t="n">
-        <v>139.2</v>
+        <v>143.8</v>
       </c>
       <c r="D156" t="n">
-        <v>142.2</v>
+        <v>143.9</v>
       </c>
       <c r="E156" t="n">
-        <v>139.2</v>
+        <v>143.8</v>
       </c>
       <c r="F156" t="n">
-        <v>23335.6961</v>
+        <v>620.3995</v>
       </c>
       <c r="G156" t="n">
-        <v>144.3733333333333</v>
+        <v>144.5199999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6073,9 +6321,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>144</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6090,22 +6336,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>143.1</v>
+        <v>142.2</v>
       </c>
       <c r="C157" t="n">
-        <v>143.1</v>
+        <v>139.2</v>
       </c>
       <c r="D157" t="n">
-        <v>143.1</v>
+        <v>142.2</v>
       </c>
       <c r="E157" t="n">
-        <v>143.1</v>
+        <v>139.2</v>
       </c>
       <c r="F157" t="n">
-        <v>2209.5954</v>
+        <v>23335.6961</v>
       </c>
       <c r="G157" t="n">
-        <v>144.3449999999999</v>
+        <v>144.3733333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6114,9 +6360,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>144</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6143,10 +6387,10 @@
         <v>143.1</v>
       </c>
       <c r="F158" t="n">
-        <v>126</v>
+        <v>2209.5954</v>
       </c>
       <c r="G158" t="n">
-        <v>144.2799999999999</v>
+        <v>144.3449999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6155,9 +6399,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>144</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6184,10 +6426,10 @@
         <v>143.1</v>
       </c>
       <c r="F159" t="n">
-        <v>1953.3219</v>
+        <v>126</v>
       </c>
       <c r="G159" t="n">
-        <v>144.2416666666666</v>
+        <v>144.2799999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6196,9 +6438,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>144</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6216,19 +6456,19 @@
         <v>143.1</v>
       </c>
       <c r="C160" t="n">
-        <v>147.2</v>
+        <v>143.1</v>
       </c>
       <c r="D160" t="n">
-        <v>147.2</v>
+        <v>143.1</v>
       </c>
       <c r="E160" t="n">
         <v>143.1</v>
       </c>
       <c r="F160" t="n">
-        <v>7971.963</v>
+        <v>1953.3219</v>
       </c>
       <c r="G160" t="n">
-        <v>144.2483333333333</v>
+        <v>144.2416666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6237,9 +6477,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>144</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6254,22 +6492,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>145.1</v>
+        <v>143.1</v>
       </c>
       <c r="C161" t="n">
-        <v>144</v>
+        <v>147.2</v>
       </c>
       <c r="D161" t="n">
-        <v>145.1</v>
+        <v>147.2</v>
       </c>
       <c r="E161" t="n">
-        <v>144</v>
+        <v>143.1</v>
       </c>
       <c r="F161" t="n">
-        <v>750</v>
+        <v>7971.963</v>
       </c>
       <c r="G161" t="n">
-        <v>144.215</v>
+        <v>144.2483333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6278,9 +6516,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>144</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6295,22 +6531,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>144.5</v>
+        <v>145.1</v>
       </c>
       <c r="C162" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="D162" t="n">
-        <v>144.5</v>
+        <v>145.1</v>
       </c>
       <c r="E162" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="F162" t="n">
-        <v>495.7458</v>
+        <v>750</v>
       </c>
       <c r="G162" t="n">
-        <v>144.11</v>
+        <v>144.215</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6319,9 +6555,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>144</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6348,10 +6582,10 @@
         <v>144.5</v>
       </c>
       <c r="F163" t="n">
-        <v>69.6579</v>
+        <v>495.7458</v>
       </c>
       <c r="G163" t="n">
-        <v>144.1016666666667</v>
+        <v>144.11</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6360,9 +6594,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>144</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6389,7 +6621,7 @@
         <v>144.5</v>
       </c>
       <c r="F164" t="n">
-        <v>600.495</v>
+        <v>69.6579</v>
       </c>
       <c r="G164" t="n">
         <v>144.1016666666667</v>
@@ -6401,9 +6633,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>144</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6421,19 +6651,19 @@
         <v>144.5</v>
       </c>
       <c r="C165" t="n">
-        <v>140.2</v>
+        <v>144.5</v>
       </c>
       <c r="D165" t="n">
         <v>144.5</v>
       </c>
       <c r="E165" t="n">
-        <v>140.2</v>
+        <v>144.5</v>
       </c>
       <c r="F165" t="n">
-        <v>6568.1898</v>
+        <v>600.495</v>
       </c>
       <c r="G165" t="n">
-        <v>144.0216666666667</v>
+        <v>144.1016666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6442,9 +6672,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>144</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6459,22 +6687,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>144</v>
+        <v>144.5</v>
       </c>
       <c r="C166" t="n">
-        <v>140.5</v>
+        <v>140.2</v>
       </c>
       <c r="D166" t="n">
-        <v>144</v>
+        <v>144.5</v>
       </c>
       <c r="E166" t="n">
-        <v>140.4</v>
+        <v>140.2</v>
       </c>
       <c r="F166" t="n">
-        <v>1250</v>
+        <v>6568.1898</v>
       </c>
       <c r="G166" t="n">
-        <v>143.9566666666667</v>
+        <v>144.0216666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6483,9 +6711,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>144</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6500,22 +6726,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>141.1</v>
+        <v>144</v>
       </c>
       <c r="C167" t="n">
-        <v>141.1</v>
+        <v>140.5</v>
       </c>
       <c r="D167" t="n">
-        <v>141.1</v>
+        <v>144</v>
       </c>
       <c r="E167" t="n">
-        <v>141.1</v>
+        <v>140.4</v>
       </c>
       <c r="F167" t="n">
-        <v>699.0563</v>
+        <v>1250</v>
       </c>
       <c r="G167" t="n">
-        <v>143.9016666666667</v>
+        <v>143.9566666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6524,9 +6750,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>144</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6541,22 +6765,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="C168" t="n">
-        <v>143</v>
+        <v>141.1</v>
       </c>
       <c r="D168" t="n">
-        <v>143</v>
+        <v>141.1</v>
       </c>
       <c r="E168" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="F168" t="n">
-        <v>2196.4338</v>
+        <v>699.0563</v>
       </c>
       <c r="G168" t="n">
-        <v>143.8666666666667</v>
+        <v>143.9016666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6565,9 +6789,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>144</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6582,22 +6804,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>143.8</v>
+        <v>141</v>
       </c>
       <c r="C169" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="D169" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="E169" t="n">
-        <v>143.8</v>
+        <v>141</v>
       </c>
       <c r="F169" t="n">
-        <v>52.1464</v>
+        <v>2196.4338</v>
       </c>
       <c r="G169" t="n">
-        <v>143.845</v>
+        <v>143.8666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6606,9 +6828,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>144</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6623,22 +6843,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>142</v>
+        <v>143.8</v>
       </c>
       <c r="C170" t="n">
-        <v>143.4</v>
+        <v>143.8</v>
       </c>
       <c r="D170" t="n">
-        <v>143.4</v>
+        <v>143.8</v>
       </c>
       <c r="E170" t="n">
-        <v>142</v>
+        <v>143.8</v>
       </c>
       <c r="F170" t="n">
-        <v>1235.6603</v>
+        <v>52.1464</v>
       </c>
       <c r="G170" t="n">
-        <v>143.8283333333333</v>
+        <v>143.845</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6647,9 +6867,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>144</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6664,22 +6882,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>143.6</v>
+        <v>142</v>
       </c>
       <c r="C171" t="n">
-        <v>143.6</v>
+        <v>143.4</v>
       </c>
       <c r="D171" t="n">
-        <v>143.6</v>
+        <v>143.4</v>
       </c>
       <c r="E171" t="n">
-        <v>143.6</v>
+        <v>142</v>
       </c>
       <c r="F171" t="n">
-        <v>368.9132</v>
+        <v>1235.6603</v>
       </c>
       <c r="G171" t="n">
-        <v>143.7833333333334</v>
+        <v>143.8283333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6688,9 +6906,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>144</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6705,22 +6921,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>140.9</v>
+        <v>143.6</v>
       </c>
       <c r="C172" t="n">
-        <v>143</v>
+        <v>143.6</v>
       </c>
       <c r="D172" t="n">
-        <v>143</v>
+        <v>143.6</v>
       </c>
       <c r="E172" t="n">
-        <v>140</v>
+        <v>143.6</v>
       </c>
       <c r="F172" t="n">
-        <v>14097.3287</v>
+        <v>368.9132</v>
       </c>
       <c r="G172" t="n">
-        <v>143.6683333333334</v>
+        <v>143.7833333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6729,9 +6945,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>144</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6746,22 +6960,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="C173" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D173" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E173" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F173" t="n">
-        <v>206.019</v>
+        <v>14097.3287</v>
       </c>
       <c r="G173" t="n">
-        <v>143.6833333333334</v>
+        <v>143.6683333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6770,9 +6984,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>144</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,19 +7002,19 @@
         <v>142</v>
       </c>
       <c r="C174" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D174" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E174" t="n">
         <v>142</v>
       </c>
       <c r="F174" t="n">
-        <v>4708.1832</v>
+        <v>206.019</v>
       </c>
       <c r="G174" t="n">
-        <v>143.65</v>
+        <v>143.6833333333334</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6811,9 +7023,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>144</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6828,7 +7038,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>142.7</v>
+        <v>142</v>
       </c>
       <c r="C175" t="n">
         <v>143</v>
@@ -6837,13 +7047,13 @@
         <v>143</v>
       </c>
       <c r="E175" t="n">
-        <v>142.7</v>
+        <v>142</v>
       </c>
       <c r="F175" t="n">
-        <v>3750</v>
+        <v>4708.1832</v>
       </c>
       <c r="G175" t="n">
-        <v>143.6683333333334</v>
+        <v>143.65</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6852,9 +7062,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>144</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6869,7 +7077,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>143</v>
+        <v>142.7</v>
       </c>
       <c r="C176" t="n">
         <v>143</v>
@@ -6878,13 +7086,13 @@
         <v>143</v>
       </c>
       <c r="E176" t="n">
-        <v>143</v>
+        <v>142.7</v>
       </c>
       <c r="F176" t="n">
-        <v>2000</v>
+        <v>3750</v>
       </c>
       <c r="G176" t="n">
-        <v>143.735</v>
+        <v>143.6683333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6893,9 +7101,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>144</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6913,19 +7119,19 @@
         <v>143</v>
       </c>
       <c r="C177" t="n">
-        <v>142.1</v>
+        <v>143</v>
       </c>
       <c r="D177" t="n">
-        <v>153.8</v>
+        <v>143</v>
       </c>
       <c r="E177" t="n">
-        <v>142.1</v>
+        <v>143</v>
       </c>
       <c r="F177" t="n">
-        <v>11632.848</v>
+        <v>2000</v>
       </c>
       <c r="G177" t="n">
-        <v>143.7966666666667</v>
+        <v>143.735</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6934,9 +7140,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>144</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6951,22 +7155,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>153.7</v>
+        <v>143</v>
       </c>
       <c r="C178" t="n">
-        <v>153.8</v>
+        <v>142.1</v>
       </c>
       <c r="D178" t="n">
         <v>153.8</v>
       </c>
       <c r="E178" t="n">
-        <v>153.7</v>
+        <v>142.1</v>
       </c>
       <c r="F178" t="n">
-        <v>6.5041</v>
+        <v>11632.848</v>
       </c>
       <c r="G178" t="n">
-        <v>143.96</v>
+        <v>143.7966666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6975,9 +7179,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>144</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6992,22 +7194,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>147</v>
+        <v>153.7</v>
       </c>
       <c r="C179" t="n">
-        <v>144</v>
+        <v>153.8</v>
       </c>
       <c r="D179" t="n">
-        <v>147</v>
+        <v>153.8</v>
       </c>
       <c r="E179" t="n">
-        <v>144</v>
+        <v>153.7</v>
       </c>
       <c r="F179" t="n">
-        <v>1887.926</v>
+        <v>6.5041</v>
       </c>
       <c r="G179" t="n">
-        <v>143.9766666666667</v>
+        <v>143.96</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7016,9 +7218,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>144</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7033,22 +7233,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C180" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D180" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E180" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F180" t="n">
-        <v>3.3334</v>
+        <v>1887.926</v>
       </c>
       <c r="G180" t="n">
-        <v>144.1083333333334</v>
+        <v>143.9766666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7057,9 +7257,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>144</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7074,22 +7272,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="C181" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="D181" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="E181" t="n">
-        <v>148.9</v>
+        <v>150</v>
       </c>
       <c r="F181" t="n">
-        <v>3.358</v>
+        <v>3.3334</v>
       </c>
       <c r="G181" t="n">
-        <v>144.205</v>
+        <v>144.1083333333334</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7098,9 +7296,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>144</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7115,22 +7311,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>144</v>
+        <v>148.9</v>
       </c>
       <c r="C182" t="n">
-        <v>141</v>
+        <v>148.9</v>
       </c>
       <c r="D182" t="n">
-        <v>144</v>
+        <v>148.9</v>
       </c>
       <c r="E182" t="n">
-        <v>141</v>
+        <v>148.9</v>
       </c>
       <c r="F182" t="n">
-        <v>62</v>
+        <v>3.358</v>
       </c>
       <c r="G182" t="n">
-        <v>144.1716666666667</v>
+        <v>144.205</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7139,9 +7335,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>144</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7156,22 +7350,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C183" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D183" t="n">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E183" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F183" t="n">
-        <v>3.3784</v>
+        <v>62</v>
       </c>
       <c r="G183" t="n">
-        <v>144.2433333333333</v>
+        <v>144.1716666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7180,9 +7374,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>144</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7209,10 +7401,10 @@
         <v>148</v>
       </c>
       <c r="F184" t="n">
-        <v>5.0516</v>
+        <v>3.3784</v>
       </c>
       <c r="G184" t="n">
-        <v>144.345</v>
+        <v>144.2433333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7221,9 +7413,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>144</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7238,22 +7428,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>142.8</v>
+        <v>148</v>
       </c>
       <c r="C185" t="n">
-        <v>142.8</v>
+        <v>148</v>
       </c>
       <c r="D185" t="n">
-        <v>142.8</v>
+        <v>148</v>
       </c>
       <c r="E185" t="n">
-        <v>142.8</v>
+        <v>148</v>
       </c>
       <c r="F185" t="n">
-        <v>369.443</v>
+        <v>5.0516</v>
       </c>
       <c r="G185" t="n">
-        <v>144.3616666666667</v>
+        <v>144.345</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7262,9 +7452,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>144</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7279,22 +7467,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>144</v>
+        <v>142.8</v>
       </c>
       <c r="C186" t="n">
-        <v>141</v>
+        <v>142.8</v>
       </c>
       <c r="D186" t="n">
-        <v>144</v>
+        <v>142.8</v>
       </c>
       <c r="E186" t="n">
-        <v>141</v>
+        <v>142.8</v>
       </c>
       <c r="F186" t="n">
-        <v>962.977</v>
+        <v>369.443</v>
       </c>
       <c r="G186" t="n">
-        <v>144.3283333333333</v>
+        <v>144.3616666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7303,9 +7491,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>144</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7320,22 +7506,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="C187" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="D187" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="E187" t="n">
-        <v>142.6</v>
+        <v>141</v>
       </c>
       <c r="F187" t="n">
-        <v>1276.357</v>
+        <v>962.977</v>
       </c>
       <c r="G187" t="n">
-        <v>144.3633333333333</v>
+        <v>144.3283333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7344,9 +7530,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>144</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7361,22 +7545,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>142.9</v>
+        <v>143.9</v>
       </c>
       <c r="C188" t="n">
-        <v>143.3</v>
+        <v>143.9</v>
       </c>
       <c r="D188" t="n">
-        <v>143.3</v>
+        <v>143.9</v>
       </c>
       <c r="E188" t="n">
-        <v>142.9</v>
+        <v>142.6</v>
       </c>
       <c r="F188" t="n">
-        <v>1879.2136</v>
+        <v>1276.357</v>
       </c>
       <c r="G188" t="n">
-        <v>144.3183333333333</v>
+        <v>144.3633333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7385,9 +7569,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>144</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7402,7 +7584,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>143.3</v>
+        <v>142.9</v>
       </c>
       <c r="C189" t="n">
         <v>143.3</v>
@@ -7411,13 +7593,13 @@
         <v>143.3</v>
       </c>
       <c r="E189" t="n">
-        <v>143.3</v>
+        <v>142.9</v>
       </c>
       <c r="F189" t="n">
-        <v>149.62</v>
+        <v>1879.2136</v>
       </c>
       <c r="G189" t="n">
-        <v>144.3433333333333</v>
+        <v>144.3183333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7426,9 +7608,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>144</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7455,10 +7635,10 @@
         <v>143.3</v>
       </c>
       <c r="F190" t="n">
-        <v>475.0667</v>
+        <v>149.62</v>
       </c>
       <c r="G190" t="n">
-        <v>144.3466666666667</v>
+        <v>144.3433333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7467,9 +7647,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>144</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7496,10 +7674,10 @@
         <v>143.3</v>
       </c>
       <c r="F191" t="n">
-        <v>1632.9393</v>
+        <v>475.0667</v>
       </c>
       <c r="G191" t="n">
-        <v>144.3216666666667</v>
+        <v>144.3466666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7508,9 +7686,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>144</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7528,19 +7704,19 @@
         <v>143.3</v>
       </c>
       <c r="C192" t="n">
-        <v>144.8</v>
+        <v>143.3</v>
       </c>
       <c r="D192" t="n">
-        <v>144.8</v>
+        <v>143.3</v>
       </c>
       <c r="E192" t="n">
         <v>143.3</v>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>1632.9393</v>
       </c>
       <c r="G192" t="n">
-        <v>144.355</v>
+        <v>144.3216666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7549,9 +7725,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>144</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7566,7 +7740,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>144.6</v>
+        <v>143.3</v>
       </c>
       <c r="C193" t="n">
         <v>144.8</v>
@@ -7575,13 +7749,13 @@
         <v>144.8</v>
       </c>
       <c r="E193" t="n">
-        <v>144.6</v>
+        <v>143.3</v>
       </c>
       <c r="F193" t="n">
-        <v>1189.2682</v>
+        <v>250</v>
       </c>
       <c r="G193" t="n">
-        <v>144.3383333333333</v>
+        <v>144.355</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7590,9 +7764,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>144</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7607,22 +7779,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>144.9</v>
+        <v>144.6</v>
       </c>
       <c r="C194" t="n">
-        <v>144.9</v>
+        <v>144.8</v>
       </c>
       <c r="D194" t="n">
-        <v>144.9</v>
+        <v>144.8</v>
       </c>
       <c r="E194" t="n">
-        <v>144.9</v>
+        <v>144.6</v>
       </c>
       <c r="F194" t="n">
-        <v>37.0561</v>
+        <v>1189.2682</v>
       </c>
       <c r="G194" t="n">
-        <v>144.3233333333333</v>
+        <v>144.3383333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7631,9 +7803,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>144</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,10 +7830,10 @@
         <v>144.9</v>
       </c>
       <c r="F195" t="n">
-        <v>750</v>
+        <v>37.0561</v>
       </c>
       <c r="G195" t="n">
-        <v>144.3083333333333</v>
+        <v>144.3233333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7672,9 +7842,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>144</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7689,22 +7857,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>144.8</v>
+        <v>144.9</v>
       </c>
       <c r="C196" t="n">
-        <v>144.8</v>
+        <v>144.9</v>
       </c>
       <c r="D196" t="n">
-        <v>144.8</v>
+        <v>144.9</v>
       </c>
       <c r="E196" t="n">
-        <v>144.8</v>
+        <v>144.9</v>
       </c>
       <c r="F196" t="n">
-        <v>281.9</v>
+        <v>750</v>
       </c>
       <c r="G196" t="n">
-        <v>144.2883333333333</v>
+        <v>144.3083333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7713,9 +7881,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>144</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7742,10 +7908,10 @@
         <v>144.8</v>
       </c>
       <c r="F197" t="n">
-        <v>27.3392</v>
+        <v>281.9</v>
       </c>
       <c r="G197" t="n">
-        <v>144.2716666666666</v>
+        <v>144.2883333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7754,9 +7920,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>144</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,22 +7935,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>144.2</v>
+        <v>144.8</v>
       </c>
       <c r="C198" t="n">
-        <v>144.2</v>
+        <v>144.8</v>
       </c>
       <c r="D198" t="n">
-        <v>144.2</v>
+        <v>144.8</v>
       </c>
       <c r="E198" t="n">
-        <v>144.2</v>
+        <v>144.8</v>
       </c>
       <c r="F198" t="n">
-        <v>1500</v>
+        <v>27.3392</v>
       </c>
       <c r="G198" t="n">
-        <v>144.2416666666667</v>
+        <v>144.2716666666666</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7795,9 +7959,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>144</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7815,19 +7977,19 @@
         <v>144.2</v>
       </c>
       <c r="C199" t="n">
-        <v>143.3</v>
+        <v>144.2</v>
       </c>
       <c r="D199" t="n">
         <v>144.2</v>
       </c>
       <c r="E199" t="n">
-        <v>143.3</v>
+        <v>144.2</v>
       </c>
       <c r="F199" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G199" t="n">
-        <v>144.18</v>
+        <v>144.2416666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7836,9 +7998,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>144</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7853,22 +8013,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>144</v>
+        <v>144.2</v>
       </c>
       <c r="C200" t="n">
-        <v>143.4</v>
+        <v>143.3</v>
       </c>
       <c r="D200" t="n">
-        <v>144</v>
+        <v>144.2</v>
       </c>
       <c r="E200" t="n">
         <v>143.3</v>
       </c>
       <c r="F200" t="n">
-        <v>2224.9075</v>
+        <v>2000</v>
       </c>
       <c r="G200" t="n">
-        <v>144.1616666666667</v>
+        <v>144.18</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7877,9 +8037,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>144</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7897,19 +8055,19 @@
         <v>144</v>
       </c>
       <c r="C201" t="n">
-        <v>144</v>
+        <v>143.4</v>
       </c>
       <c r="D201" t="n">
         <v>144</v>
       </c>
       <c r="E201" t="n">
-        <v>144</v>
+        <v>143.3</v>
       </c>
       <c r="F201" t="n">
-        <v>985.2242</v>
+        <v>2224.9075</v>
       </c>
       <c r="G201" t="n">
-        <v>144.1933333333333</v>
+        <v>144.1616666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7918,9 +8076,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>144</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7938,19 +8094,19 @@
         <v>144</v>
       </c>
       <c r="C202" t="n">
-        <v>142.8</v>
+        <v>144</v>
       </c>
       <c r="D202" t="n">
         <v>144</v>
       </c>
       <c r="E202" t="n">
-        <v>142.8</v>
+        <v>144</v>
       </c>
       <c r="F202" t="n">
-        <v>1000</v>
+        <v>985.2242</v>
       </c>
       <c r="G202" t="n">
-        <v>144.1066666666666</v>
+        <v>144.1933333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7959,9 +8115,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>144</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7976,22 +8130,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="C203" t="n">
-        <v>144</v>
+        <v>142.8</v>
       </c>
       <c r="D203" t="n">
         <v>144</v>
       </c>
       <c r="E203" t="n">
-        <v>143.9</v>
+        <v>142.8</v>
       </c>
       <c r="F203" t="n">
-        <v>1130.4635</v>
+        <v>1000</v>
       </c>
       <c r="G203" t="n">
-        <v>144.0816666666666</v>
+        <v>144.1066666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8000,9 +8154,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>144</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8017,7 +8169,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>144</v>
+        <v>143.9</v>
       </c>
       <c r="C204" t="n">
         <v>144</v>
@@ -8026,13 +8178,13 @@
         <v>144</v>
       </c>
       <c r="E204" t="n">
-        <v>144</v>
+        <v>143.9</v>
       </c>
       <c r="F204" t="n">
-        <v>414.8606</v>
+        <v>1130.4635</v>
       </c>
       <c r="G204" t="n">
-        <v>144.0166666666666</v>
+        <v>144.0816666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8041,9 +8193,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>144</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8061,19 +8211,19 @@
         <v>144</v>
       </c>
       <c r="C205" t="n">
-        <v>148.8</v>
+        <v>144</v>
       </c>
       <c r="D205" t="n">
-        <v>148.8</v>
+        <v>144</v>
       </c>
       <c r="E205" t="n">
-        <v>142.8</v>
+        <v>144</v>
       </c>
       <c r="F205" t="n">
-        <v>3615.0857</v>
+        <v>414.8606</v>
       </c>
       <c r="G205" t="n">
-        <v>144.0616666666666</v>
+        <v>144.0166666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8082,9 +8232,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>144</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8102,7 +8250,7 @@
         <v>144</v>
       </c>
       <c r="C206" t="n">
-        <v>142.8</v>
+        <v>148.8</v>
       </c>
       <c r="D206" t="n">
         <v>148.8</v>
@@ -8111,10 +8259,10 @@
         <v>142.8</v>
       </c>
       <c r="F206" t="n">
-        <v>1740.8738</v>
+        <v>3615.0857</v>
       </c>
       <c r="G206" t="n">
-        <v>144.0216666666666</v>
+        <v>144.0616666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8123,9 +8271,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>144</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8140,22 +8286,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>147.9</v>
+        <v>144</v>
       </c>
       <c r="C207" t="n">
-        <v>147.9</v>
+        <v>142.8</v>
       </c>
       <c r="D207" t="n">
-        <v>147.9</v>
+        <v>148.8</v>
       </c>
       <c r="E207" t="n">
-        <v>147.9</v>
+        <v>142.8</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>1740.8738</v>
       </c>
       <c r="G207" t="n">
-        <v>144.1083333333332</v>
+        <v>144.0216666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8164,9 +8310,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>144</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,19 +8325,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="C208" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="D208" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="E208" t="n">
-        <v>144</v>
+        <v>147.9</v>
       </c>
       <c r="F208" t="n">
-        <v>195.5066</v>
+        <v>10</v>
       </c>
       <c r="G208" t="n">
         <v>144.1083333333332</v>
@@ -8205,9 +8349,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>144</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8234,10 +8376,10 @@
         <v>144</v>
       </c>
       <c r="F209" t="n">
-        <v>156.7725</v>
+        <v>195.5066</v>
       </c>
       <c r="G209" t="n">
-        <v>144.1099999999999</v>
+        <v>144.1083333333332</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8246,9 +8388,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>144</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8263,22 +8403,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>145.3</v>
+        <v>144</v>
       </c>
       <c r="C210" t="n">
-        <v>145.3</v>
+        <v>144</v>
       </c>
       <c r="D210" t="n">
-        <v>145.3</v>
+        <v>144</v>
       </c>
       <c r="E210" t="n">
-        <v>145.3</v>
+        <v>144</v>
       </c>
       <c r="F210" t="n">
-        <v>3.8</v>
+        <v>156.7725</v>
       </c>
       <c r="G210" t="n">
-        <v>144.1583333333332</v>
+        <v>144.1099999999999</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8287,9 +8427,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>144</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8304,22 +8442,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>144</v>
+        <v>145.3</v>
       </c>
       <c r="C211" t="n">
-        <v>144</v>
+        <v>145.3</v>
       </c>
       <c r="D211" t="n">
-        <v>144</v>
+        <v>145.3</v>
       </c>
       <c r="E211" t="n">
-        <v>144</v>
+        <v>145.3</v>
       </c>
       <c r="F211" t="n">
-        <v>744.529</v>
+        <v>3.8</v>
       </c>
       <c r="G211" t="n">
-        <v>144.1549999999999</v>
+        <v>144.1583333333332</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8328,9 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>144</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8348,19 +8484,19 @@
         <v>144</v>
       </c>
       <c r="C212" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="D212" t="n">
         <v>144</v>
       </c>
       <c r="E212" t="n">
-        <v>143.2</v>
+        <v>144</v>
       </c>
       <c r="F212" t="n">
-        <v>996.2891</v>
+        <v>744.529</v>
       </c>
       <c r="G212" t="n">
-        <v>144.1066666666666</v>
+        <v>144.1549999999999</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8369,9 +8505,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>144</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8386,22 +8520,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>143.1</v>
+        <v>144</v>
       </c>
       <c r="C213" t="n">
-        <v>143.1</v>
+        <v>143.9</v>
       </c>
       <c r="D213" t="n">
-        <v>143.1</v>
+        <v>144</v>
       </c>
       <c r="E213" t="n">
-        <v>143.1</v>
+        <v>143.2</v>
       </c>
       <c r="F213" t="n">
-        <v>1500</v>
+        <v>996.2891</v>
       </c>
       <c r="G213" t="n">
-        <v>144.0916666666666</v>
+        <v>144.1066666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8410,9 +8544,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>144</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8427,22 +8559,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="C214" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="D214" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="E214" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="F214" t="n">
-        <v>652.4648999999999</v>
+        <v>1500</v>
       </c>
       <c r="G214" t="n">
-        <v>144.0799999999999</v>
+        <v>144.0916666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8451,9 +8583,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>144</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8468,7 +8598,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>142.7</v>
+        <v>143</v>
       </c>
       <c r="C215" t="n">
         <v>143</v>
@@ -8477,13 +8607,13 @@
         <v>143</v>
       </c>
       <c r="E215" t="n">
-        <v>142.2</v>
+        <v>143</v>
       </c>
       <c r="F215" t="n">
-        <v>1709.1699</v>
+        <v>652.4648999999999</v>
       </c>
       <c r="G215" t="n">
-        <v>144.0666666666666</v>
+        <v>144.0799999999999</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8492,9 +8622,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>144</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,22 +8637,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>143.8</v>
+        <v>142.7</v>
       </c>
       <c r="C216" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="D216" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="E216" t="n">
-        <v>143.8</v>
+        <v>142.2</v>
       </c>
       <c r="F216" t="n">
-        <v>4</v>
+        <v>1709.1699</v>
       </c>
       <c r="G216" t="n">
-        <v>144.1433333333332</v>
+        <v>144.0666666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8533,9 +8661,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>144</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8565,7 +8691,7 @@
         <v>4</v>
       </c>
       <c r="G217" t="n">
-        <v>144.1549999999999</v>
+        <v>144.1433333333332</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8574,9 +8700,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>144</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8591,22 +8715,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>143</v>
+        <v>143.8</v>
       </c>
       <c r="C218" t="n">
-        <v>143</v>
+        <v>143.8</v>
       </c>
       <c r="D218" t="n">
-        <v>143</v>
+        <v>143.8</v>
       </c>
       <c r="E218" t="n">
-        <v>143</v>
+        <v>143.8</v>
       </c>
       <c r="F218" t="n">
-        <v>157.975</v>
+        <v>4</v>
       </c>
       <c r="G218" t="n">
-        <v>144.1533333333332</v>
+        <v>144.1549999999999</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8615,9 +8739,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>144</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8632,22 +8754,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>145.3</v>
+        <v>143</v>
       </c>
       <c r="C219" t="n">
-        <v>145.3</v>
+        <v>143</v>
       </c>
       <c r="D219" t="n">
-        <v>145.3</v>
+        <v>143</v>
       </c>
       <c r="E219" t="n">
-        <v>145.3</v>
+        <v>143</v>
       </c>
       <c r="F219" t="n">
-        <v>4</v>
+        <v>157.975</v>
       </c>
       <c r="G219" t="n">
-        <v>144.1899999999999</v>
+        <v>144.1533333333332</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8656,9 +8778,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>144</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8673,22 +8793,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>143.7</v>
+        <v>145.3</v>
       </c>
       <c r="C220" t="n">
-        <v>143.7</v>
+        <v>145.3</v>
       </c>
       <c r="D220" t="n">
-        <v>143.7</v>
+        <v>145.3</v>
       </c>
       <c r="E220" t="n">
-        <v>143.7</v>
+        <v>145.3</v>
       </c>
       <c r="F220" t="n">
-        <v>663.7709</v>
+        <v>4</v>
       </c>
       <c r="G220" t="n">
-        <v>144.1316666666665</v>
+        <v>144.1899999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8697,9 +8817,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>144</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8714,22 +8832,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>145.3</v>
+        <v>143.7</v>
       </c>
       <c r="C221" t="n">
-        <v>145.3</v>
+        <v>143.7</v>
       </c>
       <c r="D221" t="n">
-        <v>145.3</v>
+        <v>143.7</v>
       </c>
       <c r="E221" t="n">
-        <v>145.3</v>
+        <v>143.7</v>
       </c>
       <c r="F221" t="n">
-        <v>10.0384</v>
+        <v>663.7709</v>
       </c>
       <c r="G221" t="n">
-        <v>144.1533333333332</v>
+        <v>144.1316666666665</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8738,9 +8856,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>144</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8758,19 +8874,19 @@
         <v>145.3</v>
       </c>
       <c r="C222" t="n">
-        <v>145.8</v>
+        <v>145.3</v>
       </c>
       <c r="D222" t="n">
-        <v>145.8</v>
+        <v>145.3</v>
       </c>
       <c r="E222" t="n">
         <v>145.3</v>
       </c>
       <c r="F222" t="n">
-        <v>1331.750464814815</v>
+        <v>10.0384</v>
       </c>
       <c r="G222" t="n">
-        <v>144.1749999999998</v>
+        <v>144.1533333333332</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8779,9 +8895,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>144</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8796,22 +8910,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>145.1</v>
+        <v>145.3</v>
       </c>
       <c r="C223" t="n">
-        <v>146.5</v>
+        <v>145.8</v>
       </c>
       <c r="D223" t="n">
-        <v>147.6</v>
+        <v>145.8</v>
       </c>
       <c r="E223" t="n">
-        <v>141.4</v>
+        <v>145.3</v>
       </c>
       <c r="F223" t="n">
-        <v>7535.184954138825</v>
+        <v>1331.750464814815</v>
       </c>
       <c r="G223" t="n">
-        <v>144.2083333333331</v>
+        <v>144.1749999999998</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8820,9 +8934,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>144</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8837,22 +8949,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>143.6</v>
+        <v>145.1</v>
       </c>
       <c r="C224" t="n">
-        <v>143</v>
+        <v>146.5</v>
       </c>
       <c r="D224" t="n">
-        <v>143.6</v>
+        <v>147.6</v>
       </c>
       <c r="E224" t="n">
-        <v>143</v>
+        <v>141.4</v>
       </c>
       <c r="F224" t="n">
-        <v>524.9557</v>
+        <v>7535.184954138825</v>
       </c>
       <c r="G224" t="n">
-        <v>144.1833333333331</v>
+        <v>144.2083333333331</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8861,9 +8973,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>144</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8878,22 +8988,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>144</v>
+        <v>143.6</v>
       </c>
       <c r="C225" t="n">
-        <v>142.4</v>
+        <v>143</v>
       </c>
       <c r="D225" t="n">
-        <v>144</v>
+        <v>143.6</v>
       </c>
       <c r="E225" t="n">
-        <v>142.4</v>
+        <v>143</v>
       </c>
       <c r="F225" t="n">
-        <v>3122.5374</v>
+        <v>524.9557</v>
       </c>
       <c r="G225" t="n">
-        <v>144.2199999999998</v>
+        <v>144.1833333333331</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8902,9 +9012,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>144</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8919,22 +9027,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C226" t="n">
-        <v>143.9</v>
+        <v>142.4</v>
       </c>
       <c r="D226" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="E226" t="n">
-        <v>143</v>
+        <v>142.4</v>
       </c>
       <c r="F226" t="n">
-        <v>750</v>
+        <v>3122.5374</v>
       </c>
       <c r="G226" t="n">
-        <v>144.2766666666665</v>
+        <v>144.2199999999998</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8943,9 +9051,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>144</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8960,22 +9066,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C227" t="n">
-        <v>144</v>
+        <v>143.9</v>
       </c>
       <c r="D227" t="n">
-        <v>144</v>
+        <v>143.9</v>
       </c>
       <c r="E227" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F227" t="n">
-        <v>460.2412</v>
+        <v>750</v>
       </c>
       <c r="G227" t="n">
-        <v>144.3249999999998</v>
+        <v>144.2766666666665</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8984,9 +9090,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>144</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9004,36 +9108,73 @@
         <v>144</v>
       </c>
       <c r="C228" t="n">
-        <v>142.9</v>
+        <v>144</v>
       </c>
       <c r="D228" t="n">
         <v>144</v>
       </c>
       <c r="E228" t="n">
+        <v>144</v>
+      </c>
+      <c r="F228" t="n">
+        <v>460.2412</v>
+      </c>
+      <c r="G228" t="n">
+        <v>144.3249999999998</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>144</v>
+      </c>
+      <c r="C229" t="n">
         <v>142.9</v>
       </c>
-      <c r="F228" t="n">
+      <c r="D229" t="n">
+        <v>144</v>
+      </c>
+      <c r="E229" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="F229" t="n">
         <v>3312.1036</v>
       </c>
-      <c r="G228" t="n">
+      <c r="G229" t="n">
         <v>144.3233333333331</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>144</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest ABT.xlsx
+++ b/BackTest/2020-01-15 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:N239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4012.5367</v>
       </c>
       <c r="G2" t="n">
+        <v>144.2200000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>140.4383333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>5653.69</v>
       </c>
       <c r="G3" t="n">
+        <v>144.5666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>140.5733333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,27 @@
         <v>4191.282457306397</v>
       </c>
       <c r="G4" t="n">
+        <v>144.7333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>140.6700000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,27 @@
         <v>3.36</v>
       </c>
       <c r="G5" t="n">
+        <v>145.3200000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>140.8183333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +621,21 @@
         <v>3092.3398</v>
       </c>
       <c r="G6" t="n">
+        <v>145.9066666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>140.9733333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +659,21 @@
         <v>37057.56028980945</v>
       </c>
       <c r="G7" t="n">
+        <v>146.2400000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>141.1733333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +697,21 @@
         <v>13194.06929975201</v>
       </c>
       <c r="G8" t="n">
+        <v>146.4866666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>141.2516666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +735,21 @@
         <v>15829.8469</v>
       </c>
       <c r="G9" t="n">
+        <v>146.7066666666668</v>
+      </c>
+      <c r="H9" t="n">
         <v>141.4516666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +773,21 @@
         <v>6200.567589757412</v>
       </c>
       <c r="G10" t="n">
+        <v>146.7000000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>141.5416666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +811,21 @@
         <v>31299.4957</v>
       </c>
       <c r="G11" t="n">
+        <v>147.0733333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>141.6866666666668</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +849,21 @@
         <v>7547.2263</v>
       </c>
       <c r="G12" t="n">
+        <v>147.1866666666668</v>
+      </c>
+      <c r="H12" t="n">
         <v>141.8350000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +887,21 @@
         <v>475.8837</v>
       </c>
       <c r="G13" t="n">
+        <v>147.2466666666668</v>
+      </c>
+      <c r="H13" t="n">
         <v>142.0100000000001</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +925,21 @@
         <v>4</v>
       </c>
       <c r="G14" t="n">
+        <v>147.7000000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>142.1916666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +963,21 @@
         <v>7768.9011</v>
       </c>
       <c r="G15" t="n">
+        <v>147.8200000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>142.3216666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1001,21 @@
         <v>3241.1655</v>
       </c>
       <c r="G16" t="n">
+        <v>148.5333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>142.5683333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1039,21 @@
         <v>426.93</v>
       </c>
       <c r="G17" t="n">
+        <v>148.7800000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>142.7516666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1077,21 @@
         <v>464.3525</v>
       </c>
       <c r="G18" t="n">
+        <v>148.7133333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>142.9016666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1115,21 @@
         <v>426.6953</v>
       </c>
       <c r="G19" t="n">
+        <v>148.8800000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>143.0683333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1153,21 @@
         <v>3036.196214075821</v>
       </c>
       <c r="G20" t="n">
+        <v>148.8200000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>143.235</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1191,21 @@
         <v>1504</v>
       </c>
       <c r="G21" t="n">
+        <v>148.8266666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>143.435</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1229,21 @@
         <v>30</v>
       </c>
       <c r="G22" t="n">
+        <v>148.7600000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>143.6016666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1267,21 @@
         <v>2932.7446</v>
       </c>
       <c r="G23" t="n">
+        <v>149.2400000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>143.8666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1305,21 @@
         <v>3520.6846</v>
       </c>
       <c r="G24" t="n">
+        <v>149.6333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>144.15</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1343,21 @@
         <v>9184.8922</v>
       </c>
       <c r="G25" t="n">
+        <v>150.0666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>144.3683333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1381,21 @@
         <v>2573.8709</v>
       </c>
       <c r="G26" t="n">
+        <v>150.2200000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>144.4866666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1419,21 @@
         <v>5</v>
       </c>
       <c r="G27" t="n">
+        <v>150.6133333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>144.6533333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1457,21 @@
         <v>3735.9945</v>
       </c>
       <c r="G28" t="n">
+        <v>150.8000000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>144.8433333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1495,21 @@
         <v>13733.5135</v>
       </c>
       <c r="G29" t="n">
+        <v>150.6800000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>144.9616666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1533,21 @@
         <v>4</v>
       </c>
       <c r="G30" t="n">
+        <v>150.9066666666668</v>
+      </c>
+      <c r="H30" t="n">
         <v>145.1566666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1571,21 @@
         <v>4</v>
       </c>
       <c r="G31" t="n">
+        <v>150.6866666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>145.3733333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1609,21 @@
         <v>3786.8946</v>
       </c>
       <c r="G32" t="n">
+        <v>150.9466666666668</v>
+      </c>
+      <c r="H32" t="n">
         <v>145.6283333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1647,21 @@
         <v>4</v>
       </c>
       <c r="G33" t="n">
+        <v>151.2066666666668</v>
+      </c>
+      <c r="H33" t="n">
         <v>145.85</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1685,21 @@
         <v>444</v>
       </c>
       <c r="G34" t="n">
+        <v>151.1666666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>145.9966666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1723,21 @@
         <v>1075.8305</v>
       </c>
       <c r="G35" t="n">
+        <v>151.3600000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>146.165</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1761,21 @@
         <v>2900.6612</v>
       </c>
       <c r="G36" t="n">
+        <v>151.4933333333335</v>
+      </c>
+      <c r="H36" t="n">
         <v>146.38</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1799,21 @@
         <v>18008.9516</v>
       </c>
       <c r="G37" t="n">
+        <v>151.3600000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>146.53</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,24 +1837,21 @@
         <v>11978.7412</v>
       </c>
       <c r="G38" t="n">
+        <v>151.1066666666668</v>
+      </c>
+      <c r="H38" t="n">
         <v>146.765</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1749,22 +1875,21 @@
         <v>4261.0833</v>
       </c>
       <c r="G39" t="n">
+        <v>150.8600000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>147.0383333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,22 +1913,21 @@
         <v>1669</v>
       </c>
       <c r="G40" t="n">
+        <v>150.7266666666668</v>
+      </c>
+      <c r="H40" t="n">
         <v>147.2716666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1827,22 +1951,21 @@
         <v>607.9769</v>
       </c>
       <c r="G41" t="n">
+        <v>150.9200000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>147.57</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,22 +1989,21 @@
         <v>4873.6525</v>
       </c>
       <c r="G42" t="n">
+        <v>151.0600000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>147.8533333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1905,22 +2027,21 @@
         <v>6024.161</v>
       </c>
       <c r="G43" t="n">
+        <v>151.4466666666668</v>
+      </c>
+      <c r="H43" t="n">
         <v>148.1416666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1944,22 +2065,21 @@
         <v>5364.38</v>
       </c>
       <c r="G44" t="n">
+        <v>151.8933333333335</v>
+      </c>
+      <c r="H44" t="n">
         <v>148.3883333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1983,22 +2103,21 @@
         <v>198.604</v>
       </c>
       <c r="G45" t="n">
+        <v>152.2733333333335</v>
+      </c>
+      <c r="H45" t="n">
         <v>148.6733333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,22 +2141,21 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
+        <v>152.5066666666668</v>
+      </c>
+      <c r="H46" t="n">
         <v>148.945</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2061,22 +2179,21 @@
         <v>2431.5791</v>
       </c>
       <c r="G47" t="n">
+        <v>152.7800000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>149.1816666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2100,22 +2217,21 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
+        <v>153.1800000000001</v>
+      </c>
+      <c r="H48" t="n">
         <v>149.4166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2139,22 +2255,21 @@
         <v>670.4681</v>
       </c>
       <c r="G49" t="n">
+        <v>153.6933333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>149.6183333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,22 +2293,21 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
+        <v>154.0933333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>149.8983333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2217,22 +2331,21 @@
         <v>12469.8144</v>
       </c>
       <c r="G51" t="n">
+        <v>154.4866666666668</v>
+      </c>
+      <c r="H51" t="n">
         <v>150.1783333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2256,22 +2369,21 @@
         <v>201.3415</v>
       </c>
       <c r="G52" t="n">
+        <v>155.1466666666668</v>
+      </c>
+      <c r="H52" t="n">
         <v>150.3766666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2295,22 +2407,21 @@
         <v>1750</v>
       </c>
       <c r="G53" t="n">
+        <v>155.5466666666668</v>
+      </c>
+      <c r="H53" t="n">
         <v>150.595</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2334,22 +2445,21 @@
         <v>785.9844000000001</v>
       </c>
       <c r="G54" t="n">
+        <v>155.9333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>150.7833333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,22 +2483,21 @@
         <v>13293.3186</v>
       </c>
       <c r="G55" t="n">
+        <v>156.4666666666668</v>
+      </c>
+      <c r="H55" t="n">
         <v>150.99</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,22 +2521,21 @@
         <v>1746.3854</v>
       </c>
       <c r="G56" t="n">
+        <v>156.9800000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>151.2983333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2451,22 +2559,21 @@
         <v>634.8257</v>
       </c>
       <c r="G57" t="n">
+        <v>157.3066666666668</v>
+      </c>
+      <c r="H57" t="n">
         <v>151.5416666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,22 +2597,21 @@
         <v>2606.3074</v>
       </c>
       <c r="G58" t="n">
+        <v>157.4266666666668</v>
+      </c>
+      <c r="H58" t="n">
         <v>151.73</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,22 +2635,21 @@
         <v>7606.3014</v>
       </c>
       <c r="G59" t="n">
+        <v>157.7066666666668</v>
+      </c>
+      <c r="H59" t="n">
         <v>151.995</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,22 +2673,21 @@
         <v>204</v>
       </c>
       <c r="G60" t="n">
+        <v>157.9666666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>152.2416666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2607,22 +2711,21 @@
         <v>236.9378</v>
       </c>
       <c r="G61" t="n">
+        <v>158.2200000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>152.4866666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,22 +2749,21 @@
         <v>30</v>
       </c>
       <c r="G62" t="n">
+        <v>158.3933333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>152.725</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2685,22 +2787,21 @@
         <v>22772.0003</v>
       </c>
       <c r="G63" t="n">
+        <v>158.4600000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>152.89</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,22 +2825,21 @@
         <v>4541.0863</v>
       </c>
       <c r="G64" t="n">
+        <v>158.3266666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>153.0166666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2763,22 +2863,21 @@
         <v>343.646</v>
       </c>
       <c r="G65" t="n">
+        <v>158.3600000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>153.1583333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,22 +2901,21 @@
         <v>2426.7205</v>
       </c>
       <c r="G66" t="n">
+        <v>158.3866666666668</v>
+      </c>
+      <c r="H66" t="n">
         <v>153.2983333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2841,22 +2939,21 @@
         <v>69</v>
       </c>
       <c r="G67" t="n">
+        <v>158.3933333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>153.415</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,22 +2977,21 @@
         <v>3798.504</v>
       </c>
       <c r="G68" t="n">
+        <v>158.2533333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>153.5366666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2919,22 +3015,21 @@
         <v>56</v>
       </c>
       <c r="G69" t="n">
+        <v>158.1133333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>153.635</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2958,22 +3053,21 @@
         <v>1238</v>
       </c>
       <c r="G70" t="n">
+        <v>157.8400000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>153.775</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2997,22 +3091,21 @@
         <v>431.5776</v>
       </c>
       <c r="G71" t="n">
+        <v>157.5866666666668</v>
+      </c>
+      <c r="H71" t="n">
         <v>153.9266666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,22 +3129,21 @@
         <v>177.0925</v>
       </c>
       <c r="G72" t="n">
+        <v>157.3866666666668</v>
+      </c>
+      <c r="H72" t="n">
         <v>154.0916666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3075,22 +3167,21 @@
         <v>1853.035189456869</v>
       </c>
       <c r="G73" t="n">
+        <v>157.2866666666668</v>
+      </c>
+      <c r="H73" t="n">
         <v>154.24</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,22 +3205,21 @@
         <v>256.4103</v>
       </c>
       <c r="G74" t="n">
+        <v>157.1533333333335</v>
+      </c>
+      <c r="H74" t="n">
         <v>154.3583333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,22 +3243,21 @@
         <v>128.2052</v>
       </c>
       <c r="G75" t="n">
+        <v>156.8866666666668</v>
+      </c>
+      <c r="H75" t="n">
         <v>154.5083333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,22 +3281,21 @@
         <v>248.8027</v>
       </c>
       <c r="G76" t="n">
+        <v>156.5866666666668</v>
+      </c>
+      <c r="H76" t="n">
         <v>154.5</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,22 +3319,21 @@
         <v>263.5623</v>
       </c>
       <c r="G77" t="n">
+        <v>156.2800000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>154.6</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,22 +3357,21 @@
         <v>4</v>
       </c>
       <c r="G78" t="n">
+        <v>156.1533333333335</v>
+      </c>
+      <c r="H78" t="n">
         <v>154.75</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,22 +3395,21 @@
         <v>703.3149</v>
       </c>
       <c r="G79" t="n">
+        <v>156.1466666666668</v>
+      </c>
+      <c r="H79" t="n">
         <v>154.8333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,22 +3433,21 @@
         <v>3783.7768</v>
       </c>
       <c r="G80" t="n">
+        <v>155.8133333333335</v>
+      </c>
+      <c r="H80" t="n">
         <v>154.9066666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,22 +3471,21 @@
         <v>4035.3489</v>
       </c>
       <c r="G81" t="n">
+        <v>155.6400000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>155.0016666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,22 +3509,21 @@
         <v>3029.2557</v>
       </c>
       <c r="G82" t="n">
+        <v>155.3666666666668</v>
+      </c>
+      <c r="H82" t="n">
         <v>155.0666666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3465,22 +3547,21 @@
         <v>175.3139</v>
       </c>
       <c r="G83" t="n">
+        <v>155.1600000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>155.0166666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,22 +3585,21 @@
         <v>239.8812</v>
       </c>
       <c r="G84" t="n">
+        <v>154.9533333333335</v>
+      </c>
+      <c r="H84" t="n">
         <v>154.965</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3543,22 +3623,21 @@
         <v>74.47150000000001</v>
       </c>
       <c r="G85" t="n">
+        <v>154.3333333333335</v>
+      </c>
+      <c r="H85" t="n">
         <v>154.8416666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,22 +3661,21 @@
         <v>13288.6124</v>
       </c>
       <c r="G86" t="n">
+        <v>154.0200000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>154.8766666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3621,22 +3699,21 @@
         <v>100</v>
       </c>
       <c r="G87" t="n">
+        <v>153.6666666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>154.855</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,22 +3737,21 @@
         <v>681.5791</v>
       </c>
       <c r="G88" t="n">
+        <v>153.1000000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>154.815</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3699,22 +3775,21 @@
         <v>1028.951</v>
       </c>
       <c r="G89" t="n">
+        <v>152.6600000000001</v>
+      </c>
+      <c r="H89" t="n">
         <v>154.8533333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,22 +3813,21 @@
         <v>5</v>
       </c>
       <c r="G90" t="n">
+        <v>152.1266666666668</v>
+      </c>
+      <c r="H90" t="n">
         <v>154.8133333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3777,22 +3851,21 @@
         <v>5</v>
       </c>
       <c r="G91" t="n">
+        <v>151.5600000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>154.7183333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,22 +3889,21 @@
         <v>1415.8611</v>
       </c>
       <c r="G92" t="n">
+        <v>151.0933333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>154.6366666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3855,22 +3927,21 @@
         <v>7051.4153</v>
       </c>
       <c r="G93" t="n">
+        <v>150.5533333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>154.5866666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,22 +3965,21 @@
         <v>1449.687344827586</v>
       </c>
       <c r="G94" t="n">
+        <v>150.2133333333335</v>
+      </c>
+      <c r="H94" t="n">
         <v>154.595</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,22 +4003,21 @@
         <v>14662.0202</v>
       </c>
       <c r="G95" t="n">
+        <v>149.7266666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>154.4983333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,22 +4041,21 @@
         <v>33077.8482</v>
       </c>
       <c r="G96" t="n">
+        <v>149.5466666666668</v>
+      </c>
+      <c r="H96" t="n">
         <v>154.515</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4011,22 +4079,21 @@
         <v>401.7665</v>
       </c>
       <c r="G97" t="n">
+        <v>149.2200000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>154.5316666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,22 +4117,21 @@
         <v>669.7247</v>
       </c>
       <c r="G98" t="n">
+        <v>148.6800000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>154.41</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,22 +4155,21 @@
         <v>50</v>
       </c>
       <c r="G99" t="n">
+        <v>148.2866666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>154.3216666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,22 +4193,21 @@
         <v>634.8257</v>
       </c>
       <c r="G100" t="n">
+        <v>148.1466666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>154.1966666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,22 +4231,21 @@
         <v>4954.045689100817</v>
       </c>
       <c r="G101" t="n">
+        <v>147.7933333333335</v>
+      </c>
+      <c r="H101" t="n">
         <v>154.095</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,22 +4269,21 @@
         <v>401.7665</v>
       </c>
       <c r="G102" t="n">
+        <v>147.4200000000001</v>
+      </c>
+      <c r="H102" t="n">
         <v>153.945</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,22 +4307,21 @@
         <v>8.1181</v>
       </c>
       <c r="G103" t="n">
+        <v>147.6066666666668</v>
+      </c>
+      <c r="H103" t="n">
         <v>153.855</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,22 +4345,21 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
+        <v>147.3133333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>153.7083333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4323,22 +4383,21 @@
         <v>4947.2337</v>
       </c>
       <c r="G105" t="n">
+        <v>147.0800000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>153.515</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,22 +4421,21 @@
         <v>3639.1803</v>
       </c>
       <c r="G106" t="n">
+        <v>146.9466666666668</v>
+      </c>
+      <c r="H106" t="n">
         <v>153.3283333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4401,22 +4459,21 @@
         <v>9791.219499999999</v>
       </c>
       <c r="G107" t="n">
+        <v>146.7066666666668</v>
+      </c>
+      <c r="H107" t="n">
         <v>153.1183333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4440,22 +4497,21 @@
         <v>831.961</v>
       </c>
       <c r="G108" t="n">
+        <v>146.4733333333335</v>
+      </c>
+      <c r="H108" t="n">
         <v>152.9099999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4479,22 +4535,21 @@
         <v>1500</v>
       </c>
       <c r="G109" t="n">
+        <v>146.2866666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>152.7433333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,22 +4573,21 @@
         <v>15811.8827</v>
       </c>
       <c r="G110" t="n">
+        <v>146.2866666666668</v>
+      </c>
+      <c r="H110" t="n">
         <v>152.5466666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4557,22 +4611,21 @@
         <v>1702.9066</v>
       </c>
       <c r="G111" t="n">
+        <v>145.7800000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>152.3383333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,22 +4649,21 @@
         <v>11099.6646</v>
       </c>
       <c r="G112" t="n">
+        <v>145.6666666666668</v>
+      </c>
+      <c r="H112" t="n">
         <v>152.1616666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4635,22 +4687,21 @@
         <v>5579.806</v>
       </c>
       <c r="G113" t="n">
+        <v>146.0066666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>152.0249999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,22 +4725,21 @@
         <v>67</v>
       </c>
       <c r="G114" t="n">
+        <v>145.6133333333335</v>
+      </c>
+      <c r="H114" t="n">
         <v>151.7416666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4713,22 +4763,21 @@
         <v>584.6505</v>
       </c>
       <c r="G115" t="n">
+        <v>145.5866666666668</v>
+      </c>
+      <c r="H115" t="n">
         <v>151.4766666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,22 +4801,21 @@
         <v>2251.25</v>
       </c>
       <c r="G116" t="n">
+        <v>145.2600000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>151.1649999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,22 +4839,21 @@
         <v>14.8506</v>
       </c>
       <c r="G117" t="n">
+        <v>144.7933333333335</v>
+      </c>
+      <c r="H117" t="n">
         <v>150.8166666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,22 +4877,21 @@
         <v>436.9378</v>
       </c>
       <c r="G118" t="n">
+        <v>143.9666666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>150.4899999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4869,22 +4915,21 @@
         <v>11180.5205</v>
       </c>
       <c r="G119" t="n">
+        <v>143.9000000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>150.2566666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,22 +4953,21 @@
         <v>87.77200000000001</v>
       </c>
       <c r="G120" t="n">
+        <v>143.8000000000001</v>
+      </c>
+      <c r="H120" t="n">
         <v>149.9733333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,22 +4991,21 @@
         <v>4901.4437</v>
       </c>
       <c r="G121" t="n">
+        <v>143.6066666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>149.6749999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4986,22 +5029,21 @@
         <v>1553.13</v>
       </c>
       <c r="G122" t="n">
+        <v>143.5200000000001</v>
+      </c>
+      <c r="H122" t="n">
         <v>149.3999999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5025,22 +5067,21 @@
         <v>1500</v>
       </c>
       <c r="G123" t="n">
+        <v>143.4266666666668</v>
+      </c>
+      <c r="H123" t="n">
         <v>149.1516666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5064,22 +5105,21 @@
         <v>1500</v>
       </c>
       <c r="G124" t="n">
+        <v>143.3333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>148.9949999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,22 +5143,21 @@
         <v>821.2246</v>
       </c>
       <c r="G125" t="n">
+        <v>143.1200000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>148.7366666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,22 +5181,21 @@
         <v>42.4803</v>
       </c>
       <c r="G126" t="n">
+        <v>142.9466666666668</v>
+      </c>
+      <c r="H126" t="n">
         <v>148.4783333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5181,22 +5219,21 @@
         <v>827.2856</v>
       </c>
       <c r="G127" t="n">
+        <v>142.7266666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>148.2449999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,22 +5257,21 @@
         <v>1454.5593</v>
       </c>
       <c r="G128" t="n">
+        <v>142.1866666666668</v>
+      </c>
+      <c r="H128" t="n">
         <v>148.0083333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,22 +5295,21 @@
         <v>68.4932</v>
       </c>
       <c r="G129" t="n">
+        <v>142.5133333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>147.8416666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,22 +5333,21 @@
         <v>1186.6192</v>
       </c>
       <c r="G130" t="n">
+        <v>142.3000000000001</v>
+      </c>
+      <c r="H130" t="n">
         <v>147.5916666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5337,22 +5371,21 @@
         <v>1292.4924</v>
       </c>
       <c r="G131" t="n">
+        <v>142.3800000000001</v>
+      </c>
+      <c r="H131" t="n">
         <v>147.3633333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,22 +5409,21 @@
         <v>510.8949</v>
       </c>
       <c r="G132" t="n">
+        <v>142.7666666666668</v>
+      </c>
+      <c r="H132" t="n">
         <v>147.1616666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5415,22 +5447,21 @@
         <v>4.3508</v>
       </c>
       <c r="G133" t="n">
+        <v>143.0600000000001</v>
+      </c>
+      <c r="H133" t="n">
         <v>146.9333333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,22 +5485,21 @@
         <v>499.394</v>
       </c>
       <c r="G134" t="n">
+        <v>143.1800000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>146.7633333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5493,22 +5523,21 @@
         <v>897.1128</v>
       </c>
       <c r="G135" t="n">
+        <v>143.3666666666668</v>
+      </c>
+      <c r="H135" t="n">
         <v>146.5933333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,22 +5561,21 @@
         <v>3180.9546</v>
       </c>
       <c r="G136" t="n">
+        <v>143.6133333333335</v>
+      </c>
+      <c r="H136" t="n">
         <v>146.4316666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5571,22 +5599,21 @@
         <v>90.41095890410959</v>
       </c>
       <c r="G137" t="n">
+        <v>143.8066666666668</v>
+      </c>
+      <c r="H137" t="n">
         <v>146.2816666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,22 +5637,21 @@
         <v>108.0172</v>
       </c>
       <c r="G138" t="n">
+        <v>143.9933333333335</v>
+      </c>
+      <c r="H138" t="n">
         <v>146.1116666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5649,22 +5675,21 @@
         <v>1349.88824109589</v>
       </c>
       <c r="G139" t="n">
+        <v>144.1466666666669</v>
+      </c>
+      <c r="H139" t="n">
         <v>145.9949999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5688,22 +5713,21 @@
         <v>3838.7893</v>
       </c>
       <c r="G140" t="n">
+        <v>144.4866666666668</v>
+      </c>
+      <c r="H140" t="n">
         <v>145.9049999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5727,22 +5751,21 @@
         <v>5837.1728</v>
       </c>
       <c r="G141" t="n">
+        <v>144.6666666666669</v>
+      </c>
+      <c r="H141" t="n">
         <v>145.7349999999999</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,22 +5789,21 @@
         <v>4685.4786</v>
       </c>
       <c r="G142" t="n">
+        <v>144.6066666666669</v>
+      </c>
+      <c r="H142" t="n">
         <v>145.5549999999999</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5805,22 +5827,21 @@
         <v>4514.5091</v>
       </c>
       <c r="G143" t="n">
+        <v>145.0200000000002</v>
+      </c>
+      <c r="H143" t="n">
         <v>145.4733333333332</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,22 +5865,21 @@
         <v>2570.5019</v>
       </c>
       <c r="G144" t="n">
+        <v>144.9866666666668</v>
+      </c>
+      <c r="H144" t="n">
         <v>145.3499999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5883,22 +5903,21 @@
         <v>10</v>
       </c>
       <c r="G145" t="n">
+        <v>145.3933333333335</v>
+      </c>
+      <c r="H145" t="n">
         <v>145.3566666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5922,22 +5941,21 @@
         <v>339.2857</v>
       </c>
       <c r="G146" t="n">
+        <v>145.5933333333335</v>
+      </c>
+      <c r="H146" t="n">
         <v>145.2566666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,22 +5979,21 @@
         <v>250</v>
       </c>
       <c r="G147" t="n">
+        <v>145.6200000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>145.1499999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,22 +6017,21 @@
         <v>14500</v>
       </c>
       <c r="G148" t="n">
+        <v>145.6133333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>145.0616666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6039,22 +6055,21 @@
         <v>3100.372</v>
       </c>
       <c r="G149" t="n">
+        <v>145.4933333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>144.9716666666666</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6078,22 +6093,21 @@
         <v>50</v>
       </c>
       <c r="G150" t="n">
+        <v>145.3666666666668</v>
+      </c>
+      <c r="H150" t="n">
         <v>144.9033333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,22 +6131,27 @@
         <v>5066.7259</v>
       </c>
       <c r="G151" t="n">
+        <v>145.1400000000001</v>
+      </c>
+      <c r="H151" t="n">
         <v>144.8266666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6156,22 +6175,27 @@
         <v>154.139</v>
       </c>
       <c r="G152" t="n">
+        <v>145.0200000000001</v>
+      </c>
+      <c r="H152" t="n">
         <v>144.7633333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6195,22 +6219,27 @@
         <v>7.5807</v>
       </c>
       <c r="G153" t="n">
+        <v>145.0866666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>144.7449999999999</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,22 +6263,25 @@
         <v>1843.8506</v>
       </c>
       <c r="G154" t="n">
+        <v>144.9533333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>144.6799999999999</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6273,22 +6305,25 @@
         <v>2376.4459</v>
       </c>
       <c r="G155" t="n">
+        <v>144.7333333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>144.6566666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,22 +6347,25 @@
         <v>620.3995</v>
       </c>
       <c r="G156" t="n">
+        <v>144.6866666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>144.5199999999999</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6351,22 +6389,25 @@
         <v>23335.6961</v>
       </c>
       <c r="G157" t="n">
+        <v>144.4933333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>144.3733333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6390,22 +6431,27 @@
         <v>2209.5954</v>
       </c>
       <c r="G158" t="n">
+        <v>144.1666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>144.3449999999999</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6429,22 +6475,25 @@
         <v>126</v>
       </c>
       <c r="G159" t="n">
+        <v>144.0066666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>144.2799999999999</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,22 +6517,25 @@
         <v>1953.3219</v>
       </c>
       <c r="G160" t="n">
+        <v>143.6866666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>144.2416666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6507,22 +6559,27 @@
         <v>7971.963</v>
       </c>
       <c r="G161" t="n">
+        <v>143.76</v>
+      </c>
+      <c r="H161" t="n">
         <v>144.2483333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6546,22 +6603,25 @@
         <v>750</v>
       </c>
       <c r="G162" t="n">
+        <v>143.68</v>
+      </c>
+      <c r="H162" t="n">
         <v>144.215</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6585,22 +6645,25 @@
         <v>495.7458</v>
       </c>
       <c r="G163" t="n">
+        <v>143.8000000000001</v>
+      </c>
+      <c r="H163" t="n">
         <v>144.11</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,22 +6687,25 @@
         <v>69.6579</v>
       </c>
       <c r="G164" t="n">
+        <v>143.8333333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>144.1016666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6663,22 +6729,25 @@
         <v>600.495</v>
       </c>
       <c r="G165" t="n">
+        <v>143.8733333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>144.1016666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6702,22 +6771,25 @@
         <v>6568.1898</v>
       </c>
       <c r="G166" t="n">
+        <v>143.7266666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>144.0216666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6741,22 +6813,27 @@
         <v>1250</v>
       </c>
       <c r="G167" t="n">
+        <v>143.48</v>
+      </c>
+      <c r="H167" t="n">
         <v>143.9566666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6780,22 +6857,25 @@
         <v>699.0563</v>
       </c>
       <c r="G168" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="H168" t="n">
         <v>143.9016666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6819,22 +6899,27 @@
         <v>2196.4338</v>
       </c>
       <c r="G169" t="n">
+        <v>143.0333333333334</v>
+      </c>
+      <c r="H169" t="n">
         <v>143.8666666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6858,22 +6943,27 @@
         <v>52.1464</v>
       </c>
       <c r="G170" t="n">
+        <v>143.04</v>
+      </c>
+      <c r="H170" t="n">
         <v>143.845</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>143</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6897,22 +6987,27 @@
         <v>1235.6603</v>
       </c>
       <c r="G171" t="n">
+        <v>143.0133333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>143.8283333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6936,22 +7031,27 @@
         <v>368.9132</v>
       </c>
       <c r="G172" t="n">
+        <v>143.3066666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>143.7833333333334</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6975,22 +7075,27 @@
         <v>14097.3287</v>
       </c>
       <c r="G173" t="n">
+        <v>143.3000000000001</v>
+      </c>
+      <c r="H173" t="n">
         <v>143.6683333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7014,22 +7119,27 @@
         <v>206.019</v>
       </c>
       <c r="G174" t="n">
+        <v>143.2266666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>143.6833333333334</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>143</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7053,22 +7163,27 @@
         <v>4708.1832</v>
       </c>
       <c r="G175" t="n">
+        <v>143.2200000000001</v>
+      </c>
+      <c r="H175" t="n">
         <v>143.65</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>142</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7092,22 +7207,27 @@
         <v>3750</v>
       </c>
       <c r="G176" t="n">
+        <v>142.9400000000001</v>
+      </c>
+      <c r="H176" t="n">
         <v>143.6683333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>143</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7131,22 +7251,27 @@
         <v>2000</v>
       </c>
       <c r="G177" t="n">
+        <v>142.8733333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>143.735</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>143</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7170,22 +7295,27 @@
         <v>11632.848</v>
       </c>
       <c r="G178" t="n">
+        <v>142.7133333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>143.7966666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>143</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7209,22 +7339,25 @@
         <v>6.5041</v>
       </c>
       <c r="G179" t="n">
+        <v>143.3333333333334</v>
+      </c>
+      <c r="H179" t="n">
         <v>143.96</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7248,22 +7381,25 @@
         <v>1887.926</v>
       </c>
       <c r="G180" t="n">
+        <v>143.3000000000001</v>
+      </c>
+      <c r="H180" t="n">
         <v>143.9766666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7287,22 +7423,25 @@
         <v>3.3334</v>
       </c>
       <c r="G181" t="n">
+        <v>143.9533333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>144.1083333333334</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,22 +7465,25 @@
         <v>3.358</v>
       </c>
       <c r="G182" t="n">
+        <v>144.5133333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>144.205</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7365,22 +7507,25 @@
         <v>62</v>
       </c>
       <c r="G183" t="n">
+        <v>144.5066666666668</v>
+      </c>
+      <c r="H183" t="n">
         <v>144.1716666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7404,22 +7549,25 @@
         <v>3.3784</v>
       </c>
       <c r="G184" t="n">
+        <v>144.8400000000001</v>
+      </c>
+      <c r="H184" t="n">
         <v>144.2433333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7443,22 +7591,25 @@
         <v>5.0516</v>
       </c>
       <c r="G185" t="n">
+        <v>145.1200000000001</v>
+      </c>
+      <c r="H185" t="n">
         <v>144.345</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,22 +7633,25 @@
         <v>369.443</v>
       </c>
       <c r="G186" t="n">
+        <v>145.0800000000001</v>
+      </c>
+      <c r="H186" t="n">
         <v>144.3616666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7521,22 +7675,25 @@
         <v>962.977</v>
       </c>
       <c r="G187" t="n">
+        <v>144.9066666666668</v>
+      </c>
+      <c r="H187" t="n">
         <v>144.3283333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7560,22 +7717,25 @@
         <v>1276.357</v>
       </c>
       <c r="G188" t="n">
+        <v>144.9666666666668</v>
+      </c>
+      <c r="H188" t="n">
         <v>144.3633333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7599,22 +7759,25 @@
         <v>1879.2136</v>
       </c>
       <c r="G189" t="n">
+        <v>145.0533333333335</v>
+      </c>
+      <c r="H189" t="n">
         <v>144.3183333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7638,22 +7801,27 @@
         <v>149.62</v>
       </c>
       <c r="G190" t="n">
+        <v>145.0733333333335</v>
+      </c>
+      <c r="H190" t="n">
         <v>144.3433333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7677,22 +7845,27 @@
         <v>475.0667</v>
       </c>
       <c r="G191" t="n">
+        <v>145.0933333333335</v>
+      </c>
+      <c r="H191" t="n">
         <v>144.3466666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7716,22 +7889,27 @@
         <v>1632.9393</v>
       </c>
       <c r="G192" t="n">
+        <v>145.1133333333335</v>
+      </c>
+      <c r="H192" t="n">
         <v>144.3216666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7755,22 +7933,27 @@
         <v>250</v>
       </c>
       <c r="G193" t="n">
+        <v>145.2933333333335</v>
+      </c>
+      <c r="H193" t="n">
         <v>144.355</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7794,22 +7977,27 @@
         <v>1189.2682</v>
       </c>
       <c r="G194" t="n">
+        <v>144.6933333333335</v>
+      </c>
+      <c r="H194" t="n">
         <v>144.3383333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,22 +8021,25 @@
         <v>37.0561</v>
       </c>
       <c r="G195" t="n">
+        <v>144.7533333333335</v>
+      </c>
+      <c r="H195" t="n">
         <v>144.3233333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7872,22 +8063,25 @@
         <v>750</v>
       </c>
       <c r="G196" t="n">
+        <v>144.4133333333335</v>
+      </c>
+      <c r="H196" t="n">
         <v>144.3083333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7911,22 +8105,25 @@
         <v>281.9</v>
       </c>
       <c r="G197" t="n">
+        <v>144.1400000000002</v>
+      </c>
+      <c r="H197" t="n">
         <v>144.2883333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7950,22 +8147,25 @@
         <v>27.3392</v>
       </c>
       <c r="G198" t="n">
+        <v>144.3933333333335</v>
+      </c>
+      <c r="H198" t="n">
         <v>144.2716666666666</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7989,22 +8189,25 @@
         <v>1500</v>
       </c>
       <c r="G199" t="n">
+        <v>144.1400000000002</v>
+      </c>
+      <c r="H199" t="n">
         <v>144.2416666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8028,22 +8231,25 @@
         <v>2000</v>
       </c>
       <c r="G200" t="n">
+        <v>143.8266666666669</v>
+      </c>
+      <c r="H200" t="n">
         <v>144.18</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8067,22 +8273,25 @@
         <v>2224.9075</v>
       </c>
       <c r="G201" t="n">
+        <v>143.8666666666669</v>
+      </c>
+      <c r="H201" t="n">
         <v>144.1616666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8106,22 +8315,27 @@
         <v>985.2242</v>
       </c>
       <c r="G202" t="n">
+        <v>144.0666666666669</v>
+      </c>
+      <c r="H202" t="n">
         <v>144.1933333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8145,22 +8359,25 @@
         <v>1000</v>
       </c>
       <c r="G203" t="n">
+        <v>143.9933333333335</v>
+      </c>
+      <c r="H203" t="n">
         <v>144.1066666666666</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8184,22 +8401,27 @@
         <v>1130.4635</v>
       </c>
       <c r="G204" t="n">
+        <v>144.0400000000002</v>
+      </c>
+      <c r="H204" t="n">
         <v>144.0816666666666</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8223,22 +8445,27 @@
         <v>414.8606</v>
       </c>
       <c r="G205" t="n">
+        <v>144.0866666666669</v>
+      </c>
+      <c r="H205" t="n">
         <v>144.0166666666666</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>144</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8262,22 +8489,27 @@
         <v>3615.0857</v>
       </c>
       <c r="G206" t="n">
+        <v>144.4533333333335</v>
+      </c>
+      <c r="H206" t="n">
         <v>144.0616666666666</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>144</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8301,22 +8533,25 @@
         <v>1740.8738</v>
       </c>
       <c r="G207" t="n">
+        <v>144.4200000000002</v>
+      </c>
+      <c r="H207" t="n">
         <v>144.0216666666666</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8340,22 +8575,25 @@
         <v>10</v>
       </c>
       <c r="G208" t="n">
+        <v>144.6266666666669</v>
+      </c>
+      <c r="H208" t="n">
         <v>144.1083333333332</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8379,22 +8617,25 @@
         <v>195.5066</v>
       </c>
       <c r="G209" t="n">
+        <v>144.5733333333335</v>
+      </c>
+      <c r="H209" t="n">
         <v>144.1083333333332</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8418,22 +8659,25 @@
         <v>156.7725</v>
       </c>
       <c r="G210" t="n">
+        <v>144.5133333333335</v>
+      </c>
+      <c r="H210" t="n">
         <v>144.1099999999999</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8457,22 +8701,25 @@
         <v>3.8</v>
       </c>
       <c r="G211" t="n">
+        <v>144.5400000000002</v>
+      </c>
+      <c r="H211" t="n">
         <v>144.1583333333332</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8496,22 +8743,25 @@
         <v>744.529</v>
       </c>
       <c r="G212" t="n">
+        <v>144.4866666666668</v>
+      </c>
+      <c r="H212" t="n">
         <v>144.1549999999999</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8535,22 +8785,25 @@
         <v>996.2891</v>
       </c>
       <c r="G213" t="n">
+        <v>144.4266666666668</v>
+      </c>
+      <c r="H213" t="n">
         <v>144.1066666666666</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8574,22 +8827,27 @@
         <v>1500</v>
       </c>
       <c r="G214" t="n">
+        <v>144.3533333333335</v>
+      </c>
+      <c r="H214" t="n">
         <v>144.0916666666666</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8613,22 +8871,27 @@
         <v>652.4648999999999</v>
       </c>
       <c r="G215" t="n">
+        <v>144.3333333333335</v>
+      </c>
+      <c r="H215" t="n">
         <v>144.0799999999999</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8652,22 +8915,27 @@
         <v>1709.1699</v>
       </c>
       <c r="G216" t="n">
+        <v>144.3066666666668</v>
+      </c>
+      <c r="H216" t="n">
         <v>144.0666666666666</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>143</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8691,22 +8959,27 @@
         <v>4</v>
       </c>
       <c r="G217" t="n">
+        <v>144.2933333333335</v>
+      </c>
+      <c r="H217" t="n">
         <v>144.1433333333332</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>143</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8730,22 +9003,27 @@
         <v>4</v>
       </c>
       <c r="G218" t="n">
+        <v>144.3600000000002</v>
+      </c>
+      <c r="H218" t="n">
         <v>144.1549999999999</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8769,22 +9047,27 @@
         <v>157.975</v>
       </c>
       <c r="G219" t="n">
+        <v>144.2933333333335</v>
+      </c>
+      <c r="H219" t="n">
         <v>144.1533333333332</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8808,22 +9091,27 @@
         <v>4</v>
       </c>
       <c r="G220" t="n">
+        <v>144.3800000000002</v>
+      </c>
+      <c r="H220" t="n">
         <v>144.1899999999999</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>143</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8847,22 +9135,27 @@
         <v>663.7709</v>
       </c>
       <c r="G221" t="n">
+        <v>144.0400000000001</v>
+      </c>
+      <c r="H221" t="n">
         <v>144.1316666666665</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8886,22 +9179,27 @@
         <v>10.0384</v>
       </c>
       <c r="G222" t="n">
+        <v>144.2066666666668</v>
+      </c>
+      <c r="H222" t="n">
         <v>144.1533333333332</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8925,22 +9223,27 @@
         <v>1331.750464814815</v>
       </c>
       <c r="G223" t="n">
+        <v>144.0666666666668</v>
+      </c>
+      <c r="H223" t="n">
         <v>144.1749999999998</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8964,22 +9267,27 @@
         <v>7535.184954138825</v>
       </c>
       <c r="G224" t="n">
+        <v>144.2333333333335</v>
+      </c>
+      <c r="H224" t="n">
         <v>144.2083333333331</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9003,22 +9311,25 @@
         <v>524.9557</v>
       </c>
       <c r="G225" t="n">
+        <v>144.1666666666668</v>
+      </c>
+      <c r="H225" t="n">
         <v>144.1833333333331</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9042,22 +9353,25 @@
         <v>3122.5374</v>
       </c>
       <c r="G226" t="n">
+        <v>143.9733333333335</v>
+      </c>
+      <c r="H226" t="n">
         <v>144.2199999999998</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9081,22 +9395,27 @@
         <v>750</v>
       </c>
       <c r="G227" t="n">
+        <v>143.9666666666668</v>
+      </c>
+      <c r="H227" t="n">
         <v>144.2766666666665</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9120,22 +9439,27 @@
         <v>460.2412</v>
       </c>
       <c r="G228" t="n">
+        <v>143.9733333333335</v>
+      </c>
+      <c r="H228" t="n">
         <v>144.3249999999998</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9159,22 +9483,461 @@
         <v>3312.1036</v>
       </c>
       <c r="G229" t="n">
+        <v>143.9600000000002</v>
+      </c>
+      <c r="H229" t="n">
         <v>144.3233333333331</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>144</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="C230" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="D230" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="E230" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1053.334</v>
+      </c>
+      <c r="G230" t="n">
+        <v>144.0200000000002</v>
+      </c>
+      <c r="H230" t="n">
+        <v>144.3249999999998</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="C231" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="D231" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="E231" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="F231" t="n">
+        <v>68.9765</v>
+      </c>
+      <c r="G231" t="n">
+        <v>144.2133333333335</v>
+      </c>
+      <c r="H231" t="n">
+        <v>144.3666666666664</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>144</v>
+      </c>
+      <c r="C232" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>144</v>
+      </c>
+      <c r="E232" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1722</v>
+      </c>
+      <c r="G232" t="n">
+        <v>144.1933333333335</v>
+      </c>
+      <c r="H232" t="n">
+        <v>144.3649999999998</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>144</v>
+      </c>
+      <c r="C233" t="n">
+        <v>144</v>
+      </c>
+      <c r="D233" t="n">
+        <v>144</v>
+      </c>
+      <c r="E233" t="n">
+        <v>144</v>
+      </c>
+      <c r="F233" t="n">
+        <v>291.642</v>
+      </c>
+      <c r="G233" t="n">
+        <v>144.2066666666668</v>
+      </c>
+      <c r="H233" t="n">
+        <v>144.3816666666665</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="D234" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="F234" t="n">
+        <v>8328.3431</v>
+      </c>
+      <c r="G234" t="n">
+        <v>144.2666666666668</v>
+      </c>
+      <c r="H234" t="n">
+        <v>144.4133333333331</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>144</v>
+      </c>
+      <c r="C235" t="n">
+        <v>144</v>
+      </c>
+      <c r="D235" t="n">
+        <v>144</v>
+      </c>
+      <c r="E235" t="n">
+        <v>144</v>
+      </c>
+      <c r="F235" t="n">
+        <v>464.4315</v>
+      </c>
+      <c r="G235" t="n">
+        <v>144.1800000000001</v>
+      </c>
+      <c r="H235" t="n">
+        <v>144.4299999999998</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="C236" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="E236" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G236" t="n">
+        <v>144.1466666666668</v>
+      </c>
+      <c r="H236" t="n">
+        <v>144.4333333333331</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>144</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="C237" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="D237" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="E237" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G237" t="n">
+        <v>144.0133333333335</v>
+      </c>
+      <c r="H237" t="n">
+        <v>144.4383333333331</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1883.647</v>
+      </c>
+      <c r="G238" t="n">
+        <v>143.8333333333335</v>
+      </c>
+      <c r="H238" t="n">
+        <v>144.4549999999998</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>143</v>
+      </c>
+      <c r="F239" t="n">
+        <v>7693.5034</v>
+      </c>
+      <c r="G239" t="n">
+        <v>143.6066666666668</v>
+      </c>
+      <c r="H239" t="n">
+        <v>144.2766666666665</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest ABT.xlsx
+++ b/BackTest/2020-01-15 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N297"/>
+  <dimension ref="A1:M297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-55421.59689999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-55416.95999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>139.7</v>
       </c>
       <c r="J3" t="n">
         <v>139.7</v>
       </c>
-      <c r="K3" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-55426.60159999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
-      </c>
-      <c r="K4" t="n">
         <v>139.7</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-57997.1868</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>139.6</v>
       </c>
       <c r="J5" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="K5" t="n">
         <v>139.7</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>-34932.4258</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J6" t="n">
-        <v>138</v>
-      </c>
-      <c r="K6" t="n">
         <v>139.7</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>-35996.87179999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J7" t="n">
-        <v>144</v>
-      </c>
-      <c r="K7" t="n">
         <v>139.7</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>-24842.08279999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>138.1</v>
       </c>
       <c r="J8" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="K8" t="n">
         <v>139.7</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,24 +726,23 @@
         <v>-25592.08279999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+        <v>143</v>
+      </c>
+      <c r="J9" t="n">
         <v>139.7</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,24 +767,23 @@
         <v>-26342.08279999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+        <v>139</v>
+      </c>
+      <c r="J10" t="n">
         <v>139.7</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,24 +808,23 @@
         <v>-28782.53549999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="J11" t="n">
         <v>139.7</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -878,24 +849,23 @@
         <v>-28299.42569999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="J12" t="n">
         <v>139.7</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,26 +890,23 @@
         <v>-28295.42569999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J13" t="n">
-        <v>138</v>
-      </c>
-      <c r="K13" t="n">
         <v>139.7</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -964,26 +931,23 @@
         <v>-28291.42569999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>139.2</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2</v>
-      </c>
-      <c r="K14" t="n">
         <v>139.7</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1008,26 +972,23 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>141.2</v>
       </c>
       <c r="J15" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="K15" t="n">
         <v>139.7</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1052,26 +1013,23 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J16" t="n">
-        <v>138</v>
-      </c>
-      <c r="K16" t="n">
         <v>139.7</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1096,26 +1054,23 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J17" t="n">
-        <v>138</v>
-      </c>
-      <c r="K17" t="n">
         <v>139.7</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1140,26 +1095,23 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J18" t="n">
-        <v>138</v>
-      </c>
-      <c r="K18" t="n">
         <v>139.7</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1184,26 +1136,23 @@
         <v>-29809.67099999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J19" t="n">
-        <v>138</v>
-      </c>
-      <c r="K19" t="n">
         <v>139.7</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1228,26 +1177,23 @@
         <v>-28381.52299999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="J20" t="n">
-        <v>137</v>
-      </c>
-      <c r="K20" t="n">
         <v>139.7</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1272,26 +1218,23 @@
         <v>-28376.91459999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J21" t="n">
-        <v>139</v>
-      </c>
-      <c r="K21" t="n">
         <v>139.7</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1316,26 +1259,23 @@
         <v>-28446.76459999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
-      </c>
-      <c r="K22" t="n">
         <v>139.7</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1360,26 +1300,23 @@
         <v>-28438.76459999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J23" t="n">
-        <v>139</v>
-      </c>
-      <c r="K23" t="n">
         <v>139.7</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1404,26 +1341,21 @@
         <v>-28434.76459999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="K24" t="n">
         <v>139.7</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1448,26 +1380,23 @@
         <v>-28434.76459999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>142.9</v>
       </c>
       <c r="J25" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="K25" t="n">
         <v>139.7</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1492,26 +1421,23 @@
         <v>-48117.47029999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>142.9</v>
       </c>
       <c r="J26" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="K26" t="n">
         <v>139.7</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1536,26 +1462,21 @@
         <v>-43153.47029999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>139</v>
-      </c>
-      <c r="K27" t="n">
         <v>139.7</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1580,26 +1501,21 @@
         <v>-44153.47029999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>140</v>
-      </c>
-      <c r="K28" t="n">
         <v>139.7</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1624,26 +1540,21 @@
         <v>-43153.47029999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>138.7</v>
-      </c>
-      <c r="K29" t="n">
         <v>139.7</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1668,26 +1579,23 @@
         <v>-45342.58209999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>139.7</v>
       </c>
       <c r="J30" t="n">
         <v>139.7</v>
       </c>
-      <c r="K30" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1712,26 +1620,23 @@
         <v>-45342.58209999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>137.6</v>
       </c>
       <c r="J31" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="K31" t="n">
         <v>139.7</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1756,26 +1661,23 @@
         <v>-43342.58209999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>137.6</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="K32" t="n">
         <v>139.7</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1800,26 +1702,23 @@
         <v>-41342.58209999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>138.6</v>
       </c>
       <c r="J33" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="K33" t="n">
         <v>139.7</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1844,26 +1743,21 @@
         <v>-46342.58209999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="K34" t="n">
         <v>139.7</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1888,26 +1782,21 @@
         <v>-48192.58209999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="K35" t="n">
         <v>139.7</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1932,26 +1821,21 @@
         <v>-48192.58209999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>138</v>
-      </c>
-      <c r="K36" t="n">
         <v>139.7</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1976,26 +1860,21 @@
         <v>-56506.47509999998</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>138</v>
-      </c>
-      <c r="K37" t="n">
         <v>139.7</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2020,26 +1899,23 @@
         <v>-49102.47509999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>135.9</v>
       </c>
       <c r="J38" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="K38" t="n">
         <v>139.7</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2064,26 +1940,23 @@
         <v>-49410.45819999998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>138.9</v>
       </c>
       <c r="J39" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="K39" t="n">
         <v>139.7</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2108,26 +1981,23 @@
         <v>-49104.30119999998</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J40" t="n">
-        <v>135</v>
-      </c>
-      <c r="K40" t="n">
         <v>139.7</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2152,26 +2022,23 @@
         <v>-49094.30119999998</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J41" t="n">
-        <v>138</v>
-      </c>
-      <c r="K41" t="n">
         <v>139.7</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2196,26 +2063,23 @@
         <v>-39509.60279999998</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>138.9</v>
       </c>
       <c r="J42" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="K42" t="n">
         <v>139.7</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2240,26 +2104,23 @@
         <v>-39509.60279999998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J43" t="n">
-        <v>139</v>
-      </c>
-      <c r="K43" t="n">
         <v>139.7</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2284,26 +2145,23 @@
         <v>-36963.50679999998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J44" t="n">
-        <v>139</v>
-      </c>
-      <c r="K44" t="n">
         <v>139.7</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2328,26 +2186,23 @@
         <v>-22283.10279999998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>139.9</v>
       </c>
       <c r="J45" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="K45" t="n">
         <v>139.7</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2372,26 +2227,21 @@
         <v>-22283.10279999998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>142.8</v>
-      </c>
-      <c r="K46" t="n">
         <v>139.7</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2418,22 +2268,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>139.7</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2460,22 +2307,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>139.7</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2502,22 +2346,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>139.7</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2544,22 +2385,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>139.7</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2586,22 +2424,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>139.7</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2628,22 +2463,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>139.7</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2670,22 +2502,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>139.7</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2712,22 +2541,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
         <v>139.7</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2754,22 +2580,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
         <v>139.7</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2796,22 +2619,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
         <v>139.7</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2838,22 +2658,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
         <v>139.7</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2880,22 +2697,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
         <v>139.7</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2922,22 +2736,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
         <v>139.7</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2964,22 +2775,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
         <v>139.7</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3006,22 +2814,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>139.7</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3048,22 +2853,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
         <v>139.7</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3090,22 +2892,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
         <v>139.7</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3132,22 +2931,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
         <v>139.7</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3174,22 +2970,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
         <v>139.7</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3216,22 +3009,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
         <v>139.7</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3258,22 +3048,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
         <v>139.7</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3300,22 +3087,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
         <v>139.7</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3342,22 +3126,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
         <v>139.7</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3384,22 +3165,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
         <v>139.7</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3426,22 +3204,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>139.7</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3468,22 +3243,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
         <v>139.7</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3510,22 +3282,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
         <v>139.7</v>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3552,22 +3321,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
         <v>139.7</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3594,22 +3360,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>139.7</v>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3636,22 +3399,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
         <v>139.7</v>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3678,22 +3438,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
         <v>139.7</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3720,22 +3477,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
         <v>139.7</v>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3762,22 +3516,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
         <v>139.7</v>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3804,22 +3555,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
         <v>139.7</v>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3846,22 +3594,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
         <v>139.7</v>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3888,22 +3633,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
         <v>139.7</v>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3930,22 +3672,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
         <v>139.7</v>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3972,22 +3711,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
         <v>139.7</v>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4014,22 +3750,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
         <v>139.7</v>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4056,22 +3789,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
         <v>139.7</v>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4098,22 +3828,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
         <v>139.7</v>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4140,22 +3867,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
         <v>139.7</v>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4182,22 +3906,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
         <v>139.7</v>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4224,22 +3945,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
         <v>139.7</v>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4266,22 +3984,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
         <v>139.7</v>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4308,22 +4023,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
         <v>139.7</v>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4350,22 +4062,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
         <v>139.7</v>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4392,22 +4101,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
         <v>139.7</v>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4434,22 +4140,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
         <v>139.7</v>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4476,22 +4179,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
         <v>139.7</v>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4518,22 +4218,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
         <v>139.7</v>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4560,22 +4257,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
         <v>139.7</v>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4602,22 +4296,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
         <v>139.7</v>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4642,24 +4333,23 @@
         <v>-12649.71541431274</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
         <v>139.7</v>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.104520400858984</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>1.002147458840372</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4686,22 +4376,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4728,22 +4409,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4770,22 +4442,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4812,24 +4475,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1.113110236220473</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1.002147458840372</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4856,16 +4508,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4892,16 +4541,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4928,16 +4574,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4964,16 +4607,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5000,16 +4640,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5036,16 +4673,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5072,16 +4706,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5108,16 +4739,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5144,16 +4772,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5180,16 +4805,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5214,18 +4836,15 @@
         <v>2641.888085687261</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5250,18 +4869,15 @@
         <v>35.58068568726048</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5286,18 +4902,15 @@
         <v>35.58068568726048</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5322,18 +4935,15 @@
         <v>239.5806856872605</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5358,18 +4968,15 @@
         <v>239.5806856872605</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5394,18 +5001,15 @@
         <v>209.5806856872605</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5430,18 +5034,15 @@
         <v>-22562.41961431274</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5466,18 +5067,15 @@
         <v>-27103.50591431274</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5502,18 +5100,15 @@
         <v>-26759.85991431274</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5538,18 +5133,15 @@
         <v>-29186.58041431274</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5574,18 +5166,15 @@
         <v>-29255.58041431274</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5610,18 +5199,15 @@
         <v>-33054.08441431274</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5646,18 +5232,15 @@
         <v>-33054.08441431274</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5682,18 +5265,15 @@
         <v>-31816.08441431274</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5718,18 +5298,15 @@
         <v>-31816.08441431274</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5756,16 +5333,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5792,16 +5366,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5828,16 +5399,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5864,16 +5432,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5900,16 +5465,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5936,16 +5498,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5972,16 +5531,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6008,16 +5564,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6044,16 +5597,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6080,16 +5630,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6116,16 +5663,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6152,16 +5696,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6188,16 +5729,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6224,16 +5762,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6260,16 +5795,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6296,16 +5828,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6332,16 +5861,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6368,16 +5894,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6404,16 +5927,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6440,16 +5960,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6476,16 +5993,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6512,16 +6026,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6548,16 +6059,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6582,18 +6090,15 @@
         <v>-44583.86250376961</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6618,18 +6123,15 @@
         <v>-11506.01430376961</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6654,18 +6156,15 @@
         <v>-11907.78080376961</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6692,16 +6191,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6728,16 +6224,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6764,16 +6257,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6800,16 +6290,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6836,16 +6323,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6872,16 +6356,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6908,16 +6389,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6942,18 +6420,15 @@
         <v>-13559.16761466879</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6980,16 +6455,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7014,18 +6486,15 @@
         <v>-19711.20681466879</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7050,18 +6519,15 @@
         <v>-19711.20681466879</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7088,16 +6554,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7124,16 +6587,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7160,16 +6620,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7196,16 +6653,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7232,16 +6686,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7268,16 +6719,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7304,16 +6752,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7340,16 +6785,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7376,16 +6818,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7412,16 +6851,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7448,16 +6884,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7484,16 +6917,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7520,16 +6950,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7556,16 +6983,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7592,16 +7016,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7628,16 +7049,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7664,16 +7082,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7700,16 +7115,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7736,16 +7148,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7772,16 +7181,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7808,16 +7214,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7844,16 +7247,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7880,16 +7280,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7916,16 +7313,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7952,16 +7346,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7988,16 +7379,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8024,16 +7412,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8060,16 +7445,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8096,16 +7478,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8132,16 +7511,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8168,16 +7544,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8204,16 +7577,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8240,16 +7610,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8276,16 +7643,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8312,16 +7676,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8348,16 +7709,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8384,16 +7742,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8420,16 +7775,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8456,16 +7808,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8492,16 +7841,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8528,16 +7874,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8564,16 +7907,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8600,16 +7940,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8636,16 +7973,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8672,16 +8006,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8708,16 +8039,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8744,16 +8072,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8780,16 +8105,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8816,16 +8138,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8852,16 +8171,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8888,16 +8204,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8924,16 +8237,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8960,16 +8270,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8996,16 +8303,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9032,16 +8336,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9068,16 +8369,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9104,16 +8402,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9140,16 +8435,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9176,16 +8468,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9212,16 +8501,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9248,16 +8534,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9284,16 +8567,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9320,16 +8600,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9356,16 +8633,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9392,16 +8666,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9428,16 +8699,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9464,16 +8732,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9498,18 +8763,21 @@
         <v>-48168.51661466881</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9536,16 +8804,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9572,16 +8841,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9608,16 +8878,17 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9644,16 +8915,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9680,16 +8952,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9716,16 +8989,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9752,16 +9026,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9788,16 +9063,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9824,16 +9100,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9860,16 +9137,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9896,16 +9174,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9932,16 +9211,17 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9968,16 +9248,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10004,16 +9285,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10040,16 +9322,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10076,16 +9359,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10112,16 +9396,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10148,16 +9433,17 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10184,16 +9470,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10220,16 +9507,17 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10256,16 +9544,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10292,16 +9581,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10328,16 +9618,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10364,16 +9655,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10400,16 +9692,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10436,16 +9729,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10472,16 +9766,17 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10508,16 +9803,17 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10544,16 +9840,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10580,16 +9877,17 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10616,16 +9914,17 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10652,16 +9951,17 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10688,16 +9988,17 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10724,16 +10025,17 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10760,16 +10062,17 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10796,16 +10099,17 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10832,16 +10136,17 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10868,16 +10173,17 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10904,16 +10210,17 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10940,16 +10247,17 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10976,16 +10284,17 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11012,16 +10321,17 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11048,16 +10358,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11084,16 +10395,17 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11120,16 +10432,17 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11156,16 +10469,17 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11192,16 +10506,17 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11228,16 +10543,17 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11264,16 +10580,17 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11298,18 +10615,21 @@
         <v>-61616.00089571517</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11336,16 +10656,17 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11370,18 +10691,21 @@
         <v>-60405.75969571517</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>143.9</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11408,16 +10732,17 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11444,16 +10769,17 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11480,16 +10806,17 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11516,16 +10843,17 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11552,16 +10880,17 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11588,16 +10917,17 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11624,16 +10954,17 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11660,16 +10991,17 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11694,18 +11026,21 @@
         <v>-72889.82239571516</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>143.2</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11732,16 +11067,17 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11766,20 +11102,23 @@
         <v>-74773.46939571516</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>143.1</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ABT.xlsx
+++ b/BackTest/2020-01-15 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-55421.59689999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-55416.95999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>139.7</v>
@@ -521,7 +521,7 @@
         <v>-55426.60159999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>140</v>
@@ -562,7 +562,7 @@
         <v>-57997.1868</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>139.6</v>
@@ -603,7 +603,7 @@
         <v>-34932.4258</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>138</v>
@@ -644,7 +644,7 @@
         <v>-35996.87179999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>144</v>
@@ -685,7 +685,7 @@
         <v>-24842.08279999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>138.1</v>
@@ -726,7 +726,7 @@
         <v>-25592.08279999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>143</v>
@@ -767,7 +767,7 @@
         <v>-26342.08279999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>139</v>
@@ -808,7 +808,7 @@
         <v>-28782.53549999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>138.1</v>
@@ -849,7 +849,7 @@
         <v>-28299.42569999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>137.1</v>
@@ -890,7 +890,7 @@
         <v>-28295.42569999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>138</v>
@@ -931,7 +931,7 @@
         <v>-28291.42569999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>139.2</v>
@@ -972,7 +972,7 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>141.2</v>
@@ -1013,7 +1013,7 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>138</v>
@@ -1054,7 +1054,7 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>138</v>
@@ -1095,7 +1095,7 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>138</v>
@@ -1136,7 +1136,7 @@
         <v>-29809.67099999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>138</v>
@@ -1177,7 +1177,7 @@
         <v>-28381.52299999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>137</v>
@@ -1218,7 +1218,7 @@
         <v>-28376.91459999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>139</v>
@@ -1259,7 +1259,7 @@
         <v>-28446.76459999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>140</v>
@@ -1300,7 +1300,7 @@
         <v>-28438.76459999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>139</v>
@@ -1341,9 +1341,11 @@
         <v>-28434.76459999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>141.8</v>
+      </c>
       <c r="J24" t="n">
         <v>139.7</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>-28434.76459999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>142.9</v>
@@ -1421,11 +1423,9 @@
         <v>-48117.47029999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>142.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>139.7</v>
       </c>
@@ -1501,9 +1501,11 @@
         <v>-44153.47029999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>140</v>
+      </c>
       <c r="J28" t="n">
         <v>139.7</v>
       </c>
@@ -1540,9 +1542,11 @@
         <v>-43153.47029999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>138.7</v>
+      </c>
       <c r="J29" t="n">
         <v>139.7</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>-45342.58209999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>139.7</v>
@@ -1620,7 +1624,7 @@
         <v>-45342.58209999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>137.6</v>
@@ -1661,7 +1665,7 @@
         <v>-43342.58209999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>137.6</v>
@@ -1702,7 +1706,7 @@
         <v>-41342.58209999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>138.6</v>
@@ -1743,9 +1747,11 @@
         <v>-46342.58209999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>140.8</v>
+      </c>
       <c r="J34" t="n">
         <v>139.7</v>
       </c>
@@ -1782,9 +1788,11 @@
         <v>-48192.58209999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>138.1</v>
+      </c>
       <c r="J35" t="n">
         <v>139.7</v>
       </c>
@@ -1821,9 +1829,11 @@
         <v>-48192.58209999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>138</v>
+      </c>
       <c r="J36" t="n">
         <v>139.7</v>
       </c>
@@ -1860,9 +1870,11 @@
         <v>-56506.47509999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>138</v>
+      </c>
       <c r="J37" t="n">
         <v>139.7</v>
       </c>
@@ -1899,7 +1911,7 @@
         <v>-49102.47509999998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>135.9</v>
@@ -1940,7 +1952,7 @@
         <v>-49410.45819999998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>138.9</v>
@@ -1981,7 +1993,7 @@
         <v>-49104.30119999998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>135</v>
@@ -2022,7 +2034,7 @@
         <v>-49094.30119999998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>138</v>
@@ -2063,7 +2075,7 @@
         <v>-39509.60279999998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>138.9</v>
@@ -2104,7 +2116,7 @@
         <v>-39509.60279999998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>139</v>
@@ -2145,7 +2157,7 @@
         <v>-36963.50679999998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>139</v>
@@ -2186,7 +2198,7 @@
         <v>-22283.10279999998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>139.9</v>
@@ -2227,9 +2239,11 @@
         <v>-22283.10279999998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>142.8</v>
+      </c>
       <c r="J46" t="n">
         <v>139.7</v>
       </c>
@@ -4333,7 +4347,7 @@
         <v>-12649.71541431274</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
@@ -4341,15 +4355,13 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.104520400858984</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.002147458840372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4377,8 +4389,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4407,15 +4425,23 @@
         <v>-11989.93441431274</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>1.095930565497495</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.002147458840372</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4473,7 +4499,7 @@
         <v>-11781.33041431274</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4671,7 +4697,7 @@
         <v>-10020.21941431274</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4737,7 +4763,7 @@
         <v>-8270.21941431274</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4803,7 +4829,7 @@
         <v>3276.71378568726</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4836,7 +4862,7 @@
         <v>2641.888085687261</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4869,7 +4895,7 @@
         <v>35.58068568726048</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4902,7 +4928,7 @@
         <v>35.58068568726048</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4935,7 +4961,7 @@
         <v>239.5806856872605</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4968,7 +4994,7 @@
         <v>239.5806856872605</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5001,7 +5027,7 @@
         <v>209.5806856872605</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5034,7 +5060,7 @@
         <v>-22562.41961431274</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5067,7 +5093,7 @@
         <v>-27103.50591431274</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5100,7 +5126,7 @@
         <v>-26759.85991431274</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5133,7 +5159,7 @@
         <v>-29186.58041431274</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5166,7 +5192,7 @@
         <v>-29255.58041431274</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5199,7 +5225,7 @@
         <v>-33054.08441431274</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5232,7 +5258,7 @@
         <v>-33054.08441431274</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5265,7 +5291,7 @@
         <v>-31816.08441431274</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5298,7 +5324,7 @@
         <v>-31816.08441431274</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5331,7 +5357,7 @@
         <v>-31638.99191431274</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5364,7 +5390,7 @@
         <v>-33492.02710376961</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5397,7 +5423,7 @@
         <v>-33748.43740376961</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5430,7 +5456,7 @@
         <v>-33748.43740376961</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5463,7 +5489,7 @@
         <v>-33997.24010376961</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5496,7 +5522,7 @@
         <v>-34260.80240376961</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5529,7 +5555,7 @@
         <v>-34256.80240376961</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5562,7 +5588,7 @@
         <v>-34960.11730376961</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5595,7 +5621,7 @@
         <v>-38743.89410376961</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5628,7 +5654,7 @@
         <v>-34708.54520376961</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5661,7 +5687,7 @@
         <v>-37737.80090376961</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5694,7 +5720,7 @@
         <v>-37737.80090376961</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5727,7 +5753,7 @@
         <v>-37737.80090376961</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5760,7 +5786,7 @@
         <v>-37812.27240376961</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5793,7 +5819,7 @@
         <v>-24523.66000376961</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5826,7 +5852,7 @@
         <v>-24623.66000376961</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5859,7 +5885,7 @@
         <v>-25305.23910376961</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5892,7 +5918,7 @@
         <v>-24276.28810376961</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5925,7 +5951,7 @@
         <v>-24281.28810376961</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5958,7 +5984,7 @@
         <v>-24286.28810376961</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5991,7 +6017,7 @@
         <v>-22870.42700376961</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6024,7 +6050,7 @@
         <v>-29921.84230376961</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6057,7 +6083,7 @@
         <v>-29921.84230376961</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6090,7 +6116,7 @@
         <v>-44583.86250376961</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6123,7 +6149,7 @@
         <v>-11506.01430376961</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6156,7 +6182,7 @@
         <v>-11907.78080376961</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6420,7 +6446,7 @@
         <v>-13559.16761466879</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6486,7 +6512,7 @@
         <v>-19711.20681466879</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6519,7 +6545,7 @@
         <v>-19711.20681466879</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -8763,17 +8789,11 @@
         <v>-48168.51661466881</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8806,11 +8826,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8843,11 +8859,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8880,11 +8892,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8917,11 +8925,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8954,11 +8958,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8991,11 +8991,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9028,11 +9024,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9065,11 +9057,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +9090,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9139,11 +9123,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9176,11 +9156,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9213,11 +9189,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9250,11 +9222,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9287,11 +9255,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9324,11 +9288,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9321,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9398,11 +9354,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9435,11 +9387,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9472,11 +9420,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9509,11 +9453,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9546,11 +9486,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9583,11 +9519,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9620,11 +9552,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9657,11 +9585,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9694,11 +9618,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9731,11 +9651,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9768,11 +9684,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9805,11 +9717,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9842,11 +9750,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9879,11 +9783,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9916,11 +9816,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9953,11 +9849,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9990,11 +9882,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10027,11 +9915,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10064,11 +9948,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10101,11 +9981,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10138,11 +10014,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10171,15 +10043,15 @@
         <v>-65379.27081466879</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="J272" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10208,13 +10080,17 @@
         <v>-66031.7357146688</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -10245,13 +10121,17 @@
         <v>-66031.7357146688</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>143</v>
+      </c>
+      <c r="J274" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -10282,10 +10162,14 @@
         <v>-66027.7357146688</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>143</v>
+      </c>
+      <c r="J275" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10319,10 +10203,14 @@
         <v>-66027.7357146688</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="J276" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10356,10 +10244,14 @@
         <v>-66185.71071466881</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="J277" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10393,10 +10285,14 @@
         <v>-66181.71071466881</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>143</v>
+      </c>
+      <c r="J278" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10430,10 +10326,14 @@
         <v>-66845.48161466881</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="J279" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10467,10 +10367,14 @@
         <v>-66835.44321466881</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="J280" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10507,7 +10411,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10541,10 +10447,14 @@
         <v>-57968.50779571517</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="J282" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10578,10 +10488,14 @@
         <v>-58493.46349571516</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="J283" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10615,12 +10529,14 @@
         <v>-61616.00089571517</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>143</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10654,10 +10570,14 @@
         <v>-60866.00089571517</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="J285" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10691,12 +10611,14 @@
         <v>-60405.75969571517</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>143.9</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10730,10 +10652,14 @@
         <v>-63717.86329571517</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>144</v>
+      </c>
+      <c r="J287" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10767,10 +10693,14 @@
         <v>-62664.52929571517</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="J288" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10804,10 +10734,14 @@
         <v>-62595.55279571517</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="J289" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10844,7 +10778,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10881,7 +10817,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10915,10 +10853,14 @@
         <v>-72354.25389571517</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>144</v>
+      </c>
+      <c r="J292" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10955,7 +10897,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10989,10 +10933,14 @@
         <v>-74389.82239571516</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>144</v>
+      </c>
+      <c r="J294" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11026,12 +10974,14 @@
         <v>-72889.82239571516</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>143.2</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11065,10 +11015,14 @@
         <v>-74773.46939571516</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="J296" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,12 +11056,14 @@
         <v>-74773.46939571516</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>143.1</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>143.9</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11119,6 +11075,6 @@
       <c r="M297" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ABT.xlsx
+++ b/BackTest/2020-01-15 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-55421.59689999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-55416.95999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>139.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-55426.60159999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>140</v>
-      </c>
-      <c r="J4" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-57997.1868</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-34932.4258</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>138</v>
-      </c>
-      <c r="J6" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-35996.87179999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>144</v>
-      </c>
-      <c r="J7" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-24842.08279999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>-25592.08279999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>143</v>
-      </c>
-      <c r="J9" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>-26342.08279999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>139</v>
-      </c>
-      <c r="J10" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>-28782.53549999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>-28299.42569999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>137.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>-28295.42569999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>138</v>
-      </c>
-      <c r="J13" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>-28291.42569999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>139.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +913,11 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>138</v>
-      </c>
-      <c r="J16" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +946,11 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>138</v>
-      </c>
-      <c r="J17" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1095,19 +979,11 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>138</v>
-      </c>
-      <c r="J18" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1136,19 +1012,11 @@
         <v>-29809.67099999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>138</v>
-      </c>
-      <c r="J19" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1177,19 +1045,11 @@
         <v>-28381.52299999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>137</v>
-      </c>
-      <c r="J20" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1218,19 +1078,11 @@
         <v>-28376.91459999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>139</v>
-      </c>
-      <c r="J21" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1259,19 +1111,11 @@
         <v>-28446.76459999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>140</v>
-      </c>
-      <c r="J22" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1300,19 +1144,11 @@
         <v>-28438.76459999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>139</v>
-      </c>
-      <c r="J23" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1341,19 +1177,11 @@
         <v>-28434.76459999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1382,19 +1210,11 @@
         <v>-28434.76459999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1426,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1465,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1501,19 +1309,11 @@
         <v>-44153.47029999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>140</v>
-      </c>
-      <c r="J28" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1542,19 +1342,11 @@
         <v>-43153.47029999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>138.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1583,19 +1375,11 @@
         <v>-45342.58209999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1624,19 +1408,11 @@
         <v>-45342.58209999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1665,19 +1441,11 @@
         <v>-43342.58209999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1706,19 +1474,11 @@
         <v>-41342.58209999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1747,19 +1507,11 @@
         <v>-46342.58209999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="J34" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1788,19 +1540,11 @@
         <v>-48192.58209999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1829,19 +1573,11 @@
         <v>-48192.58209999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>138</v>
-      </c>
-      <c r="J36" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1870,19 +1606,11 @@
         <v>-56506.47509999998</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>138</v>
-      </c>
-      <c r="J37" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1911,19 +1639,11 @@
         <v>-49102.47509999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1952,19 +1672,11 @@
         <v>-49410.45819999998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1993,19 +1705,11 @@
         <v>-49104.30119999998</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>135</v>
-      </c>
-      <c r="J40" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2034,19 +1738,11 @@
         <v>-49094.30119999998</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>138</v>
-      </c>
-      <c r="J41" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2075,19 +1771,11 @@
         <v>-39509.60279999998</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2116,19 +1804,11 @@
         <v>-39509.60279999998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>139</v>
-      </c>
-      <c r="J43" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2157,19 +1837,11 @@
         <v>-36963.50679999998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>139</v>
-      </c>
-      <c r="J44" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2198,19 +1870,11 @@
         <v>-22283.10279999998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2239,19 +1903,11 @@
         <v>-22283.10279999998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>142.8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2283,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2322,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2361,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2400,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2439,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2478,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2517,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2556,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2595,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2634,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2673,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2712,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2751,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2790,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2829,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2868,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2907,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2943,17 +2497,11 @@
         <v>6385.605585387223</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2985,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3024,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3060,17 +2596,11 @@
         <v>46078.94347544467</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3099,17 +2629,11 @@
         <v>39878.37588568726</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3138,17 +2662,11 @@
         <v>8578.88018568726</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3177,17 +2695,11 @@
         <v>1031.653885687259</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3219,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3258,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3297,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3336,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3375,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3411,17 +2893,11 @@
         <v>-3907.480514312741</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3453,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3489,17 +2959,11 @@
         <v>-3480.785214312741</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3528,17 +2992,11 @@
         <v>-1976.785214312741</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3567,17 +3025,11 @@
         <v>-1976.785214312741</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3606,17 +3058,11 @@
         <v>955.9593856872589</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3648,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3687,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3726,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3765,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3804,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3843,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3879,17 +3289,11 @@
         <v>-24742.62711431274</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3918,17 +3322,11 @@
         <v>-24738.62711431274</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3957,17 +3355,11 @@
         <v>-20951.73251431274</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3996,17 +3388,11 @@
         <v>-20955.73251431274</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4035,17 +3421,11 @@
         <v>-21399.73251431274</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4074,17 +3454,11 @@
         <v>-20323.90201431274</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4113,17 +3487,11 @@
         <v>-17423.24081431274</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4152,17 +3520,11 @@
         <v>-35432.19241431274</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4191,17 +3553,11 @@
         <v>-23453.45121431274</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4230,17 +3586,11 @@
         <v>-19192.36791431274</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4269,17 +3619,11 @@
         <v>-17523.36791431274</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4311,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4350,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4389,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4425,23 +3751,15 @@
         <v>-11989.93441431274</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>1.095930565497495</v>
-      </c>
-      <c r="M102" t="n">
-        <v>1.002147458840372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4499,7 +3817,7 @@
         <v>-11781.33041431274</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4697,7 +4015,7 @@
         <v>-10020.21941431274</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4763,7 +4081,7 @@
         <v>-8270.21941431274</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4829,7 +4147,7 @@
         <v>3276.71378568726</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5027,7 +4345,7 @@
         <v>209.5806856872605</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5060,7 +4378,7 @@
         <v>-22562.41961431274</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5093,7 +4411,7 @@
         <v>-27103.50591431274</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5126,7 +4444,7 @@
         <v>-26759.85991431274</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5159,7 +4477,7 @@
         <v>-29186.58041431274</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5192,7 +4510,7 @@
         <v>-29255.58041431274</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5225,7 +4543,7 @@
         <v>-33054.08441431274</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5258,7 +4576,7 @@
         <v>-33054.08441431274</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5291,7 +4609,7 @@
         <v>-31816.08441431274</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5324,7 +4642,7 @@
         <v>-31816.08441431274</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5357,7 +4675,7 @@
         <v>-31638.99191431274</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5390,7 +4708,7 @@
         <v>-33492.02710376961</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5423,7 +4741,7 @@
         <v>-33748.43740376961</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5456,7 +4774,7 @@
         <v>-33748.43740376961</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5489,7 +4807,7 @@
         <v>-33997.24010376961</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5522,7 +4840,7 @@
         <v>-34260.80240376961</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5555,7 +4873,7 @@
         <v>-34256.80240376961</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5588,7 +4906,7 @@
         <v>-34960.11730376961</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5621,7 +4939,7 @@
         <v>-38743.89410376961</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5654,7 +4972,7 @@
         <v>-34708.54520376961</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5687,7 +5005,7 @@
         <v>-37737.80090376961</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5720,7 +5038,7 @@
         <v>-37737.80090376961</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5753,7 +5071,7 @@
         <v>-37737.80090376961</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5786,7 +5104,7 @@
         <v>-37812.27240376961</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5819,7 +5137,7 @@
         <v>-24523.66000376961</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5852,7 +5170,7 @@
         <v>-24623.66000376961</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5885,7 +5203,7 @@
         <v>-25305.23910376961</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5918,7 +5236,7 @@
         <v>-24276.28810376961</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5951,7 +5269,7 @@
         <v>-24281.28810376961</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5984,7 +5302,7 @@
         <v>-24286.28810376961</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6017,7 +5335,7 @@
         <v>-22870.42700376961</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6050,7 +5368,7 @@
         <v>-29921.84230376961</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6083,7 +5401,7 @@
         <v>-29921.84230376961</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6182,7 +5500,7 @@
         <v>-11907.78080376961</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -9878,7 +9196,7 @@
         <v>-62142.25271466879</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9977,7 +9295,7 @@
         <v>-62882.98171466879</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10043,14 +9361,10 @@
         <v>-65379.27081466879</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="J272" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -10080,792 +9394,668 @@
         <v>-66031.7357146688</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="C274" t="n">
+        <v>143</v>
+      </c>
+      <c r="D274" t="n">
+        <v>143</v>
+      </c>
+      <c r="E274" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1709.1699</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-66031.7357146688</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="C275" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="D275" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="E275" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="F275" t="n">
+        <v>4</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-66027.7357146688</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="C276" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="D276" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="E276" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="F276" t="n">
+        <v>4</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-66027.7357146688</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>143</v>
+      </c>
+      <c r="C277" t="n">
+        <v>143</v>
+      </c>
+      <c r="D277" t="n">
+        <v>143</v>
+      </c>
+      <c r="E277" t="n">
+        <v>143</v>
+      </c>
+      <c r="F277" t="n">
+        <v>157.975</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-66185.71071466881</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="C278" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="D278" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="E278" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="F278" t="n">
+        <v>4</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-66181.71071466881</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="C279" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="D279" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="E279" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="F279" t="n">
+        <v>663.7709</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-66845.48161466881</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="C280" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="D280" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="E280" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="F280" t="n">
+        <v>10.0384</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-66835.44321466881</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="C281" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="D281" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="E281" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1331.750464814815</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-65503.69274985399</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="D282" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="F282" t="n">
+        <v>7535.184954138825</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-57968.50779571517</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="C283" t="n">
+        <v>143</v>
+      </c>
+      <c r="D283" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="E283" t="n">
+        <v>143</v>
+      </c>
+      <c r="F283" t="n">
+        <v>524.9557</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-58493.46349571516</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>144</v>
+      </c>
+      <c r="C284" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="D284" t="n">
+        <v>144</v>
+      </c>
+      <c r="E284" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="F284" t="n">
+        <v>3122.5374</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-61616.00089571517</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>143</v>
+      </c>
+      <c r="C285" t="n">
         <v>143.9</v>
       </c>
-      <c r="K273" t="inlineStr">
+      <c r="D285" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="E285" t="n">
+        <v>143</v>
+      </c>
+      <c r="F285" t="n">
+        <v>750</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-60866.00089571517</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>144</v>
+      </c>
+      <c r="C286" t="n">
+        <v>144</v>
+      </c>
+      <c r="D286" t="n">
+        <v>144</v>
+      </c>
+      <c r="E286" t="n">
+        <v>144</v>
+      </c>
+      <c r="F286" t="n">
+        <v>460.2412</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-60405.75969571517</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>144</v>
+      </c>
+      <c r="C287" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="D287" t="n">
+        <v>144</v>
+      </c>
+      <c r="E287" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="F287" t="n">
+        <v>3312.1036</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-63717.86329571517</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="C288" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="D288" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="E288" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1053.334</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-62664.52929571517</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="J288" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="C289" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="D289" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="E289" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="F289" t="n">
+        <v>68.9765</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-62595.55279571517</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="J289" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="C274" t="n">
-        <v>143</v>
-      </c>
-      <c r="D274" t="n">
-        <v>143</v>
-      </c>
-      <c r="E274" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1709.1699</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-66031.7357146688</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>143</v>
-      </c>
-      <c r="J274" t="n">
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>144</v>
+      </c>
+      <c r="C290" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="D290" t="n">
+        <v>144</v>
+      </c>
+      <c r="E290" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1722</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-64317.55279571517</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>144</v>
+      </c>
+      <c r="C291" t="n">
+        <v>144</v>
+      </c>
+      <c r="D291" t="n">
+        <v>144</v>
+      </c>
+      <c r="E291" t="n">
+        <v>144</v>
+      </c>
+      <c r="F291" t="n">
+        <v>291.642</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-64025.91079571517</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="J291" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="C292" t="n">
         <v>143.9</v>
       </c>
-      <c r="K274" t="inlineStr">
+      <c r="D292" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="E292" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="F292" t="n">
+        <v>8328.3431</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-72354.25389571517</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>144</v>
+      </c>
+      <c r="J292" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="C275" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="D275" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="E275" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="F275" t="n">
-        <v>4</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-66027.7357146688</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>143</v>
-      </c>
-      <c r="J275" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="C276" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="D276" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="E276" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="F276" t="n">
-        <v>4</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-66027.7357146688</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="J276" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>143</v>
-      </c>
-      <c r="C277" t="n">
-        <v>143</v>
-      </c>
-      <c r="D277" t="n">
-        <v>143</v>
-      </c>
-      <c r="E277" t="n">
-        <v>143</v>
-      </c>
-      <c r="F277" t="n">
-        <v>157.975</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-66185.71071466881</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="J277" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="C278" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="D278" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="E278" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="F278" t="n">
-        <v>4</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-66181.71071466881</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>143</v>
-      </c>
-      <c r="J278" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="C279" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="D279" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="E279" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="F279" t="n">
-        <v>663.7709</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-66845.48161466881</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="J279" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="C280" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="D280" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="E280" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="F280" t="n">
-        <v>10.0384</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-66835.44321466881</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="J280" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="C281" t="n">
-        <v>145.8</v>
-      </c>
-      <c r="D281" t="n">
-        <v>145.8</v>
-      </c>
-      <c r="E281" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="F281" t="n">
-        <v>1331.750464814815</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-65503.69274985399</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="C282" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="D282" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="E282" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="F282" t="n">
-        <v>7535.184954138825</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-57968.50779571517</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>145.8</v>
-      </c>
-      <c r="J282" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="C283" t="n">
-        <v>143</v>
-      </c>
-      <c r="D283" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="E283" t="n">
-        <v>143</v>
-      </c>
-      <c r="F283" t="n">
-        <v>524.9557</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-58493.46349571516</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="J283" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>144</v>
-      </c>
-      <c r="C284" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="D284" t="n">
-        <v>144</v>
-      </c>
-      <c r="E284" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="F284" t="n">
-        <v>3122.5374</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-61616.00089571517</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>143</v>
-      </c>
-      <c r="J284" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>143</v>
-      </c>
-      <c r="C285" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="D285" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="E285" t="n">
-        <v>143</v>
-      </c>
-      <c r="F285" t="n">
-        <v>750</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-60866.00089571517</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="J285" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>144</v>
-      </c>
-      <c r="C286" t="n">
-        <v>144</v>
-      </c>
-      <c r="D286" t="n">
-        <v>144</v>
-      </c>
-      <c r="E286" t="n">
-        <v>144</v>
-      </c>
-      <c r="F286" t="n">
-        <v>460.2412</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-60405.75969571517</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="J286" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>144</v>
-      </c>
-      <c r="C287" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="D287" t="n">
-        <v>144</v>
-      </c>
-      <c r="E287" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="F287" t="n">
-        <v>3312.1036</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-63717.86329571517</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>144</v>
-      </c>
-      <c r="J287" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="C288" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="D288" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="E288" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="F288" t="n">
-        <v>1053.334</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-62664.52929571517</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="J288" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="C289" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="D289" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="E289" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="F289" t="n">
-        <v>68.9765</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-62595.55279571517</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="J289" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>144</v>
-      </c>
-      <c r="C290" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="D290" t="n">
-        <v>144</v>
-      </c>
-      <c r="E290" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="F290" t="n">
-        <v>1722</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-64317.55279571517</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>144</v>
-      </c>
-      <c r="C291" t="n">
-        <v>144</v>
-      </c>
-      <c r="D291" t="n">
-        <v>144</v>
-      </c>
-      <c r="E291" t="n">
-        <v>144</v>
-      </c>
-      <c r="F291" t="n">
-        <v>291.642</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-64025.91079571517</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="C292" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="D292" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="E292" t="n">
-        <v>142.8</v>
-      </c>
-      <c r="F292" t="n">
-        <v>8328.3431</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-72354.25389571517</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>144</v>
-      </c>
-      <c r="J292" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10898,7 +10088,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>143.9</v>
+        <v>143.5</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10933,13 +10123,11 @@
         <v>-74389.82239571516</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>143.9</v>
+        <v>143.5</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10980,7 +10168,7 @@
         <v>143.2</v>
       </c>
       <c r="J295" t="n">
-        <v>143.9</v>
+        <v>143.5</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11021,7 +10209,7 @@
         <v>143.3</v>
       </c>
       <c r="J296" t="n">
-        <v>143.9</v>
+        <v>143.5</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11056,13 +10244,11 @@
         <v>-74773.46939571516</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>143.9</v>
+        <v>143.5</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11075,6 +10261,6 @@
       <c r="M297" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ABT.xlsx
+++ b/BackTest/2020-01-15 BackTest ABT.xlsx
@@ -451,7 +451,7 @@
         <v>-55421.59689999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-55416.95999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>139.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-55426.60159999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>140</v>
+      </c>
+      <c r="J4" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-57997.1868</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-34932.4258</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>138</v>
+      </c>
+      <c r="J6" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-35996.87179999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>144</v>
+      </c>
+      <c r="J7" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-24842.08279999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>-25592.08279999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>143</v>
+      </c>
+      <c r="J9" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +770,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +809,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +848,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +887,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +926,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +965,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1004,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1040,19 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>138</v>
+      </c>
+      <c r="J17" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1081,19 @@
         <v>-28491.42569999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>138</v>
+      </c>
+      <c r="J18" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1122,19 @@
         <v>-29809.67099999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>138</v>
+      </c>
+      <c r="J19" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1163,19 @@
         <v>-28381.52299999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>137</v>
+      </c>
+      <c r="J20" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1204,19 @@
         <v>-28376.91459999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>139</v>
+      </c>
+      <c r="J21" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1248,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1284,19 @@
         <v>-28438.76459999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>139</v>
+      </c>
+      <c r="J23" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1328,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1367,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1406,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1445,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1484,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1523,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1562,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1601,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1640,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1676,19 @@
         <v>-41342.58209999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1720,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1759,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1837,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1876,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1954,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1993,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2071,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2149,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2188,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2227,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2266,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2305,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2344,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2383,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2422,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2461,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2500,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2539,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2617,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2695,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2773,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2812,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2851,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2887,17 @@
         <v>6385.605585387223</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2929,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2968,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +3004,17 @@
         <v>46078.94347544467</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3043,17 @@
         <v>39878.37588568726</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3082,17 @@
         <v>8578.88018568726</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3121,17 @@
         <v>1031.653885687259</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3163,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3202,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3241,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3280,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3355,17 @@
         <v>-3907.480514312741</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3433,17 @@
         <v>-3480.785214312741</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3472,17 @@
         <v>-1976.785214312741</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3511,17 @@
         <v>-1976.785214312741</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3550,17 @@
         <v>955.9593856872589</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3592,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3631,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3709,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3748,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3787,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3823,17 @@
         <v>-24742.62711431274</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3862,17 @@
         <v>-24738.62711431274</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3901,17 @@
         <v>-20951.73251431274</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3940,17 @@
         <v>-20955.73251431274</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3979,17 @@
         <v>-21399.73251431274</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +4018,17 @@
         <v>-20323.90201431274</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +4057,17 @@
         <v>-17423.24081431274</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +4096,17 @@
         <v>-35432.19241431274</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +4135,17 @@
         <v>-23453.45121431274</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +4174,17 @@
         <v>-19192.36791431274</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4213,17 @@
         <v>-17523.36791431274</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4255,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4294,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4333,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4372,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4411,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4450,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4489,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4528,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4567,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4645,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4723,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4762,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4801,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,15 +4837,23 @@
         <v>3276.71378568726</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>1.144606299212598</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.002147458840372</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4180,7 +4878,7 @@
         <v>2641.888085687261</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4911,7 @@
         <v>35.58068568726048</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4944,7 @@
         <v>35.58068568726048</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4977,7 @@
         <v>239.5806856872605</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +5010,7 @@
         <v>239.5806856872605</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +5043,7 @@
         <v>209.5806856872605</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +5076,7 @@
         <v>-22562.41961431274</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +5109,7 @@
         <v>-27103.50591431274</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +5142,7 @@
         <v>-26759.85991431274</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -9196,7 +9894,7 @@
         <v>-62142.25271466879</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9295,7 +9993,7 @@
         <v>-62882.98171466879</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9889,14 +10587,10 @@
         <v>-62664.52929571517</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="J288" t="n">
-        <v>142.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
@@ -9926,19 +10620,11 @@
         <v>-62595.55279571517</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="J289" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9970,14 +10656,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10006,14 +10686,10 @@
         <v>-64025.91079571517</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="J291" t="n">
-        <v>143.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
@@ -10043,19 +10719,11 @@
         <v>-72354.25389571517</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>144</v>
-      </c>
-      <c r="J292" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10087,14 +10755,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10126,14 +10788,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10162,19 +10818,11 @@
         <v>-72889.82239571516</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="J295" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10203,19 +10851,11 @@
         <v>-74773.46939571516</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>143.3</v>
-      </c>
-      <c r="J296" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10247,14 +10887,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>143.5</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-15 BackTest ABT.xlsx
+++ b/BackTest/2020-01-15 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M297"/>
+  <dimension ref="A1:L297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>6.0997</v>
       </c>
       <c r="G2" t="n">
-        <v>-55421.59689999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>4.6369</v>
       </c>
       <c r="G3" t="n">
-        <v>-55416.95999999999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>139.7</v>
       </c>
       <c r="I3" t="n">
         <v>139.7</v>
       </c>
-      <c r="J3" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>9.6416</v>
       </c>
       <c r="G4" t="n">
-        <v>-55426.60159999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="I4" t="n">
-        <v>140</v>
-      </c>
-      <c r="J4" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>139.7</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>2570.5852</v>
       </c>
       <c r="G5" t="n">
-        <v>-57997.1868</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>139.6</v>
       </c>
       <c r="I5" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>23064.761</v>
       </c>
       <c r="G6" t="n">
-        <v>-34932.4258</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="I6" t="n">
-        <v>138</v>
-      </c>
-      <c r="J6" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>1064.446</v>
       </c>
       <c r="G7" t="n">
-        <v>-35996.87179999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="I7" t="n">
-        <v>144</v>
-      </c>
-      <c r="J7" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>11154.789</v>
       </c>
       <c r="G8" t="n">
-        <v>-24842.08279999999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>138.1</v>
       </c>
       <c r="I8" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +697,23 @@
         <v>750</v>
       </c>
       <c r="G9" t="n">
-        <v>-25592.08279999999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="I9" t="n">
-        <v>143</v>
-      </c>
-      <c r="J9" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,24 +735,23 @@
         <v>750</v>
       </c>
       <c r="G10" t="n">
-        <v>-26342.08279999999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>139</v>
+      </c>
+      <c r="I10" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -803,24 +773,23 @@
         <v>2440.4527</v>
       </c>
       <c r="G11" t="n">
-        <v>-28782.53549999999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>138.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,24 +811,23 @@
         <v>483.1098</v>
       </c>
       <c r="G12" t="n">
-        <v>-28299.42569999999</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>137.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -881,24 +849,23 @@
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>-28295.42569999999</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="I13" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -920,24 +887,23 @@
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>-28291.42569999999</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>139.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -959,24 +925,23 @@
         <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>-28491.42569999999</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>141.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -998,24 +963,23 @@
         <v>1500</v>
       </c>
       <c r="G16" t="n">
-        <v>-28491.42569999999</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="I16" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1037,26 +1001,23 @@
         <v>2224.2551</v>
       </c>
       <c r="G17" t="n">
-        <v>-28491.42569999999</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="I17" t="n">
-        <v>138</v>
-      </c>
-      <c r="J17" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1078,26 +1039,23 @@
         <v>198</v>
       </c>
       <c r="G18" t="n">
-        <v>-28491.42569999999</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="I18" t="n">
-        <v>138</v>
-      </c>
-      <c r="J18" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1119,26 +1077,23 @@
         <v>1318.2453</v>
       </c>
       <c r="G19" t="n">
-        <v>-29809.67099999999</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="I19" t="n">
-        <v>138</v>
-      </c>
-      <c r="J19" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1160,26 +1115,23 @@
         <v>1428.148</v>
       </c>
       <c r="G20" t="n">
-        <v>-28381.52299999999</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="I20" t="n">
-        <v>137</v>
-      </c>
-      <c r="J20" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1201,26 +1153,23 @@
         <v>4.6084</v>
       </c>
       <c r="G21" t="n">
-        <v>-28376.91459999999</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="I21" t="n">
-        <v>139</v>
-      </c>
-      <c r="J21" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1242,24 +1191,21 @@
         <v>69.84999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-28446.76459999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1281,26 +1227,21 @@
         <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>-28438.76459999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>139</v>
-      </c>
-      <c r="J23" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1322,24 +1263,21 @@
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>-28434.76459999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1361,24 +1299,21 @@
         <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>-28434.76459999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1400,24 +1335,21 @@
         <v>19682.7057</v>
       </c>
       <c r="G26" t="n">
-        <v>-48117.47029999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1439,24 +1371,21 @@
         <v>4964</v>
       </c>
       <c r="G27" t="n">
-        <v>-43153.47029999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1478,24 +1407,21 @@
         <v>1000</v>
       </c>
       <c r="G28" t="n">
-        <v>-44153.47029999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1517,24 +1443,21 @@
         <v>1000</v>
       </c>
       <c r="G29" t="n">
-        <v>-43153.47029999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1556,24 +1479,21 @@
         <v>2189.1118</v>
       </c>
       <c r="G30" t="n">
-        <v>-45342.58209999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1595,24 +1515,21 @@
         <v>67.36</v>
       </c>
       <c r="G31" t="n">
-        <v>-45342.58209999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1634,24 +1551,21 @@
         <v>2000</v>
       </c>
       <c r="G32" t="n">
-        <v>-43342.58209999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1673,26 +1587,21 @@
         <v>2000</v>
       </c>
       <c r="G33" t="n">
-        <v>-41342.58209999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>139.7</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1714,24 +1623,21 @@
         <v>5000</v>
       </c>
       <c r="G34" t="n">
-        <v>-46342.58209999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1753,24 +1659,21 @@
         <v>1850</v>
       </c>
       <c r="G35" t="n">
-        <v>-48192.58209999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1792,24 +1695,21 @@
         <v>19748.4169</v>
       </c>
       <c r="G36" t="n">
-        <v>-48192.58209999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1831,24 +1731,21 @@
         <v>8313.893</v>
       </c>
       <c r="G37" t="n">
-        <v>-56506.47509999998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1870,24 +1767,21 @@
         <v>7404</v>
       </c>
       <c r="G38" t="n">
-        <v>-49102.47509999998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1909,24 +1803,21 @@
         <v>307.9831</v>
       </c>
       <c r="G39" t="n">
-        <v>-49410.45819999998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1948,24 +1839,21 @@
         <v>306.157</v>
       </c>
       <c r="G40" t="n">
-        <v>-49104.30119999998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1987,24 +1875,21 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-49094.30119999998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2026,24 +1911,21 @@
         <v>9584.698399999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-39509.60279999998</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2065,24 +1947,21 @@
         <v>1246.2669</v>
       </c>
       <c r="G43" t="n">
-        <v>-39509.60279999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2104,24 +1983,21 @@
         <v>2546.096</v>
       </c>
       <c r="G44" t="n">
-        <v>-36963.50679999998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2143,24 +2019,21 @@
         <v>14680.404</v>
       </c>
       <c r="G45" t="n">
-        <v>-22283.10279999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2182,24 +2055,21 @@
         <v>170.681</v>
       </c>
       <c r="G46" t="n">
-        <v>-22283.10279999998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2221,24 +2091,21 @@
         <v>8987.5965</v>
       </c>
       <c r="G47" t="n">
-        <v>-13295.50629999998</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2260,24 +2127,21 @@
         <v>319</v>
       </c>
       <c r="G48" t="n">
-        <v>-13614.50629999998</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2299,24 +2163,21 @@
         <v>1007.9067</v>
       </c>
       <c r="G49" t="n">
-        <v>-13614.50629999998</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2338,24 +2199,21 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>-12614.50629999998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2377,24 +2235,21 @@
         <v>750</v>
       </c>
       <c r="G51" t="n">
-        <v>-12614.50629999998</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2416,24 +2271,21 @@
         <v>2130</v>
       </c>
       <c r="G52" t="n">
-        <v>-10484.50629999998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2455,24 +2307,21 @@
         <v>6003.640042693602</v>
       </c>
       <c r="G53" t="n">
-        <v>-4480.866257306378</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2494,24 +2343,21 @@
         <v>67</v>
       </c>
       <c r="G54" t="n">
-        <v>-4547.866257306378</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2533,24 +2379,21 @@
         <v>2512.5179</v>
       </c>
       <c r="G55" t="n">
-        <v>-2035.348357306378</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2572,24 +2415,21 @@
         <v>11008</v>
       </c>
       <c r="G56" t="n">
-        <v>8972.651642693621</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2611,24 +2451,21 @@
         <v>8123.8513</v>
       </c>
       <c r="G57" t="n">
-        <v>848.8003426936211</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2650,24 +2487,21 @@
         <v>2376.9161</v>
       </c>
       <c r="G58" t="n">
-        <v>3225.716442693621</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2689,24 +2523,21 @@
         <v>1694.1216</v>
       </c>
       <c r="G59" t="n">
-        <v>4919.838042693621</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2728,24 +2559,21 @@
         <v>4012.5367</v>
       </c>
       <c r="G60" t="n">
-        <v>4919.838042693621</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2767,24 +2595,21 @@
         <v>5653.69</v>
       </c>
       <c r="G61" t="n">
-        <v>10573.52804269362</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2806,24 +2631,21 @@
         <v>4191.282457306397</v>
       </c>
       <c r="G62" t="n">
-        <v>6382.245585387223</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2845,24 +2667,21 @@
         <v>3.36</v>
       </c>
       <c r="G63" t="n">
-        <v>6385.605585387223</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2884,24 +2703,21 @@
         <v>3092.3398</v>
       </c>
       <c r="G64" t="n">
-        <v>6385.605585387223</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2923,24 +2739,21 @@
         <v>37057.56028980945</v>
       </c>
       <c r="G65" t="n">
-        <v>43443.16587519668</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2962,24 +2775,21 @@
         <v>13194.06929975201</v>
       </c>
       <c r="G66" t="n">
-        <v>30249.09657544467</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3001,24 +2811,21 @@
         <v>15829.8469</v>
       </c>
       <c r="G67" t="n">
-        <v>46078.94347544467</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3040,24 +2847,21 @@
         <v>6200.567589757412</v>
       </c>
       <c r="G68" t="n">
-        <v>39878.37588568726</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3079,24 +2883,21 @@
         <v>31299.4957</v>
       </c>
       <c r="G69" t="n">
-        <v>8578.88018568726</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3118,24 +2919,21 @@
         <v>7547.2263</v>
       </c>
       <c r="G70" t="n">
-        <v>1031.653885687259</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3157,24 +2955,21 @@
         <v>475.8837</v>
       </c>
       <c r="G71" t="n">
-        <v>1507.537585687259</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3196,24 +2991,21 @@
         <v>4</v>
       </c>
       <c r="G72" t="n">
-        <v>1511.537585687259</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3235,24 +3027,21 @@
         <v>7768.9011</v>
       </c>
       <c r="G73" t="n">
-        <v>-6257.363514312741</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3274,24 +3063,21 @@
         <v>3241.1655</v>
       </c>
       <c r="G74" t="n">
-        <v>-3016.198014312741</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3313,24 +3099,21 @@
         <v>426.93</v>
       </c>
       <c r="G75" t="n">
-        <v>-3443.128014312741</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3352,24 +3135,21 @@
         <v>464.3525</v>
       </c>
       <c r="G76" t="n">
-        <v>-3907.480514312741</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3391,24 +3171,21 @@
         <v>426.6953</v>
       </c>
       <c r="G77" t="n">
-        <v>-3480.785214312741</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3430,24 +3207,21 @@
         <v>3036.196214075821</v>
       </c>
       <c r="G78" t="n">
-        <v>-3480.785214312741</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3469,24 +3243,21 @@
         <v>1504</v>
       </c>
       <c r="G79" t="n">
-        <v>-1976.785214312741</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3508,24 +3279,21 @@
         <v>30</v>
       </c>
       <c r="G80" t="n">
-        <v>-1976.785214312741</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3547,24 +3315,21 @@
         <v>2932.7446</v>
       </c>
       <c r="G81" t="n">
-        <v>955.9593856872589</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3586,24 +3351,21 @@
         <v>3520.6846</v>
       </c>
       <c r="G82" t="n">
-        <v>4476.643985687258</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3625,24 +3387,21 @@
         <v>9184.8922</v>
       </c>
       <c r="G83" t="n">
-        <v>-4708.248214312742</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3664,24 +3423,21 @@
         <v>2573.8709</v>
       </c>
       <c r="G84" t="n">
-        <v>-7282.119114312742</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3703,24 +3459,21 @@
         <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>-7277.119114312742</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3742,24 +3495,21 @@
         <v>3735.9945</v>
       </c>
       <c r="G86" t="n">
-        <v>-11013.11361431274</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3781,24 +3531,21 @@
         <v>13733.5135</v>
       </c>
       <c r="G87" t="n">
-        <v>-24746.62711431274</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3820,24 +3567,21 @@
         <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>-24742.62711431274</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3859,24 +3603,21 @@
         <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>-24738.62711431274</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3898,24 +3639,21 @@
         <v>3786.8946</v>
       </c>
       <c r="G90" t="n">
-        <v>-20951.73251431274</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3937,24 +3675,21 @@
         <v>4</v>
       </c>
       <c r="G91" t="n">
-        <v>-20955.73251431274</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3976,24 +3711,21 @@
         <v>444</v>
       </c>
       <c r="G92" t="n">
-        <v>-21399.73251431274</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4015,24 +3747,21 @@
         <v>1075.8305</v>
       </c>
       <c r="G93" t="n">
-        <v>-20323.90201431274</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4054,24 +3783,21 @@
         <v>2900.6612</v>
       </c>
       <c r="G94" t="n">
-        <v>-17423.24081431274</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4093,24 +3819,21 @@
         <v>18008.9516</v>
       </c>
       <c r="G95" t="n">
-        <v>-35432.19241431274</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4132,24 +3855,21 @@
         <v>11978.7412</v>
       </c>
       <c r="G96" t="n">
-        <v>-23453.45121431274</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4171,24 +3891,21 @@
         <v>4261.0833</v>
       </c>
       <c r="G97" t="n">
-        <v>-19192.36791431274</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4210,24 +3927,21 @@
         <v>1669</v>
       </c>
       <c r="G98" t="n">
-        <v>-17523.36791431274</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4249,24 +3963,21 @@
         <v>607.9769</v>
       </c>
       <c r="G99" t="n">
-        <v>-17523.36791431274</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4288,24 +3999,21 @@
         <v>4873.6525</v>
       </c>
       <c r="G100" t="n">
-        <v>-12649.71541431274</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4327,24 +4035,21 @@
         <v>6024.161</v>
       </c>
       <c r="G101" t="n">
-        <v>-6625.554414312737</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4366,24 +4071,21 @@
         <v>5364.38</v>
       </c>
       <c r="G102" t="n">
-        <v>-11989.93441431274</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4405,24 +4107,21 @@
         <v>198.604</v>
       </c>
       <c r="G103" t="n">
-        <v>-11791.33041431274</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4444,24 +4143,21 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-11781.33041431274</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4483,24 +4179,21 @@
         <v>2431.5791</v>
       </c>
       <c r="G105" t="n">
-        <v>-9349.75131431274</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4522,24 +4215,21 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-9359.75131431274</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4561,24 +4251,21 @@
         <v>670.4681</v>
       </c>
       <c r="G107" t="n">
-        <v>-10030.21941431274</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4600,24 +4287,21 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-10020.21941431274</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4639,24 +4323,21 @@
         <v>12469.8144</v>
       </c>
       <c r="G109" t="n">
-        <v>-10020.21941431274</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4678,24 +4359,21 @@
         <v>201.3415</v>
       </c>
       <c r="G110" t="n">
-        <v>-10020.21941431274</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4717,24 +4395,21 @@
         <v>1750</v>
       </c>
       <c r="G111" t="n">
-        <v>-8270.21941431274</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4756,24 +4431,21 @@
         <v>785.9844000000001</v>
       </c>
       <c r="G112" t="n">
-        <v>-8270.21941431274</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4795,24 +4467,21 @@
         <v>13293.3186</v>
       </c>
       <c r="G113" t="n">
-        <v>5023.099185687261</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4834,26 +4503,21 @@
         <v>1746.3854</v>
       </c>
       <c r="G114" t="n">
-        <v>3276.71378568726</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1.144606299212598</v>
-      </c>
-      <c r="M114" t="n">
-        <v>1.002147458840372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4875,18 +4539,21 @@
         <v>634.8257</v>
       </c>
       <c r="G115" t="n">
-        <v>2641.888085687261</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4908,18 +4575,23 @@
         <v>2606.3074</v>
       </c>
       <c r="G116" t="n">
-        <v>35.58068568726048</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1.125994989262706</v>
+      </c>
       <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>1.002147458840372</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4941,18 +4613,15 @@
         <v>7606.3014</v>
       </c>
       <c r="G117" t="n">
-        <v>35.58068568726048</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4974,18 +4643,15 @@
         <v>204</v>
       </c>
       <c r="G118" t="n">
-        <v>239.5806856872605</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5007,18 +4673,15 @@
         <v>236.9378</v>
       </c>
       <c r="G119" t="n">
-        <v>239.5806856872605</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5040,18 +4703,15 @@
         <v>30</v>
       </c>
       <c r="G120" t="n">
-        <v>209.5806856872605</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5073,18 +4733,15 @@
         <v>22772.0003</v>
       </c>
       <c r="G121" t="n">
-        <v>-22562.41961431274</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5106,18 +4763,15 @@
         <v>4541.0863</v>
       </c>
       <c r="G122" t="n">
-        <v>-27103.50591431274</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5139,18 +4793,15 @@
         <v>343.646</v>
       </c>
       <c r="G123" t="n">
-        <v>-26759.85991431274</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5172,18 +4823,15 @@
         <v>2426.7205</v>
       </c>
       <c r="G124" t="n">
-        <v>-29186.58041431274</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5205,18 +4853,15 @@
         <v>69</v>
       </c>
       <c r="G125" t="n">
-        <v>-29255.58041431274</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5238,18 +4883,15 @@
         <v>3798.504</v>
       </c>
       <c r="G126" t="n">
-        <v>-33054.08441431274</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5271,18 +4913,15 @@
         <v>56</v>
       </c>
       <c r="G127" t="n">
-        <v>-33054.08441431274</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5304,18 +4943,15 @@
         <v>1238</v>
       </c>
       <c r="G128" t="n">
-        <v>-31816.08441431274</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5337,18 +4973,15 @@
         <v>431.5776</v>
       </c>
       <c r="G129" t="n">
-        <v>-31816.08441431274</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5370,18 +5003,15 @@
         <v>177.0925</v>
       </c>
       <c r="G130" t="n">
-        <v>-31638.99191431274</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5403,18 +5033,15 @@
         <v>1853.035189456869</v>
       </c>
       <c r="G131" t="n">
-        <v>-33492.02710376961</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5436,18 +5063,15 @@
         <v>256.4103</v>
       </c>
       <c r="G132" t="n">
-        <v>-33748.43740376961</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5469,18 +5093,15 @@
         <v>128.2052</v>
       </c>
       <c r="G133" t="n">
-        <v>-33748.43740376961</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5502,18 +5123,15 @@
         <v>248.8027</v>
       </c>
       <c r="G134" t="n">
-        <v>-33997.24010376961</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5535,18 +5153,15 @@
         <v>263.5623</v>
       </c>
       <c r="G135" t="n">
-        <v>-34260.80240376961</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5568,18 +5183,15 @@
         <v>4</v>
       </c>
       <c r="G136" t="n">
-        <v>-34256.80240376961</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5601,18 +5213,15 @@
         <v>703.3149</v>
       </c>
       <c r="G137" t="n">
-        <v>-34960.11730376961</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5634,18 +5243,15 @@
         <v>3783.7768</v>
       </c>
       <c r="G138" t="n">
-        <v>-38743.89410376961</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5667,18 +5273,15 @@
         <v>4035.3489</v>
       </c>
       <c r="G139" t="n">
-        <v>-34708.54520376961</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5700,18 +5303,15 @@
         <v>3029.2557</v>
       </c>
       <c r="G140" t="n">
-        <v>-37737.80090376961</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5733,18 +5333,15 @@
         <v>175.3139</v>
       </c>
       <c r="G141" t="n">
-        <v>-37737.80090376961</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5766,18 +5363,15 @@
         <v>239.8812</v>
       </c>
       <c r="G142" t="n">
-        <v>-37737.80090376961</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5799,18 +5393,15 @@
         <v>74.47150000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-37812.27240376961</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5832,18 +5423,15 @@
         <v>13288.6124</v>
       </c>
       <c r="G144" t="n">
-        <v>-24523.66000376961</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5865,18 +5453,15 @@
         <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>-24623.66000376961</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5898,18 +5483,15 @@
         <v>681.5791</v>
       </c>
       <c r="G146" t="n">
-        <v>-25305.23910376961</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5931,18 +5513,15 @@
         <v>1028.951</v>
       </c>
       <c r="G147" t="n">
-        <v>-24276.28810376961</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5964,18 +5543,15 @@
         <v>5</v>
       </c>
       <c r="G148" t="n">
-        <v>-24281.28810376961</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5997,18 +5573,15 @@
         <v>5</v>
       </c>
       <c r="G149" t="n">
-        <v>-24286.28810376961</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6030,18 +5603,15 @@
         <v>1415.8611</v>
       </c>
       <c r="G150" t="n">
-        <v>-22870.42700376961</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6063,18 +5633,15 @@
         <v>7051.4153</v>
       </c>
       <c r="G151" t="n">
-        <v>-29921.84230376961</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6096,18 +5663,15 @@
         <v>1449.687344827586</v>
       </c>
       <c r="G152" t="n">
-        <v>-29921.84230376961</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6129,18 +5693,15 @@
         <v>14662.0202</v>
       </c>
       <c r="G153" t="n">
-        <v>-44583.86250376961</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6162,18 +5723,15 @@
         <v>33077.8482</v>
       </c>
       <c r="G154" t="n">
-        <v>-11506.01430376961</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6195,18 +5753,15 @@
         <v>401.7665</v>
       </c>
       <c r="G155" t="n">
-        <v>-11907.78080376961</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6228,18 +5783,15 @@
         <v>669.7247</v>
       </c>
       <c r="G156" t="n">
-        <v>-12577.50550376961</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6261,18 +5813,15 @@
         <v>50</v>
       </c>
       <c r="G157" t="n">
-        <v>-12527.50550376961</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6294,18 +5843,15 @@
         <v>634.8257</v>
       </c>
       <c r="G158" t="n">
-        <v>-13162.33120376961</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6327,18 +5873,15 @@
         <v>4954.045689100817</v>
       </c>
       <c r="G159" t="n">
-        <v>-8208.285514668794</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6360,18 +5903,15 @@
         <v>401.7665</v>
       </c>
       <c r="G160" t="n">
-        <v>-8610.052014668794</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6393,18 +5933,15 @@
         <v>8.1181</v>
       </c>
       <c r="G161" t="n">
-        <v>-8601.933914668794</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6426,18 +5963,15 @@
         <v>10</v>
       </c>
       <c r="G162" t="n">
-        <v>-8611.933914668794</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6459,18 +5993,15 @@
         <v>4947.2337</v>
       </c>
       <c r="G163" t="n">
-        <v>-13559.16761466879</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6492,18 +6023,15 @@
         <v>3639.1803</v>
       </c>
       <c r="G164" t="n">
-        <v>-9919.987314668793</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6525,18 +6053,15 @@
         <v>9791.219499999999</v>
       </c>
       <c r="G165" t="n">
-        <v>-19711.20681466879</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6558,18 +6083,15 @@
         <v>831.961</v>
       </c>
       <c r="G166" t="n">
-        <v>-19711.20681466879</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6591,18 +6113,15 @@
         <v>1500</v>
       </c>
       <c r="G167" t="n">
-        <v>-18211.20681466879</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6624,18 +6143,15 @@
         <v>15811.8827</v>
       </c>
       <c r="G168" t="n">
-        <v>-18211.20681466879</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6657,18 +6173,15 @@
         <v>1702.9066</v>
       </c>
       <c r="G169" t="n">
-        <v>-19914.11341466879</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6690,18 +6203,15 @@
         <v>11099.6646</v>
       </c>
       <c r="G170" t="n">
-        <v>-8814.448814668791</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6723,18 +6233,15 @@
         <v>5579.806</v>
       </c>
       <c r="G171" t="n">
-        <v>-3234.642814668791</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6756,18 +6263,15 @@
         <v>67</v>
       </c>
       <c r="G172" t="n">
-        <v>-3301.642814668791</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6789,18 +6293,15 @@
         <v>584.6505</v>
       </c>
       <c r="G173" t="n">
-        <v>-2716.992314668792</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6822,18 +6323,15 @@
         <v>2251.25</v>
       </c>
       <c r="G174" t="n">
-        <v>-4968.242314668792</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6855,18 +6353,15 @@
         <v>14.8506</v>
       </c>
       <c r="G175" t="n">
-        <v>-4983.092914668791</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6888,18 +6383,15 @@
         <v>436.9378</v>
       </c>
       <c r="G176" t="n">
-        <v>-5420.030714668791</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6921,18 +6413,15 @@
         <v>11180.5205</v>
       </c>
       <c r="G177" t="n">
-        <v>5760.48978533121</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6954,18 +6443,15 @@
         <v>87.77200000000001</v>
       </c>
       <c r="G178" t="n">
-        <v>5672.71778533121</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6987,18 +6473,15 @@
         <v>4901.4437</v>
       </c>
       <c r="G179" t="n">
-        <v>771.2740853312098</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7020,18 +6503,15 @@
         <v>1553.13</v>
       </c>
       <c r="G180" t="n">
-        <v>2324.40408533121</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7053,18 +6533,15 @@
         <v>1500</v>
       </c>
       <c r="G181" t="n">
-        <v>824.4040853312099</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7086,18 +6563,15 @@
         <v>1500</v>
       </c>
       <c r="G182" t="n">
-        <v>2324.40408533121</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7119,18 +6593,15 @@
         <v>821.2246</v>
       </c>
       <c r="G183" t="n">
-        <v>1503.17948533121</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7152,18 +6623,15 @@
         <v>42.4803</v>
       </c>
       <c r="G184" t="n">
-        <v>1460.69918533121</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7185,18 +6653,15 @@
         <v>827.2856</v>
       </c>
       <c r="G185" t="n">
-        <v>2287.98478533121</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7218,18 +6683,15 @@
         <v>1454.5593</v>
       </c>
       <c r="G186" t="n">
-        <v>833.42548533121</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7251,18 +6713,15 @@
         <v>68.4932</v>
       </c>
       <c r="G187" t="n">
-        <v>901.91868533121</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7284,18 +6743,15 @@
         <v>1186.6192</v>
       </c>
       <c r="G188" t="n">
-        <v>-284.7005146687901</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7317,18 +6773,15 @@
         <v>1292.4924</v>
       </c>
       <c r="G189" t="n">
-        <v>1007.79188533121</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7350,18 +6803,15 @@
         <v>510.8949</v>
       </c>
       <c r="G190" t="n">
-        <v>1518.68678533121</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7383,18 +6833,15 @@
         <v>4.3508</v>
       </c>
       <c r="G191" t="n">
-        <v>1514.33598533121</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7416,18 +6863,15 @@
         <v>499.394</v>
       </c>
       <c r="G192" t="n">
-        <v>2013.72998533121</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7449,18 +6893,15 @@
         <v>897.1128</v>
       </c>
       <c r="G193" t="n">
-        <v>2013.72998533121</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7482,18 +6923,15 @@
         <v>3180.9546</v>
       </c>
       <c r="G194" t="n">
-        <v>2013.72998533121</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7515,18 +6953,15 @@
         <v>90.41095890410959</v>
       </c>
       <c r="G195" t="n">
-        <v>2104.14094423532</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7548,18 +6983,15 @@
         <v>108.0172</v>
       </c>
       <c r="G196" t="n">
-        <v>1996.12374423532</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7581,18 +7013,15 @@
         <v>1349.88824109589</v>
       </c>
       <c r="G197" t="n">
-        <v>3346.01198533121</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7614,18 +7043,15 @@
         <v>3838.7893</v>
       </c>
       <c r="G198" t="n">
-        <v>7184.80128533121</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7647,18 +7073,15 @@
         <v>5837.1728</v>
       </c>
       <c r="G199" t="n">
-        <v>1347.62848533121</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7680,18 +7103,15 @@
         <v>4685.4786</v>
       </c>
       <c r="G200" t="n">
-        <v>-3337.85011466879</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7713,18 +7133,15 @@
         <v>4514.5091</v>
       </c>
       <c r="G201" t="n">
-        <v>1176.65898533121</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7746,18 +7163,15 @@
         <v>2570.5019</v>
       </c>
       <c r="G202" t="n">
-        <v>-1393.84291466879</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7779,18 +7193,15 @@
         <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>-1383.84291466879</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7812,18 +7223,15 @@
         <v>339.2857</v>
       </c>
       <c r="G204" t="n">
-        <v>-1723.12861466879</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7845,18 +7253,15 @@
         <v>250</v>
       </c>
       <c r="G205" t="n">
-        <v>-1973.12861466879</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7878,18 +7283,15 @@
         <v>14500</v>
       </c>
       <c r="G206" t="n">
-        <v>-16473.12861466879</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7911,18 +7313,15 @@
         <v>3100.372</v>
       </c>
       <c r="G207" t="n">
-        <v>-13372.75661466879</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7944,18 +7343,15 @@
         <v>50</v>
       </c>
       <c r="G208" t="n">
-        <v>-13422.75661466879</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7977,18 +7373,15 @@
         <v>5066.7259</v>
       </c>
       <c r="G209" t="n">
-        <v>-18489.48251466879</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8010,18 +7403,15 @@
         <v>154.139</v>
       </c>
       <c r="G210" t="n">
-        <v>-18335.34351466879</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8043,18 +7433,15 @@
         <v>7.5807</v>
       </c>
       <c r="G211" t="n">
-        <v>-18327.76281466879</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8076,18 +7463,15 @@
         <v>1843.8506</v>
       </c>
       <c r="G212" t="n">
-        <v>-20171.61341466879</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8109,18 +7493,15 @@
         <v>2376.4459</v>
       </c>
       <c r="G213" t="n">
-        <v>-22548.05931466879</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8142,18 +7523,15 @@
         <v>620.3995</v>
       </c>
       <c r="G214" t="n">
-        <v>-21927.65981466879</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8175,18 +7553,15 @@
         <v>23335.6961</v>
       </c>
       <c r="G215" t="n">
-        <v>-45263.35591466879</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8208,18 +7583,15 @@
         <v>2209.5954</v>
       </c>
       <c r="G216" t="n">
-        <v>-43053.76051466879</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8241,18 +7613,15 @@
         <v>126</v>
       </c>
       <c r="G217" t="n">
-        <v>-43053.76051466879</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8274,18 +7643,15 @@
         <v>1953.3219</v>
       </c>
       <c r="G218" t="n">
-        <v>-43053.76051466879</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8307,18 +7673,15 @@
         <v>7971.963</v>
       </c>
       <c r="G219" t="n">
-        <v>-35081.7975146688</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8340,18 +7703,15 @@
         <v>750</v>
       </c>
       <c r="G220" t="n">
-        <v>-35831.7975146688</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8373,18 +7733,15 @@
         <v>495.7458</v>
       </c>
       <c r="G221" t="n">
-        <v>-35336.0517146688</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8406,18 +7763,15 @@
         <v>69.6579</v>
       </c>
       <c r="G222" t="n">
-        <v>-35336.0517146688</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8439,18 +7793,15 @@
         <v>600.495</v>
       </c>
       <c r="G223" t="n">
-        <v>-35336.0517146688</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8472,18 +7823,15 @@
         <v>6568.1898</v>
       </c>
       <c r="G224" t="n">
-        <v>-41904.2415146688</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8505,18 +7853,15 @@
         <v>1250</v>
       </c>
       <c r="G225" t="n">
-        <v>-40654.2415146688</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8538,18 +7883,15 @@
         <v>699.0563</v>
       </c>
       <c r="G226" t="n">
-        <v>-39955.1852146688</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8571,18 +7913,15 @@
         <v>2196.4338</v>
       </c>
       <c r="G227" t="n">
-        <v>-37758.7514146688</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8604,18 +7943,15 @@
         <v>52.1464</v>
       </c>
       <c r="G228" t="n">
-        <v>-37706.60501466881</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8637,18 +7973,15 @@
         <v>1235.6603</v>
       </c>
       <c r="G229" t="n">
-        <v>-38942.26531466881</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8670,18 +8003,15 @@
         <v>368.9132</v>
       </c>
       <c r="G230" t="n">
-        <v>-38573.35211466881</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8703,18 +8033,15 @@
         <v>14097.3287</v>
       </c>
       <c r="G231" t="n">
-        <v>-52670.68081466881</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8736,18 +8063,15 @@
         <v>206.019</v>
       </c>
       <c r="G232" t="n">
-        <v>-52876.69981466881</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8769,18 +8093,15 @@
         <v>4708.1832</v>
       </c>
       <c r="G233" t="n">
-        <v>-48168.51661466881</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8802,18 +8123,15 @@
         <v>3750</v>
       </c>
       <c r="G234" t="n">
-        <v>-48168.51661466881</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8835,18 +8153,15 @@
         <v>2000</v>
       </c>
       <c r="G235" t="n">
-        <v>-48168.51661466881</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8868,18 +8183,15 @@
         <v>11632.848</v>
       </c>
       <c r="G236" t="n">
-        <v>-59801.3646146688</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8901,18 +8213,15 @@
         <v>6.5041</v>
       </c>
       <c r="G237" t="n">
-        <v>-59794.86051466881</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8934,18 +8243,15 @@
         <v>1887.926</v>
       </c>
       <c r="G238" t="n">
-        <v>-61682.78651466881</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8967,18 +8273,15 @@
         <v>3.3334</v>
       </c>
       <c r="G239" t="n">
-        <v>-61679.4531146688</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9000,18 +8303,15 @@
         <v>3.358</v>
       </c>
       <c r="G240" t="n">
-        <v>-61682.8111146688</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9033,18 +8333,15 @@
         <v>62</v>
       </c>
       <c r="G241" t="n">
-        <v>-61744.8111146688</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9066,18 +8363,15 @@
         <v>3.3784</v>
       </c>
       <c r="G242" t="n">
-        <v>-61741.4327146688</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9099,18 +8393,15 @@
         <v>5.0516</v>
       </c>
       <c r="G243" t="n">
-        <v>-61741.4327146688</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9132,18 +8423,15 @@
         <v>369.443</v>
       </c>
       <c r="G244" t="n">
-        <v>-62110.8757146688</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9165,18 +8453,15 @@
         <v>962.977</v>
       </c>
       <c r="G245" t="n">
-        <v>-63073.8527146688</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9198,18 +8483,15 @@
         <v>1276.357</v>
       </c>
       <c r="G246" t="n">
-        <v>-61797.4957146688</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9231,18 +8513,15 @@
         <v>1879.2136</v>
       </c>
       <c r="G247" t="n">
-        <v>-63676.7093146688</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9264,18 +8543,15 @@
         <v>149.62</v>
       </c>
       <c r="G248" t="n">
-        <v>-63676.7093146688</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9297,18 +8573,15 @@
         <v>475.0667</v>
       </c>
       <c r="G249" t="n">
-        <v>-63676.7093146688</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9330,18 +8603,15 @@
         <v>1632.9393</v>
       </c>
       <c r="G250" t="n">
-        <v>-63676.7093146688</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9363,18 +8633,15 @@
         <v>250</v>
       </c>
       <c r="G251" t="n">
-        <v>-63426.7093146688</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9396,18 +8663,15 @@
         <v>1189.2682</v>
       </c>
       <c r="G252" t="n">
-        <v>-63426.7093146688</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9429,18 +8693,15 @@
         <v>37.0561</v>
       </c>
       <c r="G253" t="n">
-        <v>-63389.6532146688</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9462,18 +8723,15 @@
         <v>750</v>
       </c>
       <c r="G254" t="n">
-        <v>-63389.6532146688</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9495,18 +8753,15 @@
         <v>281.9</v>
       </c>
       <c r="G255" t="n">
-        <v>-63671.5532146688</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9528,18 +8783,15 @@
         <v>27.3392</v>
       </c>
       <c r="G256" t="n">
-        <v>-63671.5532146688</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9561,18 +8813,15 @@
         <v>1500</v>
       </c>
       <c r="G257" t="n">
-        <v>-65171.5532146688</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9594,18 +8843,15 @@
         <v>2000</v>
       </c>
       <c r="G258" t="n">
-        <v>-67171.55321466879</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9627,18 +8873,15 @@
         <v>2224.9075</v>
       </c>
       <c r="G259" t="n">
-        <v>-64946.64571466879</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9660,18 +8903,15 @@
         <v>985.2242</v>
       </c>
       <c r="G260" t="n">
-        <v>-63961.42151466879</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9693,18 +8933,15 @@
         <v>1000</v>
       </c>
       <c r="G261" t="n">
-        <v>-64961.42151466879</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9726,18 +8963,15 @@
         <v>1130.4635</v>
       </c>
       <c r="G262" t="n">
-        <v>-63830.95801466879</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9759,18 +8993,15 @@
         <v>414.8606</v>
       </c>
       <c r="G263" t="n">
-        <v>-63830.95801466879</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9792,18 +9023,15 @@
         <v>3615.0857</v>
       </c>
       <c r="G264" t="n">
-        <v>-60215.87231466879</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9825,18 +9053,15 @@
         <v>1740.8738</v>
       </c>
       <c r="G265" t="n">
-        <v>-61956.74611466879</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9858,18 +9083,15 @@
         <v>10</v>
       </c>
       <c r="G266" t="n">
-        <v>-61946.74611466879</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9891,18 +9113,15 @@
         <v>195.5066</v>
       </c>
       <c r="G267" t="n">
-        <v>-62142.25271466879</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9924,18 +9143,15 @@
         <v>156.7725</v>
       </c>
       <c r="G268" t="n">
-        <v>-62142.25271466879</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9957,18 +9173,15 @@
         <v>3.8</v>
       </c>
       <c r="G269" t="n">
-        <v>-62138.45271466879</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9990,18 +9203,15 @@
         <v>744.529</v>
       </c>
       <c r="G270" t="n">
-        <v>-62882.98171466879</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10023,18 +9233,15 @@
         <v>996.2891</v>
       </c>
       <c r="G271" t="n">
-        <v>-63879.27081466879</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10056,18 +9263,15 @@
         <v>1500</v>
       </c>
       <c r="G272" t="n">
-        <v>-65379.27081466879</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10089,18 +9293,15 @@
         <v>652.4648999999999</v>
       </c>
       <c r="G273" t="n">
-        <v>-66031.7357146688</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10122,18 +9323,15 @@
         <v>1709.1699</v>
       </c>
       <c r="G274" t="n">
-        <v>-66031.7357146688</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10155,18 +9353,15 @@
         <v>4</v>
       </c>
       <c r="G275" t="n">
-        <v>-66027.7357146688</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10188,18 +9383,15 @@
         <v>4</v>
       </c>
       <c r="G276" t="n">
-        <v>-66027.7357146688</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10221,18 +9413,15 @@
         <v>157.975</v>
       </c>
       <c r="G277" t="n">
-        <v>-66185.71071466881</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10254,18 +9443,15 @@
         <v>4</v>
       </c>
       <c r="G278" t="n">
-        <v>-66181.71071466881</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10287,18 +9473,15 @@
         <v>663.7709</v>
       </c>
       <c r="G279" t="n">
-        <v>-66845.48161466881</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10320,18 +9503,15 @@
         <v>10.0384</v>
       </c>
       <c r="G280" t="n">
-        <v>-66835.44321466881</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10353,18 +9533,15 @@
         <v>1331.750464814815</v>
       </c>
       <c r="G281" t="n">
-        <v>-65503.69274985399</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10386,18 +9563,15 @@
         <v>7535.184954138825</v>
       </c>
       <c r="G282" t="n">
-        <v>-57968.50779571517</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10419,18 +9593,15 @@
         <v>524.9557</v>
       </c>
       <c r="G283" t="n">
-        <v>-58493.46349571516</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10452,18 +9623,15 @@
         <v>3122.5374</v>
       </c>
       <c r="G284" t="n">
-        <v>-61616.00089571517</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10485,18 +9653,15 @@
         <v>750</v>
       </c>
       <c r="G285" t="n">
-        <v>-60866.00089571517</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10518,18 +9683,15 @@
         <v>460.2412</v>
       </c>
       <c r="G286" t="n">
-        <v>-60405.75969571517</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10551,18 +9713,15 @@
         <v>3312.1036</v>
       </c>
       <c r="G287" t="n">
-        <v>-63717.86329571517</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10584,18 +9743,15 @@
         <v>1053.334</v>
       </c>
       <c r="G288" t="n">
-        <v>-62664.52929571517</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10617,18 +9773,15 @@
         <v>68.9765</v>
       </c>
       <c r="G289" t="n">
-        <v>-62595.55279571517</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10650,18 +9803,15 @@
         <v>1722</v>
       </c>
       <c r="G290" t="n">
-        <v>-64317.55279571517</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10683,18 +9833,15 @@
         <v>291.642</v>
       </c>
       <c r="G291" t="n">
-        <v>-64025.91079571517</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10716,18 +9863,15 @@
         <v>8328.3431</v>
       </c>
       <c r="G292" t="n">
-        <v>-72354.25389571517</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10749,18 +9893,15 @@
         <v>464.4315</v>
       </c>
       <c r="G293" t="n">
-        <v>-71889.82239571516</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10782,18 +9923,15 @@
         <v>2500</v>
       </c>
       <c r="G294" t="n">
-        <v>-74389.82239571516</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10815,18 +9953,15 @@
         <v>1500</v>
       </c>
       <c r="G295" t="n">
-        <v>-72889.82239571516</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10848,18 +9983,15 @@
         <v>1883.647</v>
       </c>
       <c r="G296" t="n">
-        <v>-74773.46939571516</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10881,18 +10013,15 @@
         <v>7693.5034</v>
       </c>
       <c r="G297" t="n">
-        <v>-74773.46939571516</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
